--- a/output/Total_time_range_data/山东省/菏泽市_学习考察.xlsx
+++ b/output/Total_time_range_data/山东省/菏泽市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5598 +436,6125 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>144</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>枣庄市林业和绿化局来我市考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a26ffcf0020/1572062502945030144.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['8月3日，枣庄市林业和绿化局一级调研员龙厚宏一行来我市考察学习。市林业局党组书记、局长王本现陪同龙厚宏一行考察了牡丹国际商品交易中心，双方共同交流了林业发展情况，探讨了中国林产品交易会参展事宜，听取了牡丹国际商品交易中心总经理王怀海的详细介绍，就如何利用好这个平台，开展现货与期货之间的大宗商品交易业务进行了深入探讨。', '据悉，牡丹国际商品交易中心有限公司（简称“交易中心”）成立于2017年8月，注册资本5000万元人民币，公司总部位于山东省菏泽市。交易中心是由省属国企山东水发天源集团、市属国企菏泽交通集团等七家股东共同发起组建的国有控股企业。交易中心经山东省金融办批准，依托菏泽周边丰富特色农产品资源，坚持“立足现货、服务现货、提升现货”的理念，开展“介于现货和期货之间”的大宗商品交易，是一家功能完备、交易便捷、市场认可度高的大型综合性商品交易场所和金融服务中心。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>144</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>齐河县人民政府考察组一行到东明县考察学习</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2020-08-07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d7dd7000e/1584459586134343680.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['8月5日，齐河县人民政府办公室副主任魏恒琪带领县委编办、财政局、人社局，发改局、卫健局领导班子成员一行10人到东明县考察学习基层医疗卫生机构公益一类政策落实情况及菏泽市委、市政府“12条意见”落实情况。东明县政府办公室副主任闫排洲，县卫健局党组书记田蕊陪同考察。', '东明县政府办公室进行了情况介绍，闫排洲主持，田蕊介绍了东明县基层医疗卫生机构公益一类政策落实情况、经验做法及菏泽市委、市政府“12条意见”落实情况，双方并对相关工作进行交流学习。随后，考察组一行实地参观了渔沃街道办事处卫生院、陆圈镇卫生院基础医疗设施建设、国医堂等亮点工作。', '通过考察学习，双方均表示，对加强两地卫生健康工作联系、共同促进提升发挥了积极作用，希望以此次考察学习为契机，取长补短、合作共赢，相互借鉴兄弟单位的好做法、好经验，推动两地卫生健康事业再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>144</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>我市河长赴江苏考察学习河长制工作</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2017-09-11</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3e164c0064/1566965640479113216.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['为进一步推进全市全面实行河长制工作，学习借鉴兄弟省市的先进经验和做法，9月7～9日，在市水利局副局长李魁军的带队下，市河长办一行6人赴江苏省宿迁市、无锡市，就“河长制”工作进行了考察学习。 在考察学习中，听取了两市关于实行河长制工作的情况介绍；现场考察了两市的河道现场；收集了关于河长制的文件和图片等资料，并就河长制办公室设置及运转、各项规章制度建立、“一河一策”方案编制、信息平台建设等方面进行了深入的交流探讨。 过考察学习，了解了宿迁、无锡市全面推行河长制的做法和经验，看到了实行河长制后的河湖管护成果，加深了对“河长制”的认识，梳理了工作思路，借鉴了成功经验，增强了全市实行“河长制”工作的信心。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>144</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>定陶区水产局到淮北市考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2017-05-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3df0a30063/1605492149418196992.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['5月12日，菏泽市定陶区水产局局长孙跃、技术站站长杨俊带领定陶区志立水产养殖专业合作社负责人陈启鹏、定陶区晨昊水产养殖专业合作社负责人贾清山，一行四人到淮北市俄罗斯水槽节能减排环保养殖模式基地、福瑞鲤种苗繁育基地考察学习，淮北市水产局陈局长、技术站李站长陪同考察。双方就技术推广、苗种培育、品牌建设等方面签定了合作协议。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>144</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>菏泽市林业局学习考察组到金水湖国家湿地公园参观学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2016-10-27</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a26ffcf0020/1585424871561625600.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['10月25日上午，菏泽市林业局副局长、党组成员李庆展一行16人组成的学习考察组到金乡县金水湖国家湿地公园参观考察。南四湖管理局副局长冯洪新、金乡县林业局局长张剑等陪同。', '考察组一行首先到湿地公园规划范围内的金水湖、金济河、金平湖等进行了实地参观。张剑就金水湖国家湿地公园湿地建设、湿地修复、湿地保护等基本情况向考察组做了介绍，并同菏泽市林业局在湿地保护建设等方面进行了深入广泛的交流与探讨。', '通过实地参观和听取情况介绍，考察组对金乡县湿地建设取得的成绩给予高度评价。一致认为，通过这次学习考察，不仅看到了金乡的新面貌、新变化、新气象，更感受到了金乡在湿地规划建设的大手笔、大气魄。纷纷表示，通过考察，开阔了视野、理清了思路，金水湖国家湿地公园的规划、创建、保护等方面的经验值得借鉴和学习，希望今后进一步加强与我县的沟通与交流，实现经验共享、携手共进。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>144</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>菏泽仲裁委赴日照济宁仲裁委考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-10</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad76957900f7/1634114382743080960.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['在日照仲裁委，考察组在日照仲裁办党组书记、主任王义军带领下先后参观了日照仲裁文化长廊，考察了日照市社会治理服务中心商事仲裁窗口、仲裁调解中心等场所并召开座谈会。座谈会上，双方就机关党建、仲裁发展、办案系统建设、仲裁庭开庭质效、仲裁员管理、仲裁宣讲等共同关心的问题，展开热烈的讨论交流，相互学习经验、启发借鉴，共同探讨推进仲裁事业高质量发展的工作举措。双方达成了仲裁法律文书委托送达协议，签订了异地委托送达协议书。', '在济宁仲裁委，考察组在济宁仲裁办党组书记、主任狄峻青带领下先后参观了济宁仲裁委员会金融仲裁院、重点项目仲裁院，以及仲裁庭、立案大厅等分支机构和办公场所并召开座谈会。座谈会上，双方围绕仲裁法律制度宣传推广、仲裁员和仲裁秘书团队管理监督、案件质效提升等工作进行了深入交流探讨，取得了很多共识，达到了互相启发互促进步的良好效果。', '吕文军表示，此次考察学习到的先进理念和宝贵经验针对性、实用性强，对菏泽仲裁的发展具有很强的指导意义。在下一步工作中，菏泽仲裁委将切实把考察成果转化为推动工作的强大动力，在建设高素质仲裁队伍、打造高质量仲裁品牌上下功夫，为推动菏泽经济高质量发展作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>144</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>东营仲裁委一行来我委考察学习</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2018-04-19</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad76957900f7/1589436034641297408.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['为加强仲裁机构之间的沟通交流，推进仲裁工作开展，4月18日下午，东营仲裁委员会办公室副主任张俊国、马英华等一行六人来菏泽仲裁委考察交流。菏泽仲裁委员会办公室主任李红，副主任朱大鹏、李继峰以及有关科室、办事处参加了座谈交流。', '李红主任对张俊国副主任一行的到来表示热烈欢迎，并带领他们参观了业务科室、办案场所等地。', '在随后举行的座谈会上，菏泽仲裁委曹县办事处主任王丽介绍了近年来曹县办事处的发展情况。', '座谈中，双方重点就金融仲裁、仲裁宣传和推行、裁决书送达、仲裁收费以及仲裁工作发展中面临的问题进行深入交流探讨。', '张俊国副主任认为，菏泽仲裁办在金融等领域的做法切合实际，能够充分站在当事人的角度考虑问题、解决问题，取得了良好的社会效果，十分值得学习借鉴，受益匪浅。', '双方一致表示，将以本次交流为契机，进一步加强沟通协作，共同促进仲裁事业再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>144</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>中共菏泽市委党校学员前往福建考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-04-13</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3199c0003a/1782667668327907328.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['天的异地教学。 在此期间一行人学习贯彻习近平总书记在福建工作时作出的重要指示，感受与台湾同胞一衣带水的真挚情感，考察了宁德时代作为新能源科技有限公司龙头老大的快速发展路线，体验了福建省生态文明建设成果。', '年半，福建的沧桑巨变惊艳了岁月，也记录着总书记“最好的年华”。总书记在福建工作时赋诗：“挽住云河洗天青，闽山闽水物华新。”而这一次的福建之行，也让老师和学员们学习到了把习近平新时代中国特色社会主义思想与实践的贯通之道，从人民领袖的成长足迹中感悟思想伟力、汲取真理力量，始终牢记嘱托、笃行不怠，奋力把习近平总书记擘画的新时代蓝图变为美好现实。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>144</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>山东省党政代表团到浙江学习考察</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a29fa34002a/1782210772307427328.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['习近平在中共中央政治局第十五次集体学习时强调 贯彻落实新时代党的建设总要求 进一步健全全面从严治党体系', '中共中央政治局召开会议 讨论拟提请二十届三中全会审议的文件 中共中央总书记习近平主持会议', '全国科技大会 国家科学技术奖励大会 两院院士大会在京召开 习近平为国家最高科学技术奖获得者等颁奖并发表重要讲话', '国务院批复同意在沈阳等6个城市暂时调整实施有关行政法规和经国务院批准的部门规章规定', '关于2023年国民经济和社会发展计划执行情况与2024年国民经济和社会发展计划草案的报告（全文）', '中共中央 国务院关于学习运用“千村示范、万村整治”工程经验有力有效推进乡村全面振兴的意见', '固本培元、守正创新，山东深入推进文化“两创”—— 让中华优秀传统文化在新时代绽放新光彩', '菏泽市人民政府关于印发菏泽市贯彻落实省2024年“促进经济巩固向好、加快绿色低碳高质量发展”政策清单(第一批)分工方案的通知', '菏泽市交通运输局等五部门关于印发《菏泽市开办道路货运企业“一件事”实施方案》的通知', '菏泽市卫生健康委员会等11部门关于印发菏泽市乡村医疗卫生服务能力提质提效三年行动计划(2024-2026年)的通知', '菏泽市住房和城乡建设局党组书记、局长季士峰同志解读《菏泽市既有住宅加装电梯实施意见》', '菏泽市市场监督管理局党组书记、局长王敏解读《菏泽市支持生物医药产业创新发展八条意见》', '菏泽市发展和改革委员会党组书记、主任，菏泽市国防动员办公室主任杨绍青解读《菏泽市贯彻落实省2024年“促进经济巩固向好、加快绿色低碳高质量发展”政策清单 （第一批）分工方案》', '菏泽市卫生健康委党组书记、主任，市中医药管理局局长冯峰解读《菏泽市中医药振兴发展重大工程实施方案》', '菏泽市发展和改革委员会党组书记、主任，菏泽市国防动员办公室主任杨绍青解读《关于推动战略性新兴产业高质量发展的实施意见》', '山东省科协国家级科技思想库决策咨询专家吴光炜解读《菏泽市沿黄生态廊道保护建设实施方案》', '山东省科协国家级科技思想库决策咨询专家吴光炜解读《菏泽市贯彻落实山东省县域经济高质量发展三年行动方案(2023—2025年)分工方案》', '山东省机动车排气污染监控中心（原山东省环保技术服务中心）李宝林研究员解读《菏泽市突发环境事件应急预案》', '一图读懂《菏泽市贯彻落实省2024年“促进经济巩固向好、加快绿色低碳高质量发展”政策清单(第一批)分工方案》', '菏泽市人民政府关于第二轮中央生态环境保护督察反馈问题（第22项）整改完成情况的公示', '菏泽市人民政府关于中央生态环境保护督察反馈意见（第38、40项）整改完成情况的公示', '菏泽市卫生健康委员会关于公开征求《菏泽市进一步完善医疗卫生服务体系的实施办法（征求意见稿）》意见的公告', '菏泽市大数据局关于公开征求《菏泽市公共数据授权运营管理暂行办法（征求意见稿）》意见的公告', '菏泽市卫生健康委员会关于公开征求《关于进一步深化改革促进乡村医疗卫生体系高质量健康发展若干措施（征求意见稿）》意见的公告', '菏泽市司法局关于《菏泽市12345政务服务便民热线条例（草案征求意见稿）》公开征求意见的通知', '菏泽市城市管理局关于公开征求《菏泽市城市绿道规划（2022-2035年）》（征求意见稿）意见建议的公告', '菏泽市城市管理局关于公开征求《菏泽市公园体系规划（2022-2035年）》（征求意见稿）意见建议的公告']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>144</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>菏泽牡丹机场赴浙江安吉考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2018-12-21</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589801617656381440.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['为了学习生态观光旅游的开发建设经验，更好地改进工作方法，12月12-14日，菏泽牡丹机场一行5人在副总马民的带领下，赴浙江安吉桃花源考察学习。', '安吉桃花源是以“康养”为主IP的典型，充分利用自身的天然资源优势，构建起以农业、居住、文旅为基础，以康养为特色的理想小镇运营模式，让家人生命更长久、内心更安然，灵性更充盈，成就“全球华人•身心灵健康增值小镇”。', '桃花源的别墅建筑“玻璃盒子”，在完整保留原生山水的基础上，突破传统别墅的建筑形态，用大面积玻璃窗代替传统门窗，最大限度将外部自然景观引进室内。在选定悬挑的高度时，以“山坡树尖高度为准，让别墅恰好浮于树尖上方”，完成与室外山景的共处，吊脚部分以钢结构为主，让支撑建筑的柱体更显轻盈，令建筑可以产生漂浮于山谷、丛林之上的视觉感受，令人叹为观止。', '考察结束后，大家纷纷表示受益匪浅。马总要求，考察团成员要认真总结学习到的先进经验和做法，吸收融会考察学习的成果，认真思考，充分结合公司自身实际，学以致用，发挥优势，积极开展好各项工作，促进公司更快更好的发展。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>144</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>鄄城县考察学习多网融合建设工作</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2018-05-18</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad7718a300f9/1619525798950076416.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['为促进“多网融合”，鄄城县委政法委、组织部、县公安、信访、环保、安监和有关乡镇（街道）组成联合考察组，到菏泽市牡丹区、滨州市博兴县实地考察学习网格化建设工作。在牡丹区，详细了解了网格员在综治维稳、矛盾化解、便民服务、环保安监、食药安全等方面的职能职责、运行机制和对网格员的管理考核、经费保障等。在滨州市博兴县，参观学习了养老服务中心、党员管理服务中心、青少年素质拓展中心、社区服务中心和“关爱一生”服务项目。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>144</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>定陶区赴东营等地考察学习乡镇党校建设</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020-12-27</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad7718a300f9/1619525615340224512.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['12月24日—26日，定陶区委组织部组织部分镇街党（工）委副书记、组织委员等14人，在副部长、老干部局局长陈永安带领下，实地到滨州、东营、潍坊等市考察学习乡镇党校建设及红色物业创建工作。', '学习考察组先后来到滨州市博兴县纯化镇委党校、滨州市高家渡乡村振兴基层干部学院，东营市广饶县陈官镇委党校、大码头镇委党校、东营市（华泰）非公党建学院、大王镇委党校，潍坊市青州市大福地社区，通过现场参观、听取讲解、观看宣传片、座谈交流等形式，认真学习了乡镇党校建设运行、党员教育培训和城市社区治理等方面的先进经验做法。', '每到一处，学习考察组成员都认真聆听相关负责人的介绍，现场交流学习。大家纷纷表示，本次学习收获颇丰，受益良多，找到了我区乡镇党校建设运行工作与先进地区的差距和不足，明晰了下步工作方向，掌握了可复制、可借鉴的好办法，对今后工作的开展具有很强的指导价值。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>144</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>寿光市司法局来郓城考察学习</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2019-09-19</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1e311a0010/1583730791639154688.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['9月19日，寿光市司法局副局长孙晓峰一行4人，深入郓城县司法局南赵楼司法所、南赵楼镇六合苑社区、郓城县南城中学，考察学习镇村调解、村居法律顾问、学校法治教育等工作。郓城县司法局党组成员、副局长田瑞华陪同活动。', '在南赵楼司法所，考察组听取了工作人员关于司法所总体工作介绍，详细查看了法治宣传、人民调解相关档案、影视资料，就社区矫正工作进行交流，深入了解“雪亮工程”+“钉钉”打卡社区矫正监管新模式。', '在郓城县六合苑社区，考察组实地查看了社区法治一条街、便民服务大厅、法治体验厅及党建文化展厅，对社区畅通便民服务渠道、加强法治宣传载体建设、创新以案释法模式的做法给予高度赞赏；在社区4楼会议室现场观看社区“为村+法治宣传”工作模式现场演示，对社区利用“为村”平台，将法治宣传由线下搬到线上，由乡村集市、田间地头搬到手机屏幕的做法给予高度评价，表示要与郓城县进一步加强沟通联系，真正把该工作模式学懂弄通，推动寿光市农村法治宣传再上新台阶。', '在郓城县南城中学，考察组先后参观了学校诚信文化长廊、青少年法制教育基地、禁毒教育基地及青少年模拟法庭，认真听取了校领导依法治校工作情况介绍，对学校高度重视在校师生法治教育，推进法治教育规范化、常态化的做法给予充分肯定。', '考察组最后表示，此次来郓城县收获颇丰，要将学习到的先进经验带回去，推动寿光市司法行政相关工作不断发展进步。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>144</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>菏泽牡丹机场考察小组赴青岛机场学习调研</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2019-07-25</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589801491902758912.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['7月23日，为更好地促进牡丹机场日后工作的开展，菏泽牡丹机场组成考察小组，赴青岛机场实地考察学习先进的管理理念和经验。', '在考察学习中，考察团成员通过听取整体情况介绍、按业务模块分组对口直接交流、现场观摩及座谈等方式，认真学习了青岛流亭机场物业、广告、商业、物流等服务管理机制、服务标准的设立、服务外包项目管理、服务培训组织等方面的先进经验。通过学习，大家转变了观念，开阔了视野，增长了见识。下一步，菏泽牡丹机场将结合考察学习到的先进经验，组织座谈，系统研究，结合实际，准确“移植”标杆单位的先进经验，以确保牡丹机场的快速建设发展需要。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>144</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>德州市齐河县卫生健康局考察组来曹县中医院学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2020-08-12</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d7dd7000e/1584459586046263296.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['彼此加强交流，增进了解，加深友谊，共同发展，同时探索最佳的管理模式和最好的服务质量，取长补短、共同进步，进一步提升医院医疗管理水平和服务能力，更好地为百姓健康服务。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>144</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>鄄城科技局考察学习天华产业园</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2016-04-16</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2999960028/1589815507966492672.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['为做好众创空间建设工作， 2016年4月15日，鄄城县科技局组织中层以上干部到牡丹区天华电商产业园学习考察，牡丹区科技局、知识产权局负责同志介绍了天华产业园的情况。天华产业园是集设计开发、科研生产、博览展示、电子商务、仓储配送、文化旅游、休闲娱乐等功能于一体的新兴产业园。考察人员深受启发，对下一步建设鄄城县众创空间具有很大的借鉴作用。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>144</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>六安市考察团到菏泽考察学习城市管理工作</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2018-09-19</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a20cf640015/1589410658846244864.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['9月18日，安徽省六安市人大常委会副主任杨传友一行11人，到菏泽市数字化城市管理监督指挥中心考察学习城市规划建设管理工作。', '菏泽市数字化城市管理监督指挥中心相关负责人向考察团发放了相关资料，并介绍了菏泽城市管理的相关情况。会上，考察团一行还观看了菏泽市县互联的数字城管平台的相关工作视频材料。在详细了解菏泽市城市管理工作后，考察团表示受益匪浅，双方对在城市管理工作方面进行了深入的交流。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>144</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>聊城市考察团来菏考察学习环保工作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2019-03-14</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2925400026/1584375028592410624.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['3月13日，聊城市副市长成伟带领考察团来我市考察学习乡镇空气监测站点建设和空气质量考核等方面工作。副市长高荣国陪同相关活动。', '聊城市考察团首先来到菏泽市智慧环保监控指挥中心，现场观看了指挥中心各系统运行情况，并听取了相关情况介绍。', '在随后召开的座谈会上，环保部门负责人详细介绍了我市环境治理工作整体情况，并对考察团成员提出的乡镇空气监测站点建设和空气质量考核以及其他环保工作问题作了详细解答。成伟对我市在环境保护和监管方面取得的成绩给予了高度评价。他表示菏泽市委市政府高度重视环保工作，取得了显著成效。特别是智慧环保监管平台建设等，已经形成了科学有效的监管系统，经验和做法非常值得学习借鉴，回去后将进行认真梳理和消化吸收。同时希望今后两地进一步加强沟通、加深交流，相互学习、共同提高，不断提升环境保护工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>144</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>全市人社系统信息中心学习考察团赴聊城莘县考察学习活动</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2018-10-29</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926277701009408.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['月23日，市、县人社部门信息中心主任组成学习考察团，到聊城市莘县考察交流人社公共服务信息系统建设工作。考察团一行到莘县燕塔街道人社综合服务大厅参观了基层综合服务平台建设情况，对莘县人社基层信息化平台应用、服务流程、服务方式等进行了细致了解。聊城市人社局信息中心主任、聊城市莘县人社局主要负责人和相关负责人参加了座谈，介绍了市县公共服务信息化和莘县社保数据整理、公共服务平台应用、“互联网+人社”、“智慧人社”等工作开展情况，与会人员就有关具体工作进行了深入交流沟通。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>144</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>枣庄滕州市学习考察团来我市学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-05-20</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d41d7000d/1589783887934914560.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['5月20日，枣庄市滕州市学习考察团来我市学习考察国企改革、财源建设、专项债争取及土地开发等方面工作，并召开座谈会。副市长肖友华参加相关活动。', '座谈会上，肖友华代表市委、市政府对滕州市学习考察团的到来表示欢迎，并介绍了我市相关工作情况。肖友华表示，近年来，菏泽抢抓重大战略机遇，狠抓国企改革，大力推进财源建设，严格落实“资金跟着项目走”的工作要求，健全合理有序供地、节约集约用地的土地供应机制，主要经济指标增速连续多年位居全省前列。在今后发展中，希望两地进一步加强交流与合作，增进友谊与了解，携手并进、共创繁荣。', '学习考察团表示，此次学习考察收获良多，将认真梳理我市的先进经验做法，更好推动经济社会高质量发展。希望双方加强交流合作，努力实现互惠共赢。', '在菏期间，学习考察团先后来到万福新城、中德产业园、菏泽城建工程发展集团产业园、菏泽现代医药港、东明石化等地进行实地学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>144</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>四川省雅安市学习考察团来我市学习考察返乡创业工作</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1656825648951496704.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['人，来我市学习考察返乡创业工作，并召开座谈会。菏泽市委常委、秘书长王军、市返乡创业服务中心副主任甄君华陪同考察，市返乡创业服务中心、牡丹区人社局、鲁西新区社会事业局有关工作人员参加相关活动。', '座谈会上，王军代表市委、市政府对雅安市学习考察团的到来表示欢介绍了我市相关工作情况。王军表示，近年来，菏泽深度挖掘在外人员规模大、素质优的优势资源，全面实施', '“归雁兴菏”行动，大力优化创业生态环境，深入激活各类创业要素，打造返乡创业沟通交流、资源共享、合作发展、服务对接的有效平台，取得显著成效。在今后工作中，希望两地进一步加强交流与合作，增进友谊与了解，携手并进、共创繁荣。', '雅安市学习考察团表示，此次学习考察收获良多，将认真梳理我市返乡创业工作先进经验做法，更好推动经济社会高质量发展。希望双方加强交流合作，努力实现互惠共赢。', '考察期间，甄君华详细介绍了我市返乡创业工作成绩、采取措施、体制机制等。学习考察团先后来到天华电商产业园、菏泽市返乡创业孵化基地等地进行实地学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>144</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>辽阳县人大考察团来我市考察学习项目</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2017-05-10</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2ab278002d/1584380904761982976.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['5月10日上午，辽阳县人大考察团来我市考察学习PPP项目。市投融资管理中心李主任 及PPP项目管理科工作人员参加了座谈会，并陪同实地参观考察了市老年大学和全民健身中心项目。', '项目管理科工作人员参加了座谈会，并陪同实地参观考察了市老年大学和全民健身中心项目。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>144</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>绕道旅游公款送礼学习考察变了味</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2019-07-17</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad6a22e000f1/1614070199982489600.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['近日，海南省三亚市纪委监委通报了3起违反中央八项规定精神典型案例，其中一起为三亚港旅国际旅行社总经理、三亚洋海船务实业有限公司常务副总经理董广友借公务差旅之机旅游并用公款购买、赠送礼品问题。', '起违反中央八项规定精神典型案例，其中一起为三亚港旅国际旅行社总经理、三亚洋海船务实业有限公司常务副总经理董广友借公务差旅之机旅游并用公款购买、赠送礼品问题。', '经查，2016年5月，三亚游船运输协会经市交通运输局批准，组织会员企业赴厦门、千岛湖等地学习考察，由协会秘书长董广友负责组织。5月22日，学习考察结束后，董广友组织考察团去乌镇景区游玩，将参加活动人员的景点门票费用分摊至各参团企业承担。董广友还安排随行人员购买香烟、水果、饮料等给考察团享用，并购买礼品赠送给相关人员，共开支2248元，后在董广友授意下虚开发票，与考察活动费用一并报销。', '月，三亚游船运输协会经市交通运输局批准，组织会员企业赴厦门、千岛湖等地学习考察，由协会秘书长董广友负责组织。', '日，学习考察结束后，董广友组织考察团去乌镇景区游玩，将参加活动人员的景点门票费用分摊至各参团企业承担。董广友还安排随行人员购买香烟、水果、饮料等给考察团享用，并购买礼品赠送给相关人员，共开支', '2016年5月17日至22日，三亚游船运输协会组织10家会员企业和市交通运输局港航处有关负责人赴游船项目发展较好的厦门和杭州千岛湖开展学习考察，董广友将考察活动交由三亚港旅国际旅行社承接，工作人员林某某全程陪同并协调安排行程。', '家会员企业和市交通运输局港航处有关负责人赴游船项目发展较好的厦门和杭州千岛湖开展学习考察，董广友将考察活动交由三亚港旅国际旅行社承接，工作人员林某某全程陪同并协调安排行程。', '“大家路上挺累的，你去买条好烟，再买些水果、饮料，出来学习考察，不能亏着大家。”考察途中，董广友交代林某某购买了价值898元的香烟、水果、饮料等，供考察人员享用。', '“大家路上挺累的，你去买条好烟，再买些水果、饮料，出来学习考察，不能亏着大家。”考察途中，董广友交代林某某购买了价值', '“港航处几位领导对我们的工作这么支持，难得跟我们一起出差，应该表示一下。”眼看考察活动就要结束，董广友觉得这是和上级主管部门领导“搞好关系”的“好时机”，便吩咐林某某买点杭州特产。', '5月22日，原本是考察团返回三亚的日子，没有安排具体的考察行程。“好不容易来一趟浙江，一定得去乌镇看一看。”有人提出去乌镇游玩的建议。', '日，原本是考察团返回三亚的日子，没有安排具体的考察行程。“好不容易来一趟浙江，一定得去乌镇看一看。”有人提出去乌镇游玩的建议。', '除两人先行返回三亚外，董广友等12人均表示同意，并在林某某安排下租车前往两百多公里外的乌镇游玩。', '该送的礼送了，该玩的地方玩了，该拉的“交情”也拉了。可按照规定，香烟、水果、茶叶、特产、门票等都不能报销，额外花销的这些钱难道要个人掏腰包吗？', '“买烟、水果、饮料、特产的钱你多开些其它发票给洋海船务核销。至于去乌镇的租车费用和门票，平摊到10家参团企业头上吧，港航处的领导和我都算是公职人员，不能落下公款旅游的把柄。”董广友早就想好了点子，交代林某某如此办理。', '“买烟、水果、饮料、特产的钱你多开些其它发票给洋海船务核销。至于去乌镇的租车费用和门票，平摊到', '家参团企业头上吧，港航处的领导和我都算是公职人员，不能落下公款旅游的把柄。”董广友早就想好了点子，交代林某某如此办理。', '2016年5月底，在董广友的授意下，林某某多开2248元发票，交由洋海船务公司相关人员报销。而赴乌镇旅游13张门票费用1440元和租车费用800元，也分摊至各参团企业承担。', '2018年5月至7月，三亚市委第四巡察组进驻市港务局开展常规巡察，发现其下属子公司三亚港旅国际旅行社林某某涉嫌公款报销旅游费用的问题，并作为问题线索移交给三亚市纪委监委。', '月，三亚市委第四巡察组进驻市港务局开展常规巡察，发现其下属子公司三亚港旅国际旅行社林某某涉嫌公款报销旅游费用的问题，并作为问题线索移交给三亚市纪委监委。', '“杭州离乌镇两百多公里，公务考察擅自改变线路，绕道那么远，到底是正常的公务考察活动还是公款旅游，要查清楚。”三亚市纪委监委第七纪检监察室负责人表示。', '“去乌镇是临时调整的计划，我认为乌镇的一些旅游特色是值得学习的，和我们的考察初衷有关系。”面对核查人员，董广友坦言确实绕道了，但“事出有因”。', '真如董广友说的那样吗？核查组通过查看考察材料、调取报销发票，并找了多名考察团成员进行个别谈话，最终确认，乌镇之行纯属临时增加的旅游安排，与公务考察无关，考察团到乌镇也没做任何相关的考察活动，利用公务差旅之机旅游的问题属实。', '然而在对相关证据进行固定的过程中，一张发票又引起了核查人员的注意。这张发票是三亚港旅国际旅行社开具给洋海船务公司核销此次考察活动费用的，金额为7727元。可林某某发给各参团企业的分摊费用明细显示，洋海船务公司除机票和住宿费用外，应分摊的其它费用明明是5479元！', '然而在对相关证据进行固定的过程中，一张发票又引起了核查人员的注意。这张发票是三亚港旅国际旅行社开具给洋海船务公司核销此次考察活动费用的，金额为', '元。可林某某发给各参团企业的分摊费用明细显示，洋海船务公司除机票和住宿费用外，应分摊的其它费用明明是', '“途中我安排人买了香烟、水果、饮料等一些东西，后来还买了杭州一些特产送给港航处的领导。按照规定这些是不能报销的，所以我让人多开了2248元的发票。”面对确凿的证据，原本对购买香烟、水果、饮料和礼品一事只字不提的董广友不得不坦白。', '“途中我安排人买了香烟、水果、饮料等一些东西，后来还买了杭州一些特产送给港航处的领导。按照规定这些是不能报销的，所以我让人多开了', '元的发票。”面对确凿的证据，原本对购买香烟、水果、饮料和礼品一事只字不提的董广友不得不坦白。', '绕道旅游的董广友等人退缴全部有关违纪款项后，2019年5月，经三亚市纪委常委会会议研究，决定给予董广友党内警告处分。（本报记者詹君峰通讯员简文）']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>144</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>赴浙江考察学习亩产效益先进做法</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2019-06-10</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a21d1b10018/1584371570611060736.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['今年5月21日，市工信局、巨野县工信局负责同志参加省工信厅组织的赴浙江考察学习活动，通过参观考察学习海宁、长兴两地“亩均效益”评价工作的先进做法，深感通过科学设定评价指标体系，“亩均效益”评价就会变成为促进产业转型升级、推动企业实现高质量发展的有效措施，进一步增强了评价推进工作责任感、使命感，增强了工作信心。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>144</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>榆林市考察团来我市考察学习园林绿化工作</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021-04-12</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a20cf640015/1589410303337037824.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['4月9日上午，榆林市城管理执法局、公园广场服务中心考察团来菏考察座谈园林绿化建设和管理工作，座谈会主要探讨了两地城市公园广场管理、城市植物地被花卉培育及养护工作。市城市发展中心高级工程师费赟同志介绍了我市城区公园、广场、绿地的规划建设和管养的工作经验及做法；同时双方围绕园林绿化养护管理、国家生态园林城市创建等方面工作做了交流探讨。', '座谈会结束后，菏泽市城市发展中心高级工程师费贇、综合科副科长王昱及技术人员陪同考察团一行，参观曹州牡丹园，重点学习考察牡丹培育及养护技术及温室大棚建设管护工作。', '随后，市城市发展中心陪同榆林市考察团参观天香公园、新天地公园赵王河公园（儿童公园段）、环城公园西段等，考察学习城市公园广场管理及植物养护工作。', '通过实地考察和交流，榆林市考察团对菏泽市园林绿化管理和国家生态园林城市创建工作的新思路、新举措、新做法给予高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>144</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>永恒热力公司赴乌海市考察学习</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2019-04-22</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589801551784837120.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['为促进供热企业间运行管理经验与节能技术创新相互学习交流，提高供热管理水平，进一步解放思想、更新观念，探索解决公司发展中的瓶颈问题，4月15日，永恒热力总经理田涛带领公司供热运行管理人员等前往乌海市热力公司进行实地考察学习。', '座谈会上，乌海市热力公司总经理任智、副总经理李金成等相继发言，详细介绍了乌海市热力公司的总体发展历程、规模、企业组织架构、管理模式等。随后，双方就此行交流学习的一些重点关切问题展开了交流，围绕机构设置、人员管理、收费服务、管网运行维修、平衡调整、换热站建设、政府政策扶持及技术标准、停复供业务办理有关规定以及热网运行调节、换热站自动化、站区管理模式等相关方面展开，双方技术人员还深入交流了工程施工、验收、交接及智慧供热、节能降耗方面相关情况及经验做法，现场气氛热烈融洽，大家踊跃发言。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>144</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>寿光市司法局来牡丹区学习考察</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2019-09-20</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1e311a0010/1583730788166270976.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['9月18日下午，寿光市司法局一行4人在副局长孙晓峰的带领下到牡丹区学习考察司法行政工作。', '首先，考察组一行参观了沙土司法所，认真翻阅了社区矫正服刑人员个人档案，详细询问社区矫正工作的衔接、监督管理、教育矫治等情况，深入了解了司法所规范化建设、人民调解、“一村（社区）一法律顾问”、学校法治教育等工作开展情况。', '随后，在牡丹区公共法律服务中心，孙晓峰逐一询问12348法律咨询、法律援助、社区矫正和行政复议等窗口接待受理情况，同12348值班律师、法律援助、行政复议和社区矫正工作人员进行了深入交谈，了解群众来这里申请法律援助和行政复议等工作开展情况。', '考察组认为，牡丹区司法局“一村（社区）一法律顾问”和人民调解等工作开展的有声有色，这些好的做法，对寿光市、区司法局各项工作有非常好的借鉴作用，今后，两地要进一步加强联系和沟通，推动双方司法行政工作跨越发展。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>144</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>寿光市司法局来巨野县学习考察</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2019-09-20</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1e311a0010/1583730788719919104.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['9月19日下午，寿光市司法局副局长孙晓峰一行四人来到巨野学习考察法治教育、镇村调解工作、法律顾问工作以及社区矫正工作。巨野县司法局副局长谢新奎，纪检书记李奎宝陪同。', '在田桥镇司法所，所长黄岩向孙晓峰一行介绍了矛盾纠纷调处、社区服刑人员管理、一村一法律顾问等工作开展情况，现场演示了钉钉打卡社区矫正定位系统。孙晓峰对钉钉打卡开展社区矫正定位的做法表示欣赏，并介绍寿光的做法是通过微信群进行报到和定位。', '在纪庄行政村，当地村干部带领孙晓峰参观了村级矛盾纠纷调处室和司法行政工作站，介绍了基层司法行政工作开展情况。孙晓峰对巨野基层司法所和司法行政工作站建设情况表示赞赏。', '在巨野县铭法园法治主题石刻公园，县局宣传科长李斌介绍了县普法办邀请巨野籍书法家，将一些法治口号书写在巨石上，后请工人雕刻成型的建造过程。孙晓峰一行详细观摩了巨野籍书法家的法治书法作品，对巨野将法治宣传融入石刻作品上的创意赞不绝口。', '在巨野县青少年法治教育基地，县普法宣讲团成员李宁向孙晓峰介绍：在县委县政府领导大力支持下，巨野县普法办联合数十家普法依法治理成员单位，以共建共治共享的目的，打造了这一综合性普法基地，基地对全社会免费开放，每周均有学校组织学生集体参观学习，自2018年5月4日开馆以来，累计接待群众10万余人次，取得了良好的普法效果。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>144</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>李春英率队赴苏州考察学习和招商引资</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-07-15</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d41d7000d/1680754289611575296.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['7月10日至12日，市委副书记、市长李春英率队赴苏州市考察学习，并开展招商引资活动。市政府秘书长王新国参加。 李春英一行先后到苏绣小镇、苏州刺绣研究所、吴江丝绸文化创意产业园等实地参观考察，详细了解苏绣和宋锦在传承创新、品牌推广、市场销售等方面的情况。李春英指出，要认真学习苏州市发展苏绣、宋锦等产业的先进经验，加快谋划菏泽鲁锦、汉服和工笔牡丹画等产业发展的具体路径。要深入挖掘我市特色资源，发扬工匠精神，做好传承与创新文章，加快形成品牌优势。要强化政策引领，加大扶持力度，积极开拓市场，努力壮大产业规模，推动我市特色产业迭代升级、高质量发展。 在苏州期间，李春英一行还实地考察了苏州二叶制药有限公司，见证了拟在定陶区投资的生物胶粘剂和头孢粉针剂项目签约。现场参观了苏州润亚旭日生物科技有限公司，见证了拟在成武县投资的年产8万吨高丝氨酸项目签约。实地走访了源卓微纳科技（苏州）股份有限公司，与企业负责人深入座谈交流，洽谈合作事宜。 招商过程中，李春英每到一处，都向企业推介菏泽特色产业资源及良好发展环境。她说，菏泽区位交通便利、政策叠加发力、人力资源丰富，处于快速发展的历史机遇期，蕴含无限投资商机，希望企业来菏泽投资兴业，我们将全力做好服务工作，为企业投资发展创造良好条件。企业负责人对菏泽的投资环境给予高度评价，表示将结合产业布局，深化双方合作，推动更多好项目、大项目在菏泽落地。 来源：菏泽市人民政府网站', '7月10日至12日，市委副书记、市长李春英率队赴苏州市考察学习，并开展招商引资活动。市政府秘书长王新国参加。', '李春英一行先后到苏绣小镇、苏州刺绣研究所、吴江丝绸文化创意产业园等实地参观考察，详细了解苏绣和宋锦在传承创新、品牌推广、市场销售等方面的情况。李春英指出，要认真学习苏州市发展苏绣、宋锦等产业的先进经验，加快谋划菏泽鲁锦、汉服和工笔牡丹画等产业发展的具体路径。要深入挖掘我市特色资源，发扬工匠精神，做好传承与创新文章，加快形成品牌优势。要强化政策引领，加大扶持力度，积极开拓市场，努力壮大产业规模，推动我市特色产业迭代升级、高质量发展。', '在苏州期间，李春英一行还实地考察了苏州二叶制药有限公司，见证了拟在定陶区投资的生物胶粘剂和头孢粉针剂项目签约。现场参观了苏州润亚旭日生物科技有限公司，见证了拟在成武县投资的年产8万吨高丝氨酸项目签约。实地走访了源卓微纳科技（苏州）股份有限公司，与企业负责人深入座谈交流，洽谈合作事宜。', '招商过程中，李春英每到一处，都向企业推介菏泽特色产业资源及良好发展环境。她说，菏泽区位交通便利、政策叠加发力、人力资源丰富，处于快速发展的历史机遇期，蕴含无限投资商机，希望企业来菏泽投资兴业，我们将全力做好服务工作，为企业投资发展创造良好条件。企业负责人对菏泽的投资环境给予高度评价，表示将结合产业布局，深化双方合作，推动更多好项目、大项目在菏泽落地。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>144</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>交投集团陈纪强一行赴济南考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2022-02-24</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589800362460577792.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['日前，交投集团党委书记、董事长陈纪强带队到济南考察学习。集团公司党委委员、副总经理吴光勇参加考察。', '在齐商银行济南分行，陈纪强一行与该行党委书记、行长汪波等领导座谈，双方就银企合作新理念、新模式、新路径进行交流。陈纪强指出，一直以来，齐商银行积极发挥自身金融优势，为集团公司转型发展提供了强有力的金融保障。希望双方继续深化合作，围绕产业开发、园区建设、资本运作等方面进行有效对接，实现互利共赢，更好发挥金融支撑全市经济社会发展的血脉作用。', '在济南期间，陈纪强一行实地参观了建邦财富中心产业园及国泰财智中心等园区项目建设情况，对济南市自贸区规划、建设、产业引入、政策配套等有关情况进行深入了解学习。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>144</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>张伦李春英率团赴开封市考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d41d7000d/1699344123091443712.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['9月5日，市委书记张伦，市委副书记、市长李春英率党政考察团赴河南省开封市考察学习，召开推进黄河流域生态保护和高质量发展座谈会，推动两市协同协作发展迈向更高水平。开封市委书记高建军，市委副书记、市长李湘豫陪同活动。 张伦、李春英一行先后深入开封市规划展示馆、奇瑞汽车河南公司、炭素新材料储能产业园等，考察学习开封推动产业发展、文旅文创、城市建设等经验做法。 在座谈会上，张伦说，近年来，开封市坚持“16136”总体工作思路，加快推动高质量发展，各项事业取得显著成效，工作中创造的好经验、好做法非常值得学习借鉴。菏泽和开封同处黄河之滨、同饮黄河之水，长期保持着经贸互利、人文互惠的友好关系。特别是在推动黄河流域生态保护和高质量发展过程中，两市承担共同任务、面临共同课题，真诚期待双方在生态保护、产业发展、文旅融合等方面深化合作，打造省际毗邻地区协同发展的新样板。 高建军代表开封市委、市政府向菏泽党政代表团的到来表示欢迎。他说，近年来，菏泽市紧紧围绕“后来居上”目标，全面深化重点产业、乡村振兴、城市功能、营商环境“四个突破”，经济社会发展呈现出欣欣向荣的蓬勃景象，衷心希望双方在生态环境共保共治、基础设施互联互通、产业一体化发展等方面携手合作、互补优势，共同开创互利共赢新局面。 会上，李春英、李湘豫代表两市签订了《菏泽市人民政府、开封市人民政府协同推进黄河流域生态保护和高质量发展战略合作框架协议》。 开封市市领导张松文、刘震、薛志勇，我市市领导王军、聂元科、肖友华、姜凌刚、朱中华参加活动。 来源：菏泽市人民政府网站', '9月5日，市委书记张伦，市委副书记、市长李春英率党政考察团赴河南省开封市考察学习，召开推进黄河流域生态保护和高质量发展座谈会，推动两市协同协作发展迈向更高水平。开封市委书记高建军，市委副书记、市长李湘豫陪同活动。', '张伦、李春英一行先后深入开封市规划展示馆、奇瑞汽车河南公司、炭素新材料储能产业园等，考察学习开封推动产业发展、文旅文创、城市建设等经验做法。', '在座谈会上，张伦说，近年来，开封市坚持“16136”总体工作思路，加快推动高质量发展，各项事业取得显著成效，工作中创造的好经验、好做法非常值得学习借鉴。菏泽和开封同处黄河之滨、同饮黄河之水，长期保持着经贸互利、人文互惠的友好关系。特别是在推动黄河流域生态保护和高质量发展过程中，两市承担共同任务、面临共同课题，真诚期待双方在生态保护、产业发展、文旅融合等方面深化合作，打造省际毗邻地区协同发展的新样板。', '高建军代表开封市委、市政府向菏泽党政代表团的到来表示欢迎。他说，近年来，菏泽市紧紧围绕“后来居上”目标，全面深化重点产业、乡村振兴、城市功能、营商环境“四个突破”，经济社会发展呈现出欣欣向荣的蓬勃景象，衷心希望双方在生态环境共保共治、基础设施互联互通、产业一体化发展等方面携手合作、互补优势，共同开创互利共赢新局面。', '会上，李春英、李湘豫代表两市签订了《菏泽市人民政府、开封市人民政府协同推进黄河流域生态保护和高质量发展战略合作框架协议》。', '开封市市领导张松文、刘震、薛志勇，我市市领导王军、聂元科、肖友华、姜凌刚、朱中华参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>144</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>交投集团陈纪强一行赴临沂学习考察</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2021-11-30</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589800662604972032.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['11月24日至25日，交投集团党委书记、董事长陈纪强带队赴临沂，围绕企业运营、土地整理、基础设施建设及融资等方面工作，实地参观学习临沂城投、沂蒙交投等企业有关经验。', '在临沂城投学习考察期间，临沂城投集团党委书记、董事长管恩犁介绍了临沂城投集团改革发展、投融资管理、产业布局等情况，希望双方充分发挥各自优势，加强往来、共享经验、互通有无，共同探索国有企业改革新理念、新模式、新路径，为促进地方经济社会发展做出积极贡献。陈纪强表示，临沂城投集团在城市建设、市场化运营、金融资本等方面积累了大量优秀经验，值得学习和借鉴。要认真总结好、吸收好、消化好本次考察学习成果，努力转化为推进公司市场化转型发展的强劲动力。希望双方今后在更大范围、更宽领域、更深层次上开展交流学习，携手并进、共谋发展。', '在沂蒙交投学习考察期间，双方就企业运营、党的建设、基础设施建设及融资等方面工作进行深入交流沟通。山东沂蒙交投集团党委书记、董事长陈庆村介绍了公司党建、交通产业、基础设施建设等领域工作开展情况，希望双方充分发挥各自优势，加强沟通对接，不断推动企业经营发展和基础设施建设。陈纪强表示，山东沂蒙交投集团与菏泽交投集团主责主业相仿，在党建工作、交通产业和基础设施建设等方面积累了好的经验做法，希望双方能够建立长效沟通机制，在各相关领域加强业务交流和经验分享，不断推动国有资本做优做强做大。', '考察期间，陈纪强一行实地参观了临沂北站高铁片区规划开发和长深-京沪高速公路临沂北连接线改建工程建设情况。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>144</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>菏泽市审计局赴德州考察学习内审工作</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2018-02-02</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2185a50017/1584707031237918720.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['4人，于2018年1月31日至2月1日，赴德州进行了实地考察。考察组得到了德州市审计局和内部审计协会的热情接待。考察组首先参观了德州市文化长廊建设，然后，德州市内部审计协会秘书长赵国强、内审计指导中心主任唐为国做了经验介绍,双方进行了认真而热烈地交流探讨。考察组此次学习开阔了视野，收到了实效，达到了考察预期目的，对于促进我市内审工作将具有积极的意义。(杨胜宇）']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>144</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>日照市卫生计生监督所到定陶区考察学习</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2019-02-14</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d7dd7000e/1584460229641240576.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['2月13日，日照市卫生和计划生育监督所所长王钦余一行到定陶区卫生计生综合监督执法局，就卫生计生监督管理工作进行考察学习。市卫生计生综合监督执法局副局长刘斌，市卫生计生综合监督执法局办公室主任李建合，定陶区卫生健康局党组书记、局长滑喜良，定陶区卫生计生综合监督执法局局长樊琥陪同。 滑喜良对日照市卫生计生监督所一行的到来表示诚挚欢迎，并陪同参观了执法车辆配备、档案标准化管理、办公场所设置、监测设备配备等情况。在随后召开的座谈会上，考察组观看了定陶区卫生计生监督机构工作纪实专题片，滑喜良介绍了定陶区的基本区情和本单位的基本情况，樊琥详细介绍了卫生计生监督工作具体开展情况、经验做法和面临的困难与挑战。双方就医疗卫生、传染病防控、卫生监督协管、信息化建设等内容进行了探讨交流，相互畅谈了好的做法和打算，并对加强日常监管和卫生计生监督网络体系建设，多措并举开展卫生计生监督管理工作的经验进行了深入交流，并将自主开发的机关工作管理软件向考察组进行了演示。 本次交流学习，加强了两地卫生计生监督机构之间的联系，交流了卫生计生监督工作中的经验及做法，探讨了目前工作中存在的问题，达到了互相学习借鉴、共同进步的良好效果，不但增进了兄弟单位之间的友谊，而且对两地的卫生计生监督工作的发展起到了积极的推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>144</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>张伦李春英率团赴枣庄市考察学习</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad76d74500f8/1699926059371339776.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['9月7日，市委书记张伦，市委副书记、市长李春英率党政考察团赴枣庄市考察学习，学习先进经验，共商交流合作。枣庄市委书记张宏伟，市委副书记、市长翟军陪同活动。', '党政考察团先后深入中材锂膜、联泓新材料、兖矿鲁南化工、山东精工电子、吉利欣旺达动力电池、欣旺达50GWh动力电池、泉为异质结（HJT）光伏组件及储能产品建设等项目，考察学习枣庄推动新能源、新材料产业发展的好经验、好做法。', '张伦指出，近年来，枣庄按照“强工兴产、转型突围”思路，加快构建“6+3”现代产业体系，大力发展新能源和锂电产业，实现从鲁南“煤城”到“中国北方锂电之都”的蝶变，做法经验非常值得菏泽学习借鉴。菏泽与枣庄心相近、情相亲，多年来始终保持密切的联系和交往，彼此间结下深厚的友谊和感情。希望双方进一步深化全面务实合作，共同发展、共同提高，为全省绿色低碳高质量发展大局作出更大贡献。', '张宏伟代表枣庄市委、市政府，对菏泽党政考察团表示欢迎。她说，菏泽历史底蕴厚重，交通区位优越，人民勤劳质朴。近年来，菏泽抢抓发展机遇，高标准、大力度推进各方面工作，经济社会发展取得丰硕成果。特别是加快引进、精心培育重大项目，通过苦干、实干、巧干，闯出了一条高质量发展新路径。希望两市进一步增强双向协作配合，全力实现共赢发展。', '枣庄市市领导邵士官、赵刚、王广部，我市市领导王军、聂元科、姜凌刚、黄秀玲、朱中华参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>144</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>菏泽市公证员赴优秀公证处考察学习</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2019-07-17</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1e311a0010/1583732432232775680.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['为进一步规范公证办证程序、改进公证机构管理模式、提高公证业务水平，开拓视野，推动公证工作实现新突破。近日，菏泽市公证协会选派部分公证员分别到青岛市市中公证处、临沂市兰山公证处交流学习。', '交流学习过程中，大家边学边记、边看边议。青岛市中公证处主任冷春、副主任张红光、临沂市兰山公证处副主任庞洪飞用自身丰富的理论知识和实践经验分别从管理理念和业务具体操作等方面做了详细讲解，对菏泽市公证工作有重要指导作用。此外，双方之间还交流了近期公证业务发展状况以及下一步业务拓展思路，明确提出今后继续在队伍建设、业务发展等方面加强交流与合作，取长补短，互相促进，共同提高。', '通过这次交流学习，大家开拓了视野，坚定了信心，菏泽公证机构今后将认真借鉴青岛市市中公证处、临沂市兰山公证处先进的办证理念和管理模式，进一步解放思想、把握主动，争取在管理方式和业务发展方面更进一层，切实提高服务质量和服务水平，为人民群众提供优质高效的公证法律服务。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>144</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>威海市纪委监委来我市考察学习信访举报工作</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2021-07-27</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad6a22e000f1/1614059423666274304.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['7月27日，威海市监委委员梁志杰一行5人来我市考察学习信访举报工作，市纪委常委、市监委委员陈天生陪同考察。', '座谈会上，陈天生从规范受理办理、推动专项治理、做好信访分析、开展“四基”行动、坚持党建引领五个方面详细介绍了我市纪检监察信访举报工作开展情况，鄄城县纪委监委介绍了信访举报工作示范点有关情况。考察组就我市信访举报制度建设、信访分析等工作深入交流，随后参观了菏泽市纪委监委来访接待室、12388电话举报受理中心。', '通过交流学习，考察组成员纷纷表示，菏泽市信访举报工作特色鲜明、亮点突出，学习收获很大、感触很深。下步将认真学习菏泽市经验做法，结合地域实际，不断加强和创新信访举报工作。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>144</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>菏泽牡丹机场公司赴日照机场学习考察通用机场建设</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2020-05-29</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589801355432689664.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['5月26、27日，市交通运输局副局长韩瑞广带领市交通运输局、菏泽牡丹机场投资建设有限公司、单县交通运输局相关负责同志，前往日照机场学习考察日照市通用机场建设运营、航空产业融合发展等方面的先进经验。', '日照市交通运输局铁路机场发展服务中心主任王攀，日照机场党委副书记、总经理张崇生，日照机场党委副书记王继国分别就日照通用机场航空产业的发展、运营等情况作了介绍。随后，双方就通用航空的功能定位布局、前期选址建设、后期运营管理等问题进行了交流讨论。并表示，日照机场将把在通用航空的建设运营管理等方面的经验、教训毫不保留的向菏泽介绍，全力支持菏泽通用航空建设发展。', '韩瑞广对日照机场的无私帮助表示感谢，并表示积极学习借鉴日照通用机场的发展战略、发展模式等方面的先进经验和做法，希望今后能持续加大沟通和学习交流，促进共同发展。', '会后，韩瑞广一行先后考察参观了岚山通用机场、机场飞行培训场地、山太航空产业项目等。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>144</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>市林业局到山东省家具协会考察学习</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-06-10</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a26ffcf0020/1667702879345106944.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['6月9日，市林业局党组书记、局长李璐璐一行到山东省家具协会考察学习，并就创新举办第十八届中国林产品交易会进行座谈交流。', '宣传推介、服务保障等方面进行深入交流，并就进一步发挥好平台优势、引领林产业高质量发展、扩大经济效益和社会效益、提升办会档次和水平等方面提出了很好的意见建议。', '李璐璐对省家协各位领导提出的意见建议表示感谢，强调指出，要充分借鉴国内各大展会特别是行业内展会的办会经验，明确定位，精准招商招展，加大宣传推介力度，精心谋划，科学实施，全力以赴将第十八届林交会办出亮点、办出特色。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>144</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>淄博市淄川区纪委到单县学习考察</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2016-02-20</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad6a22e000f1/1614060236778242048.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['2月19日，淄博市淄川区纪委常务副书记孙兆兴一行5人到单县学习考察乡镇干部纪律巡查工作。单县县委常委、纪委书记宋茂民、纪委副书记瞿波、各巡查组组长和巡查领导小组办公室相关人员陪同。', '座谈会上，瞿波同志向淄川区纪委详细介绍了单县乡镇干部纪律巡查工作中人员配备、方案制定、组织实施和线索处置等方面的相关情况。各巡查组组长结合实际分别介绍了巡查工作中的经验体会，详细解答了淄川区纪委提出的疑问，并为淄川区纪委提供了乡镇干部纪律巡查的相关文件资料。据悉，单县自2015年5月开展乡镇干部纪律巡查工作以来，完成了三轮19个乡镇（街道）的巡查工作，现已启动第四轮巡查。单县的巡查工作得到市委督导组和市纪委领导多次高度评价，在全市乡镇干部纪律巡查工作经验交流会上作了典型发言。', '随后，淄川区纪委学习考察人员还到单县反腐倡廉教育基地进行了学习考察。（图1为单县纪委与淄川区纪委在座谈会上交流；图2为单县纪委与淄川区纪委探讨工作做法；图3为淄川区纪委参观单县反腐倡廉教育基地）']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>144</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>济宁市民航管理局前来牡丹机场考察学习</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2018-08-08</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589801752301928448.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['8月7日，济宁市民航局副局长王东春一行4人来牡丹机场考察学习。公司董事长张晓晨、副总穆友国等领导参加了双方会谈。', '上午在牡丹机场会议室召开座谈会，张晓晨董事长介绍了牡丹机场的基本情况，包括目前机场建设、机场周边配套基础建设及手续办理等情况。济宁市民航局副局长王东春在听完介绍后高度认同牡丹机场各项管理工作。会后济宁民航局调研组前往牡丹机场建设现场进行考察调研，在调研过程中，调研组成员纷纷对牡丹机场建设前期工作给予肯定，也提出了对牡丹机场发展建设的一些建议。', '双方的交流广泛而又深入，互相学习了对方的先进经验和做法，这样的交流也对日后的工作开展起到了积极推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>144</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>德州市人社局到我市考察学习居民医保工作</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2016-04-20</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926450464391168.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['4月20日，德州市人社局党组成员、调研员贺洪昌一行到我市考察学习居民医保工作。市人社局党组成员、副局长王霞，局医保处主任宋宏臣及相关科室负责人参加了座谈。宋宏臣就我市居民基本医疗保险整合后的运行情况和2016年居民医保主要政策进行了介绍，座谈双方就居民医保个人账户设置及管理、居民特殊病种设置、鉴定和管理等情况展开交流。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>144</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>神华集团来我市考察学习经济责任审计工作</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2017-01-04</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2185a50017/1584706459151630336.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['近日，中国神华集团内控审计部总经理李国忠带队，审计管理处处长郭全、审计处专员黄霞等一行3人，来我市考察学习经济责任审计，重点是领导干部任前经济责任告知告诫工作。市政协副主席、审计局局长杨晓玲、审计局党组成员、经责办主任晁秀喜与神华客人进行了座谈，介绍了有关情况，并重点就出台领导干部任前经济责任告知告诫制度的背景、主要做法及取得的成效，与客人进行了详细交流。', '近日，中国神华集团内控审计部总经理李国忠带队，审计管理处处长郭全、审计处专员黄霞等一行', '重视内部审计工作，内控审计部是全国内部审计工作先进单位。客人一行对我市的经济责任审计工作、特别是创新领导干部任前经济责任告知告诫等做法给予高度评价，认为这一制度切合当前形势需要，符合强化干部监督管理和保护干部的现实要求，也同样适用于企业内部控制与监督，收获很大，不虚此行，并希望保持联系，进一步加强双方的沟通与交流。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>144</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>市审计局到临沂市青岛市学习考察</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2185a50017/1645680058209398784.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['4月6日至8日，市审计局党组书记、局长王梦琳同志带领考察组，到临沂市审计局、青岛市审计局、胶州市审计局学习考察。围绕审计队伍建设、大数据审计、优秀审计项目创建等方面进行了交流，并观摩了各个审计局的优秀审计项目案卷。考察期间，王梦琳一行还先后与临沂市审计局局长周东开、青岛市审计局局长管卫东、胶州市审计局局长于江宏等进行了交流，探讨强化审计机关建设、提升审计质量等方面的经验做法，并表示将进一步加强审计机关的内部交流，互相取长补短，携手推进审计事业高质量发展']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>144</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>枣庄市卫健委到曹县考察学习基层卫生工作</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2019-07-22</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d7dd7000e/1584459685757452288.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['月17日，枣庄市卫健委党组书记、主任赵作亮率领枣庄市各县区卫健局局长一行10余人，到曹县考察学习落实市“十二条”政策等基层卫生发展情况。市卫健委副主任张佩宪，曹县政府副县长马其昌，县卫健局党组书记、局长李洪国等陪同。', '枣庄市考察组先后到青菏卫生院、青菏街道常寨卫生室现场参观学习。随后，在县人民医院信康楼五楼会议室，张佩宪主持召开了座谈会。马其昌致欢迎词，李洪国从党委政府重视、财政投入、乡镇卫生院在编在岗人员工资全额拨款、人才队伍建设、卫生项目建设、“S”规范管理、全民信息化建设等方面，介绍了曹县基层卫生发展情况。', '曹县县委、县政府高度重视基层卫生工作，认真落实市委、市政府《关于加强基层医疗卫生事业发展的12条意见》，县委、县政府主要领导亲自安排和部署，县政府分管领导靠上亲自抓、亲自落实。成立了以县政府主要领导任组长、分管领导任副组长，财政、人社、编办、发改、自然资源等相关部门为成员的领导小组，在人才建设上“夯保障”，落实公益一类事业单位政策，开展名医名家引进，不断提升基层医疗水平；在硬件建设上“真投入”，加快乡镇卫生院、村卫生室基础项目建设，做好医疗设备配备，不断改善医疗服务条件；在规范管理上“练内功”，在乡镇卫生院、村卫生室全面推行“S”规范管理，将“整理、整顿、整洁、规范、安全、素养”的“6S”理念融入到各项卫生工作始终，进一步解放思想、提高认识、锻炼队伍、改善形象。同时，全民健康信息化、家庭医生签约服务、医疗乱象专项整治等各项工作深入开展。', '枣庄考察组表示，通过现场参观学习，感受颇深，对曹县基层卫生工作有了更深的认识和了解，曹县基层卫生工作领导重视、措施有力、医务人员精神饱满、业务发展氛围浓厚，回去后要认真学习借鉴曹县的成功经验做法，扎实抓好枣庄市的基层卫生工作。同时，希望，下一步双方加强沟通联系、加深感情交流，更好地促进卫生健康事业发展。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>144</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>肥城市人社局到鄄城考察学习就业扶贫工作</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2016-04-19</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926997787508736.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['月14日，肥城市委组织部副部长、人社局党组书记、局长雍彦明一行12人到鄄城学习就业与社会保障精准扶贫工作经验和做法，鄄城县政协副主席、组织部副部长、县人社局党组书记、局长李沉静陪同活动。', '肥城市人社局一行实地参观了郑营镇西街村人发加工点、陈王街道西曹村、跨境电商产业园，了解发制品加工等相关产业发展情况。产业园负责人就园区发展情况、园区建设情况、园区管理和服务、创业扶持政策、精准扶贫就业点生产经营状况，和经验做法向客人做了详细介绍。肥城市人社局一行表示对鄄城县借助“双联双创”、“精准扶贫”活动，送项目到村、送就业到户、送技能到人、送政策到家，帮助农村发展经济、扶贫脱贫的做法很受启发，对肥城市人社局开展就业与社会保障精准扶贫工作具有很强的借鉴意义，希望与鄄城县人社局加强交流，互相学习，取长补短、奋力作为，带动更多的贫困群众就业创业，早日实现脱贫致富。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>144</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>枣庄市人社局来菏学习考察就业创业工作</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926049505705984.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['3月5日，枣庄市人力资源和社会保障局党组成员、人力资源服务中心主任王振一行8人，来我市学习考察就业创业工作。市人力资源社会保障局党组成员、市返乡创业服务中心主任王海林，市人力资源社会保障局党组成员、市公共就业和人才服务中心主任李迁等陪同考察。', '情况的介绍。接着，召开了座谈会，详细了解了我市人力资源、创业培训等工作开展措施，并就具体问题进行了深入交流。最后，王振一行还前往市返乡创业孵化基地进行考察学习。', '枣庄市人社局考察组对我市就业创业工作给予了充分肯定和高度评价，王振表示，将认真学习借鉴菏泽市就业创业工作经验做法，不断改进工作方法，推动枣庄市就业创业工作创新发展。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>144</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>东营仲裁办仲裁秘书交流团到潍坊仲裁办考察学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad76957900f7/1762762229737996288.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['2月26日，东营仲裁委员会办公室审理科科长、四级调研员王秀军带队，仲裁秘书交流团一行9人到潍坊仲裁委员会考察学习。', '交流团一行率先参观了“学习实践习近平法治思想仲裁基地”及办案大厅、仲裁庭等办公场所，观看了潍坊仲裁宣传汇报片，详细了解了近年来潍坊仲裁办工作开展情况。', '及办案大厅、仲裁庭等办公场所，观看了潍坊仲裁宣传汇报片，详细了解了近年来潍坊仲裁办工作开展情况。', '提升仲裁案件质效、推进仲裁案件运行程序及鉴定机构选定流程等仲裁业务方面的经验做法开展', '深入探讨交流。现场交流气氛友好热烈，双方一致表示，将以本次交流学习为契机，进一步密切沟通交流，强化合作对接，共同推动仲裁事业的高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>144</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>保定市考察团来菏学习绿化管养经验</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a20cf640015/1731841754400952320.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['23日，保定市城市管理综合行政执法局考察团来到菏泽考察学习牡丹引种栽培管理及公园、道路绿化管养经验。市城市管理事业发展中心主任田荷秀及中心有关科室人员陪同考察。', '考察团一行首先考察了菏泽城区主要道路的牡丹种植情况，接着参观了曹州牡丹园、尧舜牡丹产业园，', '一致认为，近年来，菏泽立足资源优势，积极探索牡丹产业发展新业态、新模式，尤其是在品种繁育、科技研发、品牌培育、文化旅游等方面的好经验、好做法值得学习借鉴。', '、建设花园城市方面取得明显成效，他们会把好的经验做法、好的方式方法带回去，力争在城市园林绿化工作上得到新的提升。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>144</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>银河纺织公司组织学习省党政代表团赴南方三省学习考察相关情况</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2018-08-01</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589801767128793088.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['7月27日下午，银河纺织公司组织召开中层以上党员干部学习会，深入组织学习山东省党政代表团赴粤浙苏南方三省学习考察相关情况。', '会上，首先介绍了解了山东省党政代表团赴粤浙苏三省最高规格规模“南行取经”之旅的背景、代表团人员构成、行程经过、目标收获等学习考察情况，然后深入传达学习了考察结束后召开的经验交流会精神，', '最后，公司党委书记董平学结合学习感受和公司发展实际发表了重要讲话，指出此次全省党政代表团南下学习“取经之行”，是在改革开放40周年，全省上下深入学习贯彻习近平总书记视察山东重要讲话精神和重要指示，切实响应习近平总书记对山东工作“走在前列”要求，落实省委十一届五次全会安排的大背景下进行的，省委书记刘家义在出发动员令中曾指出“只有改才有出路、只有闯才有活路，唯有改革开放才是正确的路径”，紧密结合企业发展实际，我们更要积极学习“南行”经验，主动对标先进，深挖改革发展的痛点、堵点，深查发展“短板”，不断增强高质量发展的忧患意识和危机感，切实解放思想，更新观念，凝聚共识，不断催生改革创新发展的内生动力，积极引领企业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>144</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>菏泽市城市基层党建工作考察团赴济南市考察学习城市基层党建工作</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2021-05-31</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad7718a300f9/1619514185484337152.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['5月26日-27日，围绕贯彻落实全省城市基层党建全域提升攻坚第二次推进会暨党建引领城市网格化治理工作会议精神，由菏泽市委组织部副部长刘海忠同志带队，市直相关部门单位负责人、县区委组织部分管副部长、组织科长、部分街道党工委书记组成的城市基层党建工作考察团赴济南市考察学习城市基层党建工作，考察团分三个阶段进行考察学习，对标先进、查摆不足,理清思路、谋划方向，为推动菏泽市城市基层党建工作高质量发展充电加油。', '5月26日在抵达济南的当天晚上，组织考察团所有人员集中观看学习东营、烟台、潍坊、泰安、临沂、滨州等6市的城市基层党建工作专题片。刘海忠要求，考察团要认真学习专题片中的先进经验、先进做法，丰富工作思路，转变工作方法，谋划工作路径，将学习到的先进经验、先进做法运用到工作实践中，全面提升我市城市基层党建工作水平和质量。同时指出，第二天的学习观摩要集中精力，保证现场学习质量。', '27日上午，考察团先后到济南市5个示范点进行观摩学习：在龙洞街道学习其“行走龙洞”社会治理的模式，建设“网格e站”，推进多元共治的做法；在燕山网格学院学习其依托6大实景模块、42套标准化流程，全面提升网格员素质能力的做法；在和平新村社区学习其实施组织“四进”网格工作法，制定的9大类57条“网格基础服务事项”；在舜井社区参观“红立方·蜂巢”党群服务中心，学习其创新开展外卖小哥、电商主播、小微创客等新就业群体党建工作的做法；在乐山社区学习其构建以“红色庭院”党建模式为核心的新型网格化社区治理机制，实现党建引领下的“一网统筹、多网融合”的社会治理新模式。', '27日下午，从济南市返回后，在市委党校立即召开考察学习经验交流会，市委组织部副部长刘海忠主持会议并讲话。', '刘海忠指出，城市基层党组织是党在城市全部工作和战斗力的基础，是城市基层各类组织、各项工作的“主心骨”，要提高认识，始终把加强党对城市工作的全面领导摆在首位，始终坚持以人民为中心，充分发挥党的政治优势、组织优势等，确保城市基层治理始终沿着正确方向前进。', '刘海忠强调，要认真研究消化吸收7个市的城市基层党建工作经验做法，对照省委常委、组织部部长王可同志讲话精神，聚焦街道体制改革、社区组织建设、城市基层治理等方面存在的问题，深入剖析问题根源，精准查摆短板弱项，做到认识再提高、思想再解放、行动再跟进。', '刘海忠要求，要突出问题导向，强化系统观念，制定具体推进措施，找准突破方向；要强化主责意识，坚决履行“第一责任人”职责，不折不扣地抓好工作落实；要强化过程管理，加强过程监管，实行项目化推进，挂图作战、务求实效。', '考察团成员纷纷表示：这次学习很受启发、很受震撼、很受鼓舞，对城市基层党建工作有了更新更实的认识，表示要努力推动城市基层党建工作上水平、提档次。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>144</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>徐州市创业工作指导中心来我市学习考察返乡创业工作</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2020-01-10</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1566970807928750080.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['1月8日，徐州市创业工作指导中心主任殷飞带领市、县区两级人社部门相关负责人一行16人，来我市就返乡创业工作进行学习考察。市人社局党组成员、市返乡创业服务中心主任王海林参加会议并作返乡创业基本情况介绍，市返乡创业服务中心全体人员参加会议。', '在交流座谈会上，王海林首先对徐州市学习考察组一行表示热烈欢迎，介绍了我市开展返乡创业工作的背景及工作举措、取得的积极成果，并对学习考察组提出的问题进行了详细解答。', '王海林指出，近年来，市委、市政府高度重视返乡创业工作，大力实施“归雁兴菏”行动，专门成立返乡创业工作领导小组，设立市、县两级返乡创业服务中心，出台了返乡创业“三年行动计划”和新“返乡创业20条”等文件政策，开展一系列返乡创业宣传推介活动，在全国各大中城市建立238家市县两级返乡创业服务站，打造了在外菏泽人畅叙乡情、合作交流的平台。截至2019年底，全市共有22.89万人返乡创业就业，领办创办实体8.56万家，带动就业50万人。', '殷飞表示，近几年来菏泽市大力实施“归雁兴菏”行动，坚持把返乡创业工作作为突破菏泽、鲁西崛起的有力引擎，在组织领导、政策出台、服务站建设、宣传推介、要素保障等方面进行了卓有成效的改革创新，取得了良好的成绩，走在了全省乃至全国返乡创业工作的前列，值得学习和借鉴，希望双方可以加强交流，推动共同进步和发展。', '交流座谈前，徐州市学习考察组还到牡丹区天华电商产业园、天荣家具小镇等进行实地考察。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>144</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>我市赴盐城市考察学习公益性公墓建设工作</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2019-04-28</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a277b870021/1583668128884195328.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['4月22-25日，市民政局组织各县区民政局分管负责同志和业务主管人员赴盐城市考察学习公益性公墓建设工作。考察组一行先后参观了盐城市滨海县滨海港经济区友谊公墓、八巨镇八巨公墓，盐城市盐都区蟒河陵园公墓、千秋公墓及区殡仪馆等，听取了两县区民政局的经验介绍，详细了解了两县区公益性公墓建设情况，并就建设过程中的有关问题进行了座谈交流。通过参观学习，考察组一行受到了启发，开阔了思路，认为，两县区公益性公墓建设工作进展快，效果好，一些经验做法值得我们学习：', '一是领导高度重视。为让公墓建设开好头、起好步，滨海县从2016年谋划公益性公墓建设之初，县委、县政府主要领导就一直给予高度的重视和大力的支持。县委主要领导先后两次主持召开县委常委会，专题听取汇报，研究部署公益性公墓建设工作；县政府也多次召开政府常务会议，研究协调解决公墓建设中出现的各种问题；成立了以县委副书记为组长的公墓建设专项工作领导小组，在建设初期实行周会办制度和日报告制度，严格按照时间节点全力推进公益性公墓建设。盐都区从2013年开始建设公益性公墓，区委、区政府领导都一直高度关注工作进展情况，在土地问题、资金问题等关键节点上，都是由主要领导同志亲自协调解决，保证了工作顺利开展。', '二是部门强力配合。在县区党委政府的组织领导下，形成了部门配合，上下联动的工作格局，让公墓建设走得快、行得稳。滨海县在县委、县政府主要领导同志的亲自过问和协调下，民政、财政、住建、国土、发改等部门和各个镇区协同配合，各司其责。民政部门负责确定镇区公益性公墓建设数量、规模以及墓穴面积；发改部门先进行立项审批，后补办相关手续；财政部门负责制定出台公墓建设奖补政策，将公墓建设奖补经费纳入财政预算；住建部门负责公墓设计规划，邀请市设计院专家进行实地指导论证；国土部门负责土地调整，对第一批建设的14个公墓分别安排5亩建设用地指标作为公墓建设启动区，其他用地由各镇区采用土地流转方式解决。', '三是资金投入力度大。各县区充分运用财政资金的导向作用，制定出台了公益性公墓建设资金奖补政策，通过以奖代补方式，对公益性公墓建设给予补助，调动起镇公益性公墓建设的积极性。特别是滨海县作为经济欠发达县，从2016年起，举全县之力建设公益性公墓，县财政对每个建成公墓奖补不低于300万元，有力地促进了公益性公墓建设进度。目前该县已兑现建设奖补资金5018万元，待27个公墓全部建成后，县财政奖补资金将超过8000万元。', '四是建设管理规范有序。为促进公墓建设规范化、标准化，在建设之初，两县区都结合城乡建设和新农村建设的总体规划，以县区为编制单位，原则上按1 个乡镇1－3处公墓的总体要求进行公益性公墓规划布点，尽量利用已有一定规模的墓地扩建，或利用林地、偏远沟地、废弃荒地新建，或通过散葬坟墓迁移后盘活的存量土地与其他用地进行置换等方式，多渠道解决用地需求，做到布局合理，规模适度。在公益性公墓建设管理过程中都严格落实两个“十有”目标，即公墓建设“十有”目标：有醒目的公墓名称、有明显的区域界线、有宽敞的停车场地、有规范的宣传橱窗、有必备的管理用房、有硬化的中心道路、有成片的花草树木、有标准的安葬墓穴、有安全的焚烧设备、有公共的卫生场所；公墓管理 “十有” 目标：有专职的管理人员、有规范的收费公示、有公开的值班安排、有温馨的宣传标语、有整洁的垃圾桶箱、有管用的监控系统、有必备的消防器材、有明晰的服务流程、有健全的管理制度、有完善的管理台帐。由于管理规范有序，绿化效果好，使各个公墓成为“远看像公园、近看是墓园”的园林式公墓，增强了公墓的吸引力。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>144</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>济宁市经信委考察团来我市考察学习工业强市和新旧动能转换工作</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2017-08-31</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a21d1b10018/1584370774565715968.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['月31日，济宁市经信委主任周光全率领济宁市经信委相关科室负责人和各县市区经信局长等26人组成的考察团来我市考察学习工业强市和新旧动能转换工作。先后实地到高新区山东天和压延铜箔有限公司、山东步长制药和东明县中信国安化工、方明化工、润泽化工等企业进行了实地查看，并围绕工业强市和新旧动能转换工作情况进行了交流座谈。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>144</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>湖北省襄阳市住房和城乡建设局考察团来菏考察学习园林绿化工作</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2021-04-16</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a20cf640015/1589410288904437760.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['4月15日，湖北省襄阳市住房和城乡建设局考察团来菏考察座谈园林绿化建设和管理工作。上午9点，在市城管局会议室召开了座谈会，菏泽市城市管理事业发展中心副主任马涛主持会议。', '会议主要探讨了两地园林绿化机构设置、养护管理模式、园林绿化工程建设管理监督、公园经营管理模式等工作。市城市发展中心同志介绍了菏泽市城区公园、广场、绿地的规划建设和管养的工作经验及做法；同时双方围绕城市园林绿化各方面工作做了交流探讨。', '座谈会结束后，马涛陪同考察团一行参观了曹州牡丹园，考察学习牡丹培育及养护技术及温室大棚建设管护工作。', '下午，市城市发展中心陪同考察团参观赵王河公园等城市公园，考察学习菏泽城市公园广场管理养护及特色工作中的主要做法等。', '通过实地考察和交流探讨，襄阳市考察团对菏泽市园林绿化管理养护模式、公园经营管理模式等工作给予高度评价，并邀请菏泽市城市管理局加强两地的交流学习，团结协作，使两地园林绿化工作更上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>144</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>鄄城县教体局赴牡丹区考察学习集团化办学经验</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2022-09-30</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a259ed7001c/1589536734620680192.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['2022年9月27日，鄄城县教体局党组成员刘传平带领基教股、宣传股负责人赴牡丹区何楼中学等学校考察学习集团化办学经验。', '刘传平一行听取了何楼中学等学校集团化办学的经验介绍，就集团化办学的实施背景、工作成效、课程建设、教师管理、教学保障、学科教研和下步打算等方面进行了深入交流。', '刘传平一行对牡丹区集团化办学经验表示肯定和赞赏，认为何楼中学等学校集团化办学思路清晰，效果明显，在全市外产生了良好的反响，特别是学校教研、师资交流、班子建设、班主任论坛、学生日常行为养成等方面的管理经验值得借鉴。下一步将进一步解放思想、大胆创新，紧密结合鄄城实际，学习借鉴先进经验，加强双方沟通交流，深化合作，以集团化办学为突破口，努力办好人民满意的教育。', '据悉，牡丹区何楼中学等学校与牡丹区二十一中等学校通过双向选择“牵手”办学，以最小的成本、最快的速度，让优质教育资源迅速扩散延伸。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>144</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>广饶县委组织部来曹县考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2018-07-27</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad7718a300f9/1619526645004107776.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['7月27日，广饶县委组织部一行27人到曹县磐石街道五里墩村参观学习乡村振兴工作，考察组先后实地参观了赵楼牧场、温室大棚和有机体验馆，并在银香伟业会议室召开乡村振兴工作座谈会。考察组表示，五里墩村实现了农民增收、农业增效的目标，村集体经济收入大幅提高，希望通过此次考察学习，扩宽乡村经济发展渠道 ，学习先进经验，努力实现共同发展、共同繁荣。（中共曹县县委组织部/张宁 磐石街道/董敏）']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>144</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>新年财政第一课记赴郓城县考察学习活动</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2019-01-24</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2ab278002d/1584380506147913728.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['冬寒尚存、春意已至。新年伊始，市财政局组织了赴郓城县考察学习活动，为全局科级及以上干部上了一堂高效、生动的财政支持地方发展课。仅用了半天多的时间，我们紧锣密鼓地参观了郓城县的工业企业、民生基础设施建设、学校、医养结合试点、旅游产业发展等。我作为财政支付中心的一名科级干部，能有机会对县区发展做这样涵盖面广、系统性强的参观学习，从中感知财政发挥的良好作用，进一步激发了工作自豪感和干事创业热情。', '在参观山东一鸣纺织有限公司时，厂房里机器隆隆井然有序，我们只看到几个工人轻松地维护设备运转，这些高端设备真正达到了智能化、电气一体化、数字现代化。据厂方介绍，现在生产万纱锭只需35名左右的工人，不仅减少了用工成本，而且还实现了高产高效。', '这是郓城县依托高新技术促产业升级的一个成功实例，与之相媲美的还有北京威顿（郓城）玻璃制品有限公司。公司产品主要服务于欧莱雅、玫琳凯、百雀羚等国内外知名化妆品客户，30%的产品直接出口，是郓城县政府促进玻璃产业高端化转型、启动新旧动能转换的关键项目。', '我们来到产品展示厅，看到缤纷多彩、琳琅满目的玻璃制品，在灯光的映照下熠熠生辉，有的飘逸灵秀、有的时尚修长、有的憨态圆润，一个个精巧细腻，像形态各异的精灵，在时光悠远中把美丽定格。是谁缔造了这样富有灵性的玻璃艺术品？带着疑问我们走进了生产车间。', '厂房里看不到热火朝天的景象，工人们都气定神闲地坐在流水线旁，从容地做着分拣、包装工作。展现工厂热烈气氛的，是那一个个从高高的机器顶端鱼贯而落的玻璃瓶，带着炽热的光芒，炼化的橙红色吸引了我们的双眼，不经意间我们还以为是一枚枚红柿子落下了枝头，欣喜和振奋洋溢心田。我们的目光随着玻璃瓶的逐级下落，渐渐感受到生产线上最终的清澈、透亮，原来如此高端、纯净的玻璃瓶就是这样羽化而生的。', '不仅工业生产场景精彩纷呈，让我们耳目一新、叹为观止，而且在郓城南湖新区（PPP）建设项目施工现场，在美丽的同济桥畔，在崭新的郓城一中新校区，在温馨的枫叶正红医养结合小区，都让人感到欣欣向荣、祥和美好。最让我们感到温暖的是在郓城水浒城，樊庆斌董事长介绍创业发展历程时，他饱含深情地对财政、金融给予的大力扶持表示感谢，深深的一鞠躬感动了在场的所有人。此时我们财政人倍感责任重大，如何管好、用好财政资金，把钱用在刀刃上？如何发挥财政资金“四两拨千斤”的作用，带动地方发展，造福一方百姓？这是我们新时期财政工作最大的课题。作为承担预算绩效管理工作的财政人，更要认真思考如何更新知识、创新思维、务实担当。', '通过这次考察学习，我们都感叹时代发展之快、科技进步之快、创新步伐之快。这新年财政第一课，更让我们感知到“为民理财、千斤重担！”我们在思索中迈着坚实笃定的步履，在冬日暖阳下前行，不远处春天的色彩已悄悄晕染了杨柳枝头。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>144</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>成武城管局来曹县考察学习数字化城管平台建设</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2018-11-07</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a20cf640015/1589410624826245120.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['11月6日下午，成武县城管局监督指挥中心主任田通一行4人参观考察数字化城市管理指挥中心建设运行情况，数字化中心主任赵栋，副局长王志刚陪同参观。', '考察组一行参观了曹县数字化城市管理指挥中心，听取了关于平台建设和运行情况的讲解，并现场观摩了数字化城管从信息采集、立案调查到任务派遣、反馈处理核查结案的全部流程，详细了解了数字化城市管理系统的总体架构、 运行机制，人员配置和运行情况，并就机房建设、软件子系统设置，视频监控等方面进行了探讨。', '田通主任表示，通过此次参观交流，学到了很多宝贵的经验和好的做法，为成武县数字化城管运行及后续智慧城市筹建提供了很好的借鉴模式，希望双方加深交流，不断提高信息技术服务城市管理工作的水平。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>144</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>菏泽市地震局赴潍坊和威海考察学习防震减灾工作</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2016-08-25</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3dc2600062/1589416428782485504.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['月23日-25日，菏泽市地震局党组书记、局长饶生存带领局领导班子、各科室负责同志一行14人先后赴潍坊、威海考察学习防震减灾工作。', '在潍坊考察期间，饶局长一行参观了潍坊市地震局监测预报中心和防震减灾科普馆，就防震减灾队伍建设、经费投入、重点工作开展等情况与潍坊局进行了座谈交流，潍坊市地震局长王云华，副局长陈小君，副调研员宋湘江陪同调研。', '在威海考察期间，召开了座谈会，双方重点就地震人员编制、财政收支状况、地震监测、震害防御等方面进行了交流，威海市地震局长苑圣波，副局长王国龙、陈伟亮陪同座谈。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>144</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>交投集团陈纪强一行赴绍兴滨海新区考察学习</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2022-03-08</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589800303333474304.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['在绍兴滨海新区，陈纪强重点考察了绍兴健康新城项目。该项目是绍兴市重大战略性新兴产城融合发展项目，围绕基因科学、细胞工程、生物医药等特色产业，发展高端生物医药产业集群。', '在实地考察了滨海新区产业规划和发展模式后，陈纪强表示，绍兴滨海新区的先进发展理念，对交投集团高铁片区的规划发展具有一定启发、借鉴和示范作用，在下步工作中，集团公司将学习滨海新区经验，引导创新要素向高铁片区聚集，努力把高铁新区打造成为贯彻落实新发展理念的创新发展示范区。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>144</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>王铁军局长带队到泰安市医保局考察学习</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2020-07-04</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d41d7000d/1589783767206068224.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['7月3日，在菏泽市医保局党组书记、局长王铁军的带领下，局班子全体成员，部分科室负责人到泰安市医疗保障局学习考察“互联网+医保+医疗+医药”慢病管理经验，智能监控、慢病处方流转等方面的先进经验。', '泰安学习之行，在坐上大巴车后就开始了。在车上，王铁军提出，要一路走，一路学，一路思考。要结合"以民为本，忠诚担当，内强素质，外树形象"的要求，学先进、找差距，对比先进，对照自身工作，学习好，对标好。王铁军带领大家共同学习了《久久为功，习近平这样多次告诫全党》的文章，要求大家树立规矩意识，在工作生活中的每一个细节，每一个环节讲规矩、守纪律，在抓常，抓细，抓长上下功夫，敬畏权力，敬畏人民，形成心底无私，顾全大局，用心工作，持之以恒的思想作风和工作作风。', '到达泰安后，考察组首先来到了泰安市中心医院，现场观摩市中心医院慢病服务中心医保慢病服务模式、功能布局、服务流程、互联网线上支付；市中心医院智能监控平台事前提醒、事中控制功能展示。在泰山慢病互联网医院，参观了主题展厅、数字慢病管理中心、泰安市医保智能监管中心、医保智能监管中心端展示、医保信用体系建设、国家组织集中采购药品监管系统、外呼中心、药师在线审方中心、云药房、摆药机、医保健康服务车。', '在参观中，王铁军一行边看边问、边学边记，现场与泰安市医保局、泰安市中心医院、泰安市互联网医院的负责同志进行交流。随后，学习组在泰山慢病互联网医院召开座谈会，就泰安市“互联网+医保+医疗+医药”慢病管理等方面的有关情况，进行座谈交流。', '王铁军表示，泰安市医疗保障局在“互联网+医保”等方面改革创新多、举措实、服务优、效果好，体现了以人民为中心的理念和医保改革的创新精神，提升了群众满意度，看了之后思想上有震动，非常值得借鉴学习，并对泰安市医保局分享宝贵经验表示感谢。并表示，在以后的医保工作中，将对此次学习成果进行消化吸收、再创新，确保泰安经验在菏泽落地、生根、开花、结果。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>144</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>聊城市德州市来菏考察学习国家储备林项目建设</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a26ffcf0020/1639608815802621952.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['3月21日至23日，聊城市林业发展中心主任郭喜军一行12人、德州市自然资源局四级调研员王荣梅一行5人先后来我市考察学习国家储备林项目建设经验做法。市林业局党组成员、副局长王丽荣，市林业技术服务中心主任温增军分别陪同相关活动。', '考察组到东鱼河定陶段国家储备林示范项目建设现场、苗木基地进行了实地考察。座谈会上，大家围绕储备林项目建设平台运作、金融机构贷款模式、二三产业合作等方面的工作进行了深入交流，并探讨了国家储备林项目建设过程中存在的难点和对策。', '考察组一致认为我市储备林项目在建设模式上积极创新，在实施标准上质量严格，在项目推进上扎实有力，经验做法具有可复制可推广性，为下一步储备林项目建设提供了宝贵的经验。希望以此次考察学习为契机，进一步加强沟通交流，把储备林项目建设作为推进新时代林业高质量发展、双碳战略的重要抓手。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>144</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>菏泽市经信委赴济宁学习考察智慧城市建设</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2017-04-21</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a21d1b10018/1584371310367080448.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['为学习借鉴先进地区智慧城市建设工作经验，推进菏泽城市转型发展，4月20日，菏泽市经信委副主任、党组副书记田言林率团前往济宁学习考察智慧城市建设。济宁市经信委调研员、山东信息技术产业基地办公室主任王佑兵陪同考察并介绍了智慧城市建设先进经验。', '济宁市经信委调研员、山东信息技术产业基地办公室主任王佑兵陪同考察并介绍了智慧城市建设先进经验。', '据了解，济宁智慧城市项目以云平台为核心，逐步接入政务、城管、教育、医疗等各类应用。项目一期建设以社会管理方面的应用为主，目的在于提高政府管理水平，主要分为：智慧环保、智慧城管、智慧教育、智慧旅游、智慧医疗、智慧云平台及运营中心建设；项目二期建设将基于基础支撑平台进行业务和功能拓展，推进平安城市、市政照明、智慧安监、智慧工商、智慧环保、智慧金融、智慧农业、智慧园区、智慧物流等应用。', '考察团一行先后考察参观了创意大厦、山东广安车联科技有限公司、辰欣药业智能立体仓库、山东甲骨文运营中心、赛迪研究院山东分院、中兴山东智慧城市运营中心，并分别与赛迪研究院山东分院、中兴惠达科技相关负责人从智慧城市、城市WiFi、物联网、智联指挥调度等方面对智慧城市建设进行了座谈交流', '，详细了解了智慧城市建设发展定位、基本思路、顶层设计、建设模式、运营管理和大数据产业发展等情况。', '田言林对济宁市智慧城市建设工作所取得的成效给予高度评价，认为济宁市智慧城市建设前期工作起步早、思路清、体系全，非常值得菏泽借鉴。表示今后两地将进一步加强沟通交流，建立友好往来关系，吸收和借鉴其好的经验和做法，不断加快智慧城市建设步伐，让智慧城市更好更快地为经济和社会发展发挥积极作用。', '通过考察学习，考察团成员深刻地认识到智慧城市建设是新形势下区域经济发展的新起点、新机遇、新动力，也是加快发展动能转换、解决民生问题的有效平台和抓手。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>144</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>徐州市创业工作指导中心来我市学习考察返乡创业工作</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2020-01-13</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582937758379278336.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['1月8日，徐州市创业工作指导中心主任殷飞带领市、县区两级人社部门相关负责人一行16人，来我市就返乡创业工作进行学习考察。市人社局党组成员、市返乡创业服务中心主任王海林参加会议并作返乡创业基本情况介绍，市返乡创业服务中心全体人员参加会议。', '在交流座谈会上，王海林首先对徐州市学习考察组一行表示热烈欢迎，介绍了我市开展返乡创业工作的背景及工作举措、取得的积极成果，并对学习考察组提出的问题进行了详细解答。王海林指出，近年来，市委、市政府高度重视返乡创业工作，大力实施“归雁兴菏”行动，专门成立返乡创业工作领导小组，设立市、县两级返乡创业服务中心，出台了返乡创业“三年行动计划”和新“返乡创业20条”等文件政策，开展一系列返乡创业宣传推介活动，在全国各大中城市建立238家市县两级返乡创业服务站，打造了在外菏泽人畅叙乡情、合作交流的平台。截至2019年底，全市共有22.89万人返乡创业就业，领办创办实体8.56万家，带动就业50万人。', '在交流座谈会上，王海林首先对徐州市学习考察组一行表示热烈欢迎，介绍了我市开展返乡创业工作的背景及工作举措、取得的积极成果，并对学习考察组提出的问题进行了详细解答。王海林指出，近年来，市委、市政府高度重视返乡创业工作，大力实施', '殷飞表示，近几年来菏泽市大力实施“归雁兴菏”行动，坚持把返乡创业工作作为突破菏泽、鲁西崛起的有力引擎，在组织领导、政策出台、服务站建设、宣传推介、要素保障等方面进行了卓有成效的改革创新，取得了良好的成绩，走在了全省乃至全国返乡创业工作的前列，值得学习和借鉴，希望双方可以加强交流，推动共同进步和发展。', '交流座谈前，徐州市学习考察组还到牡丹区天华电商产业园、天荣家具小镇等进行实地考察。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>144</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>东营市自然资源局河口分局到曹县学习考察</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2020-06-15</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2a3401002b/1585448098564407296.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['6月14日，东营市自然资源局河口分局党组书记、局长李俊兵一行到曹县学习考察。曹县自然资源和规划局带领考察组到曹县青岗集青岗寺社区，通过工作汇报、实地考察、车览等形式，详细介绍了曹县在城乡建设用地增减挂钩、残次林整治、耕地保护、用途管制等方面的工作成绩和主要做法。', '在随后的座谈交流中，考察组认为曹县在城乡建设用地增减挂钩、土地综合整治、耕地保护、用途管制等方面的先进经验值得学习和借鉴。双方还围绕新农村建设、推动经济发展等方面进行了交流探讨，并表示将继续加强沟通和交流，实现共同发展。（曹县自然资源和规划局）']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>144</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>哈尔滨仲裁委一行到青岛仲裁委学习考察</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2018-07-23</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad76957900f7/1589438780345942016.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['2018年7月20日上午，哈尔滨仲裁委员会主任吴爱民一行到访青岛仲裁委员会，就仲裁机构的管理体制和改革等相关内容进行考察调研。青岛仲裁办党组书记王恒东、副主任田有赫及相关处室负责人参加座谈。', '王恒东书记首先对吴爱民主任一行的到来表示热烈欢迎，并简单介绍了青仲的基本情况。其后，就青岛仲裁近年来着力打造一流仲裁机构和青岛国际仲裁中心建设等情况进行了详细介绍。吴爱民主任介绍了哈尔滨仲裁委近年来的工作情况和专题调研前期走访的主要情况。双方还就仲裁机构的管理体制和改革、仲裁事业发展方面的具体做法和经验进行了进一步交流。', '座谈前，王恒东陪同吴爱民一行参观了青岛仲裁委员会位于崂山区荣柏财富大厦的办公办案场所。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>144</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>主题教育学习材料年习近平总书记在山东考察</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2019-09-16</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a21d1b10018/1584371905182302208.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['新华社济南6月14日电 中共中央总书记、国家主席、中央军委主席习近平近日在山东考察时强调，切实把新发展理念落到实处，不断取得高质量发展新成就，不断增强经济社会发展创新力，更好满足人民日益增长的美好生活需要。', '初夏的齐鲁大地，万物勃兴，生机盎然。6月12日至14日，习近平在出席上海合作组织青岛峰会后，在山东省委书记刘家义、省长龚正陪同下，先后来到青岛、威海、烟台、济南等地，深入科研院所、社区、党性教育基地、企业、农村，考察党的十九大精神贯彻落实和经济社会发展情况。', '山东半岛濒临黄渤海，海域资源丰富，具有发展海洋科技和产业的有利条件。12日上午，习近平来到位于青岛蓝谷的青岛海洋科学与技术试点国家实验室。习近平走进实验室大楼，结合展板、电子屏、实物模型和样品标本展示，听取实验室在开发利用海洋资源能源、服务海洋经济发展、保护海洋生态环境以及构建综合立体海洋观测网络等方面的情况介绍，了解深远海科考船队共享平台建设和科考船工作情况。在超算仿真大厅，习近平认真察看高性能科学计算和系统仿真平台运行情况，并向科研人员详细询问构建超级计算机互联网、研发人工智能和大数据系统“深蓝大脑”、打造国家一流海洋系统模拟器的最新进展。得知超级计算机解决了海洋数据“碎片化”问题，大大提高了海洋观测和预测能力，总书记十分高兴。海洋高端装备联合实验室内，水下仿生机器鱼、无人水面船、海洋传感器等具有自主知识产权和核心关键技术的海洋仪器设备吸引了总书记目光，他走上前去凝神察看，不时询问。听说总书记来了，实验室的科研人员纷纷围聚过来，向总书记问好。习近平强调，海洋经济发展前途无量。建设海洋强国，必须进一步关心海洋、认识海洋、经略海洋，加快海洋科技创新步伐。他勉励大家，再接再厉，创造辉煌。', '随后，习近平来到青岛市李沧区上流佳苑社区。在社区市民中心，他听取青岛市城市发展规划建设和旧城风貌保护情况汇报，察看村史馆内旧村老屋复原场景，了解社区实施旧城改造、加强基层党建以及居民生活变化情况。中午时分，习近平走进社区便民食堂，同正在这里用餐的居民热情交谈，询问饭菜可不可口、价格贵不贵、对社区便民服务还有什么新要求。习近平还沿着小道步入社区，察看社区整体环境和居民居住情况。社区小广场上，一些居民正在健身休闲，看到总书记来了，大家热情鼓起掌来。习近平走到他们身边，向大家问好。习近平强调，城市是人民的城市，要多打造市民休闲观光、健身活动的地点，让人民群众生活更方便、更丰富多彩。要推动社会治理重心向基层下移，把更多资源、服务、管理放到社区，更好为社区居民提供精准化、精细化服务。离开社区时，路旁挤满了群众，习近平频频挥手，向大家致意。', '下午，习近平来到胶东（威海）党性教育基地刘公岛教学区。习近平登上东泓炮台遗址，了解北洋海军威海卫基地防务情况和威海卫保卫战、刘公岛保卫战历史。随后，习近平来到甲午战争博物馆陈列馆，参观甲午战争史实展。习近平听取了威海市依托红色资源打造党性教育基地情况介绍。正在刘公岛教学区培训的学员代表和博物馆工作人员代表，以热烈掌声欢迎总书记的到来。习近平语重心长地说，我一直想来这里看一看，受受教育。要警钟长鸣，铭记历史教训，13亿多中国人要发愤图强，把我们的国家建设得更好更强大。', '夕阳洒向海滨，青山格外秀美。接近傍晚时分，习近平考察了华夏集团生态修复项目。这个曾经满目疮痍的采石场，经过十多年的综合治理、绿化造林，如今到处鸟语花香、满眼郁郁葱葱。习近平在听取威海市生态文明建设整体情况介绍后，沿着步行道实地察看治理区新貌，同当年参与矿山修复和目前正在景区工作的村民亲切交谈，对华夏集团通过生态修复促进文化旅游发展、带动周边村民就业致富的做法给予肯定。习近平强调，良好生态环境是经济社会持续健康发展的重要基础，要把生态文明建设放在突出地位，把绿水青山就是金山银山的理念印在脑子里、落实在行动上，统筹山水林田湖草系统治理，让祖国大地不断绿起来、美起来。', '海风萧萧，烟雨蒙蒙。13日上午，习近平冒雨来到位于山东半岛北端的蓬莱市，这里曾经是古代海上丝绸之路的一个起点。习近平拾阶而上，登上蓬莱阁主阁，远眺黄渤海分界线，俯瞰蓬莱水城，了解古代海上丝绸之路情况，察看水城炮台和古代舰船入海口，听取明代爱国将领戚继光操练水师、保卫海防等历史介绍。习近平指出，我国古代史、近代史、现代史构成了中华民族的丰富历史画卷。领导干部要多读一点历史，从历史中汲取更多精神营养。要加强国家重点文物保护，让优秀文物世代相传。', '习近平十分关心企业科技创新和装备制造业发展。考察期间，他先后来到万华烟台工业园、中集来福士海洋工程有限公司烟台基地、浪潮集团高端容错计算机生产基地，进车间，看样品，听介绍，详细了解有关情况。在万华烟台工业园，习近平深入中控室，向正在值班的工作人员了解企业中控系统运行情况，听取企业发展历程、产业布局、产品应用等情况介绍。得知企业走出一条引进、消化、吸收、再创新直至自主创造的道路，技术创新能力从无到有、从弱到强，成为全球异氰酸酯行业的领军者，习近平鼓励企业一鼓作气、一气呵成、一以贯之，朝着既定目标奋勇向前。习近平强调，要坚持走自主创新之路，要有这么一股劲，要有这样的坚定信念和追求，不断在关键核心技术研发上取得新突破。', '风急云低，雨流如注。13日下午，习近平来到中集来福士海洋工程有限公司烟台基地。作为国内率先进入海洋工程行业的企业，中集来福士用10年左右时间，国产化率从不足10%提高到60%。在厂区码头上，习近平撑着雨伞，趟着积水，近距离察看停靠在这里的自升式修井生活平台，远眺“蓝鲸1号”超深水双钻塔半潜式钻井平台、“泰山”龙门吊、海洋牧场平台，向企业负责人详细了解高端海洋工程设备制造、维护、运行情况。海风吹起了衣襟，雨水打湿了裤腿。习近平站在雨中，同围拢过来的工人们一一握手、亲切交谈，向作业平台上的工人们挥手致意。习近平指出，国有企业特别是中央所属国有企业，一定要加强自主创新能力，研发和掌握更多的国之重器。国有企业要深化改革创新，努力建成现代企业。要坚持党对国有企业的领导不动摇，坚持建强国有企业基层党组织不放松，为做强做优做大国有企业提供坚强组织保证。', '14日上午，习近平来到济南高新区，考察浪潮集团高端容错计算机生产基地。近年来，浪潮集团实施创新驱动发展战略，加快高端服务器国产化替代，有效推动了数字经济和新旧动能转换。习近平结合实物详细了解企业自主研发的高端服务器和大数据、政务云、智慧城市等信息化平台，走进车间察看高端服务器装配生产线，听取企业运用“互联网+”理念打造智能工厂、提高产品质量和生产效率、弘扬“工匠精神”、提高企业竞争力等情况介绍。习近平强调，一个国家要发展，明确目标和路径很重要。我们的目标就是实现中华民族伟大复兴的中国梦。创新发展、新旧动能转换，是我们能否过坎的关键。要坚持把发展基点放在创新上，发挥我国社会主义制度能够集中力量办大事的制度优势，大力培育创新优势企业，塑造更多依靠创新驱动、更多发挥先发优势的引领型发展。', '离开浪潮集团，习近平乘车前往济南市章丘区双山街道三涧溪村考察。这个村通过抓班子建设、发挥党员带动作用、以党风带家风促民风，3年时间实现了由乱到治的变化。在村党群服务中心，习近平听取这个村以党建为统领，强化班子建设、推动产业发展、保护生态环境、汇聚人才资源、建设文明村风家风、壮大村级集体经济等情况介绍。习近平指出，乡村振兴，人才是关键。要积极培养本土人才，鼓励外出能人返乡创业，鼓励大学生村官扎根基层，为乡村振兴提供人才保障。要加强基层党组织建设，选好配强党组织带头人，发挥好基层党组织战斗堡垒作用，为乡村振兴提供组织保证。', '习近平十分牵挂村民的居住和生活状况。他走进村民赵顺利家，同一家人围坐一起拉家常，问他们收入怎么样，搬迁花了多少钱，生活上还有哪些困难。赵顺利拉着总书记的手激动地说，这些年老百姓的生活可好了，致富路越走越宽，日子越过越红火，全靠党的政策好。习近平听了十分高兴，叮嘱随行的地方领导，农业农村工作，说一千、道一万，增加农民收入是关键。要加快构建促进农民持续较快增收的长效政策机制，让广大农民都尽快富裕起来。要把党的政策用生动通俗的形式宣传好，让广大群众听得懂、能理解。要加强村规民约建设，移风易俗，为农民减轻负担。离开三涧溪村时，闻讯赶来的村民们齐声向总书记问好，习近平挥手向大家告别。掌声在村庄上空久久回荡。', '14日下午，习近平听取了山东省委和省政府工作汇报，对山东各项工作给予肯定。希望山东深入贯彻党的十九大精神和新时代中国特色社会主义思想，坚持稳中求进工作总基调，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，全面做好稳增长、促改革、调结构、惠民生、防风险各项工作，打好“三大攻坚战”。', '习近平强调，推动高质量发展，关键是要按照新发展理念的要求，以供给侧结构性改革为主线，推动经济发展质量变革、效率变革、动力变革。要坚持腾笼换鸟、凤凰涅槃的思路，推动产业优化升级，推动创新驱动发展，推动基础设施提升，推动海洋强省建设，推动深化改革开放，推动高质量发展取得有效进展。', '习近平指出，农业大省的责任首先是维护国家粮食安全。要把粮食生产抓紧抓好，把农业结构调活调优，把农民增收夯实夯牢，把脱贫攻坚战打好打赢，扎实实施乡村振兴战略，打造乡村振兴的齐鲁样板。', '习近平强调，民之所盼，政之所向。增进民生福祉是发展的根本目的。做民生工作，首先要有为民情怀。要多谋民生之利、多解民生之忧，在发展中补齐民生短板、促进社会公平正义。要坚持以人民为中心的发展思想，扭住人民群众最关心的就业、教育、收入、社保、医疗、养老、居住、环境、食品药品安全、社会治安等问题，扎扎实实把民生工作做好。', '习近平指出，我们党要永远立于不败之地，就要不断推进自我革命，教育引导党员、干部特别是领导干部从思想上正本清源、固本培元，筑牢思想道德防线，增强拒腐防变和抵御风险能力，时刻保持共产党人的政治本色。领导干部必须珍惜权力、管好权力、慎用权力，自觉接受各方面监督，做到忠诚老实、言行一致、表里如一，时刻想着为党分忧、为党奉献。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>144</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>邯郸市民政局来我市考察学习养老服务工作</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2023-03-21</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a277b870021/1638098509037199360.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['3月21日，邯郸市民政局党组书记、局长左印堂一行7人来我市考察学习养老服务工作。市民政局党组书记、局长刘勇，四级调研员朱人和、养老服务科科长董鹏陪同考察。', '考察组一行先后前往成武县大曹庄农村新型农村幸福院、苟村集镇中心敬老院、晚霞红光医养院、养老康复中心进行实地观摩，详细了解我市农村养老服务设施管理运营、医养融合发展、养老信息化建设等工作，双方就农村养老服务、康养产业发展等方面进行了沟通交流。', '左印堂局长对我市养老服务工作尤其是农村养老工作给予了高度评价，他指出，菏泽市养老服务模式特色明显、亮点纷呈，服务质量好、群众满意度高，表示将认真借鉴我市养老服务方面的先进经验和典型做法，助力推动养老服务工作取得新成效。', '市民政局将以此次考察交流为契机，建立联动工作机制，加强业务沟通交流，相互学习经验做法，探索形成更多有特色、可复制、可推广的养老服务发展新模式，全力推动我市养老服务工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>144</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>日照市卫生和计划生育监督所来菏学习考察</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2018-06-14</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d7dd7000e/1584460265569648640.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['6月7日、8日，日照市卫生和计划生育监督所一行8人来我市学习考察卫生计生监督执法工作。日照客人实地考察了郓城县卫生计生综合监督执法局及丁里长镇工作现场。 在召开的座谈会上，双方就医疗机构、传染病、计划生育、环境卫生、行政许可服务等监督执法及宣传、信息化建设等工作进行深入探讨，共同研究新形势下卫生计生监督执法的新思路。座谈会还确定了双方对口科室结对子互助方案。本次活动拉开了山东省卫生计生监督机构第二协作区联动序幕。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>144</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>张磊带队赴青岛考察学习营创法治营商环境工作</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908084848efc5a01852909ca6d0333/1771083697743872000.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['为深入贯彻落实中央、省市委关于优化法治营商环境工作部署，不断提升菏泽法治营商环境建设水平，3月20日至21日，市委常委、政法委书记张磊带队赴青岛考察学习营创法治营商环境工作。', '考察组先后实地观摩学习了青岛中央法务区总部、涉外法务区、青岛国际商事法庭、金家岭金融法务区、法治金融智慧平台“金智谷”，听取了青岛市关于中央法务区建设、“青法先生”法治服务品牌、开展金融风险防控等工作介绍。每到一处，考察组都认真听讲解、看资料，并围绕政法机关如何发挥“牵头抓总、统筹协调、督办落实”职能优势，整合资源、汇聚力量，不断提升法治营商环境建设水平进行座谈交流。', '张磊指出，青岛作为全省经济发展的“火车头”，法治营商环境建设水平也一直走在前列，尤其是在涉外法务、国际商事，运用大数据防范金融风险、打击金融犯罪、服务金融产业发展等方面理念超前、注重创新，先行先试、效果明显，非常值得学习借鉴。', '张磊要求，菏泽政法机关要以此次考察学习为契机，把青岛政法机关的先进理念、宝贵经验带回菏泽，立足菏泽实际，充分发挥职能作用，在持续提升法治营商环境建设水平上探索新路径、拿出新举措，尽最大努力为经济社会发展提供法治保障。', '菏泽市委政法委、市政法单位分管负责同志及有关科室同志参加考察，青岛市委政法委、市政法部门领导同志及相关部门负责人陪同活动。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>144</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>我市赴贵州省考察学习居家和社区养老服务工作</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2019-04-29</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a277b870021/1583668128527679488.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['为加快推进我市国家级居家和社区养老服务改革试点工作， 4月24日至27日，市政府副秘书长赵汉松带队，市民政局、财政局、卫健委、山东省医养结合研究发展中心、市开发区佃户屯老年人康复中心等一行12人，赴贵州省贵阳市、六盘水市考察学习居家和社区养老服务工作。', '在实地查看两市养老机构管理和服务情况后，考察组一行分别与两市进行座谈交流，学习先进经验做法。贵阳、六盘水两市居家和社区养老服务工作对我市主要有六点启示：一是领导高度重视。在工作推进遇到困难时，市长亲自指挥、协调、调度，强力推进居家和社区养老服务改革试点工作。二是资金保障到位。当地政府严格落实福彩公益金50%用于养老的政策，加大改革试点工作资金投入，试点工作取得实效。三是政策落实到位。两市建立了养老服务设施与新建住宅小区同步规划、同步建设、同步验收、同步交付使用的“四同步”工作机制，有效解决养老服务用房落实难问题。四是创新服务模式。两市探索建立的长期照护服务体系、“物业管理+养老”服务模式、养老保险服务等创新模式值得我市学习借鉴。五是规范运营管理。两市对所有社区养老服务机构开展星级养老机构评定工作，通过对养老机构评星挂牌活动，进一步规范养老服务机构管理运营。六是注重人才培养。两市依托高校设置专业课程，联合开办养老研修班，积极开展养老机构的管理人员和护理员培训。', '通过此次考察学习，市民政局将借鉴贵阳、六盘水两市先进经验，强措施、补短板，不断推进我市居家和社区养老服务改革试点工作。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>144</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>市人社局赴苏州杭州对标学习考察创业园区建设工作</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2019-07-19</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926255743827968.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['7月14日至18日，市人社局党组成员、市返乡创业服务中心主任王海林带领考察学习组赴江苏苏州、浙江杭州对标学习先进地区创业园区的管理理念和运营模式。', '考察学习组先后实地考察了苏州昆山市阳澄湖科技园、苏州市国家级科技企业孵化器、杭州市天和高科技创业园区和创海创业园等，观看了创业园区的宣传视频，听取了园区负责人关于创业园建设情况介绍，走访了园区部分代表性企业，并与园区众多创业人员进行交流互动，并就进一步加快我市返乡创业孵化基地建设和提供创业管理服务等方面进行了深入交流和探讨。', '下一步，市人社局将借鉴苏、杭两市的先进做法，积极探索构建“政策+项目、平台+发展、服务+招商、孵化+企业”等园区建设模式，努力开拓我市创业发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>144</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>蒙城县人社局来鄄城县考察学习就业扶贫工作</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2017-03-08</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926987540824064.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['月6日，蒙城县人力资源和社会保障局党组成员、副局长邓伟一行6人到鄄城县学习考察就业创业、扶贫车间等与就业扶贫有关工作，县人社局党组成员、主任科员肖守刚同志陪同活动。', '蒙城县人社局一行实地参观了郑营镇西街村、陈王街道曹庄村、彭楼社区就业扶贫车间及伯灵电商产业园，就业扶贫点与电商产业园负责人就鄄城县就业、创业工作开展情况、园区建设情况、园区管理和相关服务扶持政策向蒙城县人社局一行做了详细介绍。双方还一起探讨了“扶贫车间”在扶贫工作中发挥的作用并详细了解相关扶贫工作的典型经验。', '双方还一起探讨了“扶贫车间”在扶贫工作中发挥的作用并详细了解相关扶贫工作的典型经验。', '邓伟局长表示鄄城县开展扶贫工作对于他们具有很强的指导意义，希望与鄄城人社局加强交流、学习，继续按照全省精准扶贫工作要求，奋力作为，提质增效，做出更多惠民工程，带动更多的贫困群众就业创业。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>144</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>国企动态菏泽文旅集团赴徐州潘安湖国家湿地公园考察学习</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1766028865366540288.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['为提升景区管理服务水平，推进运营管理更加专业化、规范化、精细化，3月6日，菏泽文旅集团副总经理宫衍军带领景区管理负责人前往徐州潘安湖国家湿地公园考察学习。', '宫衍军一行深入徐州潘安湖国家湿地公园景区，全面了解其运营管理模式、服务标准以及景区环境保护等方面的经验做法。', '通过此次考察交流，能够进一步完善双方景区管理服务体系，提升游客满意度，打造更具吸引力和竞争力的旅游集散地。随行的曹州牡丹园、中国牡丹园景区有关负责人表示，将贯彻落实此次学习成果，加强内部管理，推动景区运营管理更加专业化、规范化、精细化，提高工作效率，为菏泽文旅融合事业的发展贡献更大力量。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>144</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>单县组织考察团到鄄城县参观学习美丽乡村建设工作</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2018-01-02</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1ccab3000b/1589879111583531008.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['为进一步推进美丽乡村建设及农村环境综合整治工作，12月29日，单县组织考察团40余人到鄄城县参观学习。县委副书记李贵福、县委常委、宣传部长李磊、副县长高素娟参加活动。', '考察团一行实地查看了鄄城县陈王街道西曹行政村、郑营镇韩屯村、董口镇军屯村、古泉街道常庄村、葵堌堆村美丽乡村建设现场，每到一处，大家都详细了解当地环境整治、基础设施建设、产业发展以及生态旅游等情况，并听取了相关工作情况汇报。考察点的生态环境、自然环境、村落建设都在保留地方特色的基础上，充分发挥了当地生态优势，统筹推进美丽乡村建设及农村环境综合整治，给大家留下了深刻的印象。', '考察团对鄄城县美丽乡村建设工作取得的成绩给予了高度评价，并表示将认真学习借鉴鄄城县经验，大力提升我县美丽乡村建设工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>144</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>国企动态菏泽市水务集团赴青岛三利集团考察学习</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1673604034394726400.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['6月24日至25日，菏泽市水务集团党委书记、董事长张防带队赴青岛三利集团考察学习企业文化建设，水务集团领导李广年、王海涛、冯江华、白兴磊，外部董事冯雅及集团有关部室、部分权属公司负责人参加活动。', '青岛三利集团始建于1992年，现有四个产业园区，总占地面积3000亩，职工4000余人。三利集团以“让客户100%满意，让100%客户满意”为宗旨，致力于高端供水设备、水泵、电机的研发、生产与运维，打造供水设备民族品牌。31年来，三利集团坚持“用思想凝聚力量”，形成了鲜明独特的企业文化。', '在三利集团鲁西营销管理中心总经理李敏等人陪同下，考察团先后参观了三利集团的三个生产厂区以及三利产品博览会、企业文化展厅、智慧水务中心、产品档案管理中心，听取了三利集团发展历程和企业文化的专题介绍。', '车间内先进高端的生产设备、井然有序的生产现场，博览会上琳琅满目、工艺精良的产品，以及三利集团以人为本、严格管理、开拓创新、争创一流的企业文化给考察团成员留下深刻印象。', '25日上午，张防等领导班子成员与三利集团董事长张明亮就加强企业文化建设、提高企业核心竞争力等问题进行了深入交流，并在加强相关领域业务合作方面达成一致意见。', '企业文化是企业的灵魂和精神支柱，是企业获得持久发展的动力源泉。菏泽市水务集团将以此次考察学习为契机，继续弘扬“上善若水，务实图强”的企业精神，加大企业文化建设力度，用先进的企业文化推动改革发展，营造积极向上、奋发有为、凝心聚力、众志成城的发展环境，为实现企业高质量发展提供不竭动力。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>144</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>固原市就业创业服务局来我市考察学习创业担保贷款工作</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2018-04-18</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926308604641280.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['就业创业服务局副局长仇建平率固原市创业担保贷款中心一行4人来我市考察学习创业担保贷款管理服务工作，市人社局就业办、创业贷款管理服务中心相关人员参加座谈。', '座谈会上，市人社局创业贷款管理服务中心负责人介绍了近年来我市创业担保贷款工作开展情况', '就创业担保贷款当地政策、业务经办流程、档案管理、信息管理、财务运行与相关单位工作衔接等经验做法进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>144</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>莱芜市卫生计生委来菏学习考察监督执法工作</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2016-07-04</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d7dd7000e/1584460392610922496.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['6月23日，莱芜市卫生计生委一行10人在副主任刘敏俊、卫生监督所所长张兆民带领下来菏泽交流学习监督执法工作。市卫生计生委党委副书记、副主任沙元革，市卫生计生委党委委员、卫生计生综合监督执法局局长杨继香陪同。 在召开的座谈会上，杨继香详细介绍了我市卫生计生监督执法体系建设、监督执法网格化管理、职位分级管理、综合监督示范区建设等工作。双方就卫生计生综合监督提升年活动、市县（区）卫生计生监督分级管理、卫生计生监督协管和卫生计生监督业务等工作进行深入探讨，就互动执法、交流合作等方面取得一致意见。莱芜市同仁实地参观了我市郓城县及乡镇卫生计生监督执法工作现场。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>144</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>市建设工程质量监督站组织有关人员外出考察学习</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2018-07-31</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1a962f0005/1566979820028428288.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['此次考察学习采取参加座谈、实地查看等方式，围绕工程质量监督、质量检测、监管系统运行、监管模式转变、检测市场管理、职工队伍建设等工作进行了充分的探讨和交流。同时对四个市检测机构运行、检测设备、市场开发等相关情况进行认真学习。', '通过考察学习，促进了双方的交流沟通，也对我局工程质量监督、检测工作更好的开展提供了宝贵经验。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>144</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>市林业局局长李璐璐带队赴六安合肥考察学习</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a26ffcf0020/1649578726645747712.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['为进一步推进全市林业信息化建设，4月17日至19日，市林业局党组书记、局长李璐璐带队赴六安、合肥调研智慧林业建设工作，学习借鉴当地林业部门成功经验和创新做法，探索菏泽市智慧林业建设的良策。市林业局党组成员、副局长王丽荣及有关人员陪同考察学习。', '考察组实地考察了六安市林长制智慧管理服务平台、合肥市苗木花卉交易服务中心、中国中部花木城等现场，深入了解平台运行机制、前端信息采集设备以及苗交会云平台的研发过程、运营模式、创新机制等情况，并围绕展会市场化发展进行了座谈交流。', '下一步，市林业局考察组将充分消化吸收学习成果，结合菏泽工作实际，聚焦智慧林业项目建设，吸引高端优质资源合作共赢，推动“会展经济”向“平台经济”信息化建设转型，进一步增强中国林产品交易会的影响力，深化林长制信息化管理服务水平，以数字赋能推动全市林业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>144</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>沂水县水产服务中心来东明县学习考察渔业发展情况</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019-06-03</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3df0a30063/1605492005352243200.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['5月30日，沂水县渔业发展促进中心一行七人在主任杨春华的带领下来东明县学习考察休闲渔业、设施渔业开展情况。东明县水产服务中心党组书记、主任马井泉，副主任王锁柱等全程陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>144</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>对标对表找差距交流学习促提高菏泽市司法行政系统赴江苏无锡浙江诸暨考察学习</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2019-07-09</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1e311a0010/1583731394603909120.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['标 题：对标对表找差距 交流学习促提高--菏泽市司法行政系统赴江苏无锡浙江诸暨考察学习', '内容概述：对标对表找差距 交流学习促提高--菏泽市司法行政系统赴江苏无锡浙江诸暨考察学习', '为更好地落实省市“担当作为、狠抓落实”会议精神，认真学习对标单位的先进理念和经验做法，全面推动我市法治政府建设取得新进展、法治社会建设取得新成效、公共法律服务得到新提升，7月3日至6日，市司法局长赵中华带队到江苏无锡市对标学习先进经验，赴浙江诸暨市枫桥镇学习考察“枫桥经验”。市司法局党组成员、副局长潘守康、韩允谦、晁红波，党组成员刘香义、调研员张素华及9县区司法局长等17人参加考察学习活动。', '考察组首先实地参观了无锡市及宾湖区的公共法律服务中心、滨湖区青少年法治教育实践基地，听取了相关负责人工作情况介绍。在随后的座谈交流会上，无锡市司法局长杨智敏全面系统地介绍了无锡市法治政府和法治社会建设，以及公共法律服务建设情况，考察组人员与无锡市司法局参加座谈的同志进行了互动交流，气氛友好热烈，达到了观摩交流互相促进、学习借鉴共同提高的目的。', '经过实地考察和座谈交流，考察组一致认为:无锡市法治政府和法治社会建设以及公共法律法律服务工作走在了前列，先进经验和先进做法值得学习和借鉴，尤其公共法律服务信息化体系建设更是独树一帜，互联网+法律服务特色鲜明，其互联网+无人律师事务所、互联网+人民调解、互联网+法律援助、互联网+公证等智慧平台建设，既整合了法律服务资源，又解决了法律服务“零公里”问题，从而确保了法律服务更加快捷高效。无锡市注重法治工作创新，成立的医患纠纷调解中心“既治标又治本”、“标本兼治”，组建的新途后续照管服务社全面贯彻“以人为本”理念、成效明显。5年来，化解医患纠纷600多件，无一件上访和到法院起诉。大家一致表示：要认真对标对表，进一步消化吸收，把学到的先进经验与本部门本县区的工作实际相结合，并努力转化为工作实践。在下步工作中，科学筹划、高标准定位法治菏泽建设，以落实《菏泽市法治政府建设部门责任清单》和规范行政执法程序为抓手，努力提升法治建设工作水平。', '在浙江诸暨枫桥镇，浙江枫桥干部群众创造了"依靠群众就地化解矛盾"的"枫桥经验"，并根据形势变化不断赋予其新的内涵，成为全国政法综治战线的一面旗帜。为加强和提升我市人民调解工作，进一步推进社会治理创新发展，考察组实地参观了“枫桥经验”陈列馆，认真学习了“枫桥经验”不同时期的不同内涵，并现场听取了工作人员对新时代人民调解工作运行新模式的介绍。通过学习考察，考察组一致认为：“枫桥经验”是在实践中不断创新和发展的基层工作经验，是一整套做群众工作的良方益法，值得借鉴、推广和学习。下一步，一定要认真学习新时代“枫桥经验”的丰富内涵，不断打造“枫桥经验”菏泽版，全面提高我市人民调解工作水平，充分发挥人民调解“第一道防线”作用，加快“平安菏泽”建设，努力维护社会和谐稳定。', '考查活动虽然结束了，但大家对学习的思考远未停止。通过对标对表考察学习，全体人员在思想上受到了很大触动，很受启发、很受震撼，学习不仅拓宽了视野，增长了知识，也看到了差距，学到了很多好思路好方法，找到了努力的方向。大家一致表示，下步，一定要对标先进，进一步解放思想，改进作风、创新拼搏、担当作为、狠抓落实，抢抓“突破菏泽、鲁西崛起”战略机遇，全面推进依法治市，为实现“后来居上”奋斗目标提供坚强的法治保障，以扎实工作成效和一流工作业绩迎接新中国成立70周年。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>144</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>鄄城林业局赴莘县考察学习创森和林业工作先进经验</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2018-07-27</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a26ffcf0020/1585425735068155904.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['7月24日上午，鄄城林业局局长张建军带领考察团赴莘县考察学习“创森”和林业工作先进经验。', '考察团一行实地观摩了莘县古城镇、柿子园镇和朝城镇路域绿化、森林村居创建、林下经济产业、城区绿化等工程，听取了莘县林业局局长杨晓民创森工作经验介绍。', '考察团对莘县创森工作给予高度评价，充分肯定了莘县的创森先进理念，认为莘县在创森工作中规划科学，特色鲜明，措施强劲有力，创森气氛浓厚，取得的创森成效显著，探索出的许多工作经验值得学习。', '考察团一致认为，通过这次实地考察，学习了莘县先进创森工作经验，开阔了眼界、受到了启发、理清了思路，更加坚定了我县创建国家森林城市工作的决心和信心。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>144</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>国企动态城资会展公司赴泰山国际会展中心考察学习</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1767820101446406144.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['学先进、拓思路、稳根基、谋发展。为更好地深入学习先进场馆运营管理经验和多元化运营模式，3月8日，菏泽城投集团党委委员苗光军，城资公司党支部书记、执行董事黄玉玲等一行赴泰山国际会展中心考察学习。', '先进场馆运营管理经验和多元化运营模式，3月8日，菏泽城投集团党委委员苗光军，城资公司党支部书记、执行董事黄玉玲等一行赴泰山国际会展中心考察学习。', '考察组一行首先参观了泰山国际会展中心综合体、会展服务、餐饮住宿等配套项目，并对泰山国际会展中心项目定位、业态及发展规划进行详细了解。目前，馆内商业运营涉及体育馆、市民夜校、培训、文博展示等多种业态。', '在随后召开的座谈会上，双方就两地的地理区位优势、营商环境、会展政策、城市特点以及会展中心的运营现状、管理模式、业务构成、公司架构、自办展和合作办展等方面进行了深入探讨，为双方的发展提供了新的思路和发展方向。', '营商环境、会展政策、城市特点以及会展中心的运营现状、管理模式、业务构成、公司架构、自办展和合作办展等方面进行了深入探讨，为双方的发展提供了新的思路和发展方向。', '通过此次考察学习，大家纷纷表示，城资会展公司将积极借鉴泰山国际会展中心的先进经验，不断探索和创新多元化运营模式，推动服务水平的升级与改进，总结先进经验，对标先进、寻找差距，把考察学习成果转化为更加专业化的管理模式和更值得信赖的服务体系。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>144</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>高荣国带队赴徐州市公安局考察学习公安工作</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2019-04-12</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1c59aa0009/1583740894329176064.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['4月10日，副市长、市公安局党委书记、局长高荣国带队赴江苏省徐州市公安局考察学习公安工作。徐州市副市长、市公安局党委书记、局长王文生，市局党委副书记、常务副局长张丰程等陪同活动。', '高荣国一行先后深入到徐州市局政治部宣传处、效能中心、指挥中心、泉山分局湖滨派出所、警务技能训练基地等处，实地观摩了民意110、智慧警务建设、公安党建指挥管理系统、巡特警装备展示等工作，并与徐州市局进行深入座谈交流。', '通过近一天的实地考察、深入学习，考察团感觉徐州市局整体工作走在前列，单项工作亮点纷呈，发展后劲坚实有力，特别是在工作理念、“放管服”改革、信息化建设应用等方面的经验做法值得全面学习、深度学习。', '高荣国要求全市公安机关按照市委、市政府和省厅党委统一部署，紧紧围绕省厅信息化“三个一”建设、基层基础攻坚战任务和全市“决胜全面小康、实现后来居上”目标，结合本县区、本警种部门实际，对标先进找差距，瞄准问题求突破，做强长板、补齐短板，倾力打造菏泽公安工作升级版。', '王文生代表徐州市政府、市公安局党委对高荣国一行表示热烈的欢迎，详细介绍了近年来徐州市经济社会发展和公安工作情况。他强调，徐州与菏泽多年来一直是友好兄弟市，每年召开区域警务协作会议，有着深厚的友谊基础，希望今后建立更加紧密的协作关系，相互学习交流经验做法，为区域和谐稳定、公安工作提档升级作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>144</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>市公路局组织赴聊城市考察学习路长制考核工作</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2018-07-16</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/88892/1572063550476648448.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['7月10日，市公路局党委委员、机关党委书记蔡忠河带队赴聊城市中和社会服务评估中心考察学习。该中心为聊城市委、市政府确定的第三方评估机构，负责考核聊城市各县市区“路长制”工作开展情况。考察组听取了评估机构“路长制”工作考核情况介绍，并展开深入讨论，详细了解了考核工作的实施过程、考核关键环节和重点、难点问题，以及考核结果的应用情况。各县区公路局养护分管负责人或养护公司经理，以及市公路局办公室、养护科有关人员参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>144</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>菏泽市科技局应邀赴日照市科技局学习考察</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2018-05-17</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2999960028/1589813555165659136.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['5月15日上午，菏泽市科技局副局长张宇锋带队前往日照市科技局学习考察。日照市科技局党组书记杨洪福、副局长戴玉堂进行了对接并出席座谈。', '会上，杨洪福通过自身多年科技工作经验，结合习近平新时代中国特色社会主义思想，提出了只有创新驱动发展战略，才能带动新旧动能顺利转换，才能振兴经济，突破社会发展桎梏，主张了要干字当头、实字托底、好字优先，把科技创新作为新旧动能转换的一个切入点，坚持按照项目化和工程化的思路来推进工作，加强和完善科技创新体系建设这一核心思想。戴玉堂从六个方面介绍了日照市一年来的科技工作成果：一是规范了R&amp;D研发活动；二是规范了R&amp;D统计；三是针对R&amp;D研发投入掌握和实施情况开展了R&amp;D统计培训班；四是借鉴发达城市研发投入信息查询服务，邀请专家开发出了符合自身发展的科技统计调查监测平台，对规上企业填报数据进行监测检查，预防并剔除项目申报和考核中不达标企业；五是对R&amp;D研发投入做的优秀的企业进行政策补贴，鼓励优秀企业再接再励，激励后面的企业迎头赶超；六是把R&amp;D研发投入占比作为考核各县区的一项重要指标，存优去劣，优化提升全市R&amp;D研发投入环境，营造企业科技创新良好氛围。日照市科技局以他们自身优良的工作作风和踏实苦干的工作态度，现身说法，给菏泽市科技局到访人员留下了深刻的印象和感触。', '会上，杨洪福通过自身多年科技工作经验，结合习近平新时代中国特色社会主义思想，提出了只有创新驱动发展战略，才能带动新旧动能顺利转换，才能振兴经济，突破社会发展桎梏，主张了要干字当头、实字托底、好字优先，把科技创新作为新旧动能转换的一个切入点，坚持按照项目化和工程化的思路来推进工作，加强和完善科技创新体系建设这一核心思想。戴玉堂从六个方面介绍了日照市一年来的科技工作成果：一是规范了R&amp;D', '张宇锋对杨洪福书记等人能够在繁忙工作中抽出时间为菏泽市科技局分享日照市先进的工作经验和做法致以衷心的感谢，并表示菏泽市科技局回去后将认真调研学习，分析自身情况，查找不足之处，总结过往经验，为下一步科技工作开展做好铺垫。同时，热情邀请日照市科技局来菏帮助指导。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>144</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>菏泽市赴济宁市考察学习优化营商环境招标投标工作</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2021-07-09</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3031560035/1548125189626134528.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['为全面贯彻落实市委市政府关于优化营商环境的决策部署，进一步对标国评优秀城市济宁，7月9日，市发改委、市公共资源交易中心会同市财政局、市住城乡建局、市交通运输局、市水务局有关单位负责同志组成联合考察团，赴济宁市就“优化营商环境招标投标”进行考察学习，济宁市公共资源交易服务中心党组成员、副主任张福民与各行政监督管理部门工作人员陪同考察。', '考察团实地参观了济宁市公共资源交易服务大厅、开评标等区域，听取了张福民同志及行政监督管理部门相关工作人员在招标投标领域营商环境建设的相关经验做法介绍，详细了解了大厅概况、开评标流程等情况。在随后召开的专题座谈会上，双方围绕菏泽实际对标济宁建设标准，推进菏泽市招标投标营商环境考核工作及公共资源交易平台整合、电子交易平台体系建设及运行、行政监督部门监管、标准化服务、规范化流程等方面进行了深入讨论。', '其中，市住建局党组成员、副局长徐兴华表示依法必须招投标且应进未进的工程建设类项目，应全部进入菏泽市公共资源交易中心进行交易，同时市住建局作为监管部门，将通过菏泽市公共资源电子监管平台进行在线监管，下一步，加强信息沟通，并按照《关于进一步优化房屋建筑和市政基础设施工程施工许可办理环节营商环境的通知》（鲁建建管函〔2021〕4号）要求，菏泽市公共资源交易系统生成', '回菏后，市发改委、市公共资源交易中心联合市财政局、市住建局、市交通局、市水务局召开了赴济宁市考察学习优化营商环境招标投标工作总结会议。会上，同志们纷纷发表学习体会，意识到与济宁招标投标工作中的差距，并表示，今后将与市发改委、市交易中心通力合作，共同优化菏泽市招标投标营商环境。', '（已盖章）电子版中标通知书并开放相应数据端口与工程建设项目审批系统进行适配，及时共享交易信息。建设单位办理施工许可时，相关中标结果信息通过系统信息共享获取，实现“数据多跑腿，群众少跑腿”。', '市发改委党组成员 、副主任刘广杰强调，要继续发挥市发改委牵头作用，明确招标投标指标考核工作的目标。下一步，市发展改革委、市公共资源交易中心将牵头成立招标投标领域优化营商环境创新突破工作专班，定期召开营商环境专班会议，听取工作进展情况汇报，聚焦问题短板，加强沟通协调，聚力问题整改。各责任单位也要把招标投标考核作为“一把手”工程来抓，共同助力菏泽市招标投标领域营商环境建设。', '市水务局建设科科长朱春霞表示，会后将积极向领导汇报，推动水利项目进公共资源交易中心进行交易，依托菏泽市电子交易系统、电子监管系统进行交易和监管，整合数据资源，开展数据分析，探索开展水利项目招标投标大数据分析监管。', '最后，市公共资源交易中心党组书记、主任吕建勇同志对招标投标工作总结会议进行了总结部署，并与行政监督管理部门达成四个共识，一是坚持“应进必进”，推动各类公共资源交易进市公共资源交易中心交易；二是行政监督管理部门对接使用菏泽市公共资源电子监管平台；三是加强信息共享，依法推进市公共资源交易平台与工程建设项目审批管理系统、信用平台系统、财政预算支付系统等互联互通，进一步完善市公共资源电子交易平台体系建设；四是凝聚工作合力，强化责任落实，各责任单位配合招标投标营商环境牵头单位市发改委、市公共资源交易中心做好招标投标营商环境评价工作。营商环境的优化，离不开各部门的通力合作，我们将总结此次考察的主要经验和具体做法，查找分析存在的突出问题和共性问题，以评促改，有效破解招标投标工作中的“堵点、难点、痛点”，全面推动我市优化营商环境工作。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>144</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>济宁市交通公路部门来菏考察学习阳新高速前期工作</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2018-07-11</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1c9490000a/1589417736654553088.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['7月10日上午，济宁市交通运输局局长、济宁市公路局党委书记宋科带领济宁市交通运输局调研员张广池、副局长李效忠，济宁市公路局党委委员、总工程师陈永凛等一行8人，来菏考察学习濮阳至阳新高速公路前期工作及招商引资工作经验。在召开的座谈会上，市公路局局长姜守民主持，副局长董思学对项目前期、招商引资工作推进情况和经验进行了介绍，双方并就高速项目推进有关问题进行了充分沟通交流。', '上午，济宁市交通运输局局长、济宁市公路局党委书记宋科带领济宁市交通运输局调研员张广池、副局长李效忠，济宁市公路局党委委员、总工程师陈永凛等一行8', '、济宁市公路局党委书记宋科带领济宁市交通运输局调研员张广池、副局长李效忠，济宁市公路局党委委员、总工程师陈永凛等一行8', '济宁市公路局党委书记宋科带领济宁市交通运输局调研员张广池、副局长李效忠，济宁市公路局党委委员、总工程师陈永凛等一行8', '党委书记宋科带领济宁市交通运输局调研员张广池、副局长李效忠，济宁市公路局党委委员、总工程师陈永凛等一行8', '书记宋科带领济宁市交通运输局调研员张广池、副局长李效忠，济宁市公路局党委委员、总工程师陈永凛等一行8', '济宁市交通运输局调研员张广池、副局长李效忠，济宁市公路局党委委员、总工程师陈永凛等一行8', '市交通运输局调研员张广池、副局长李效忠，济宁市公路局党委委员、总工程师陈永凛等一行8', '交通运输局调研员张广池、副局长李效忠，济宁市公路局党委委员、总工程师陈永凛等一行8']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>144</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>市人社局赴临沂日照对标学习考察专家服务基地建设工作</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2019-06-04</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926259489341440.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['月29日至31日，市人社局组织市局有关科室、6个县区人社部门及其工业园区、企业负责人一行15人，赴临沂市开发区、日照市高新区及创新创业园区、企业对标学习考察专家服务基地、乡村振兴专家基地建设工作经验。临沂市人社局党组成员、副局长李明，日照市人才办副主任王磊等陪同参观考察并介绍了有关情况。', '考察组实地察看了两市专家服务基地发展现状、专家与企业对接的技术项目、专家工作载体及专家公寓等硬件设施，认真研究和询问了专家服务基地申报有关资料，听取了两地人社部门关于领导重视、强化沟通、注重选点、准备充分、加强专业队伍建设等方面的经验介绍。', '通过对标学习，考察组一行既看到了我市与先进市的差距，感受到了工作压力，也增强了做好这项工作动力和信心。大家一致表示，回去后要运用在临沂日照学习到的经验，对照省级专家服务基地的标准，抓紧开展工作，夯实基础，完善设施，创新思路，努力推进专家服务基地建设，有力推动我市经济社会事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>144</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>市公路局组织赴聊城市考察学习路长制考核工作</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2018-07-11</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1c9490000a/1589417736755216384.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['7月10日，市公路局党委委员、机关党委书记蔡忠河带队赴聊城市中和社会服务评估中心考察学习。该中心为聊城市委、市政府确定的第三方评估机构，负责考核聊城市各县市区“路长制”工作开展情况。考察组听取了评估机构“路长制”工作考核情况介绍，并展开深入讨论，详细了解了考核工作的实施过程、考核关键环节和重点、难点问题，以及考核结果的应用情况。各县区公路局养护分管负责人或养护公司经理，以及市局办公室、养护科有关人员参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>144</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>淄博市高青县卫计局到曹县考察学习智慧医疗工作</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2017-05-05</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d7dd7000e/1584460330572972032.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['5月4日，淄博市高青县卫计局党委书记、局长董振利，高青县工商联主席、智慧高青建设办公室主任赵新国一行6人，先后深入到曹县王集卫生院、青菏卫生院、人民医院，实地参观学习基本公共卫生管理、分级诊疗制度建设、医联体信息化建设等工作。县卫计局党组书记、局长刘存华，卫计局副局长胡平、县人民医院副院长李松等陪同。 座谈会上，县人民医院副院长李松、县卫计局公共卫生项目办主任程传军，以多媒体的形式，图文并茂地介绍了曹县在医联体信息化建设、分级诊疗制度建设、基本公共卫生管理等方面所做的有益探索和取得的成效。 通过实地参观学习，考察组认为，曹县卫生计生工作领导重视、措施得力、经验丰富、成效明显，为高青县卫生计生工作提供了有益借鉴。表示将认真学习借鉴曹县的先进经验和创新做法，进一步加强信息化建设、提高公共卫生服务管理水平。 高青县卫计局到曹县考察学习，既是一种认可、又是一种鼓励、更是一种鞭策。刘存华局长希望以此考察交流学习为契机，在今后的工作中，进一步密切交流、深化合作，强化联系、增进友谊，优势互补、合作共赢，共同推动两地卫生计生事业加快发展迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>144</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>市人社局到江西三市对标学习考察创业担保贷款工作</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2019-03-26</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926265562693632.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['为深入贯彻全省“担当作为、狠抓落实”工作动员大会和全省人力资源社会保障系统“创业服务质效提升行动”会议精神，落实市委、市政府对标先进工作部署，3月18日至22日，市人社局党组成员、市返乡创业管理服务中心主任王海林带队赴江西省南昌市、宜春市、上饶市就创业担保贷款工作进行了学习考察，启动了市人社局“盯住先进、努力赶超”对标学习活动。', '学习考察组实地考察了三市的人力资源市场、创业贷款绿色通道以及宜春学院大学生创业孵化基地、青年谷创业园等，对三市创业担保贷款工作的业务流程、系统建设、管理模式、服务方式、补偿机制、档案管理等有了系统了解，并针对我市创业担保贷款工作中遇到的问题进行了详细咨询和交流。', '王海林在座谈讨论时要求，菏泽市人社局要紧紧围绕省委书记刘家义同志指示和省委组织部副部长、省人社厅厅长梅建华同志在全省电视电话会上的要求，紧紧围绕市政府对标要求，以江西省宜春市为菏泽市创业担保贷款工作追赶的标杆，学经验要学深学透、学做法要学以致用，要立足菏泽实际，正视差距，找准问题，创新工作机制，解放思想观念，调整贷款重点、简化办理手续、提高服务水平，加大财政投入，不断加强资金监管，提高资金的使用效益，积极探索以创业贷款促创业，以创业带动就业的新路子，使这次学习考察的效果真正体现在今后的工作实绩中。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>144</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>济南市南山区新型职业农民来菏考察学习农村电商</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2019-04-19</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1ccab3000b/1589889510848593920.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['2019年4月18日，济南市南山区管委会生态保护局组织50余名新型职业农民，到我市曹县考察学习农村电商产业。市农广校校长刘照金、曹县农广校校长王瓒等同志陪同考察。', '考察团在大集电商产业园，镇电商办主任李哲介绍了全镇电子商务发展历程和发展现状，带领考察团到丁楼村现场考察了庆生表演服饰有限公司的表演服仓储货柜和交易平台，并在孙庄村亿隆布业辅料超市参观了超过千余种布料和辅料的商品货架。在曹县E裳小镇，李国良副经理向考察团介绍了E裳小镇的基本情况，带领考察团现场参观了百草庄园多肉植物和曹县草柳编、工艺品、家居家俱、农产品等特色产品展示区。每到一处，考察团成员与有关负责人积极进行交流，并咨询电商发展方面的有关问题。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>144</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>我市组织施工图审查机构赴滨州市考察学习和技术交流</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1a962f0005/1664173335937949696.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['2023年5月29-30日，市住房和城乡建设局勘察设计科组织菏泽市建筑工程施工图审查中心、菏泽市建研建筑工程施工图审查有限公司和菏泽城建建筑设计研究院等3家建筑工程施工图审查机构赴滨洲市住建局、滨州市图审中心学习考察“合加减缩扩”施工图审查新模式和进行结对互查技术交流。考察组先后观摩了滨州市图审中心文化展区、办事大厅、客服中心，观看了自主研发的数字化平台展示，针对“合加减缩扩”滨州图审模式进行了深入座谈交流。最后，我市图审中心和滨州市图审中心分别就双方已审查过的项目进行互查，并进行专业技术交流。市住建局勘察设计科科长、四级调研员侯艳华带队，滨州市住建局勘察设计科杜锦科长、滨州市图审中心刘立明主任参加了座谈会。', '“合加减缩扩”五大举措打造施工图审查新模式》被住房城乡建设部《建设工作简报》在全国范围内予以刊发推广，“数字化多审合一智慧审图”入选山东省大数据局“省级大数据创新应用典型场景”，省住建厅也多次在行业内推荐其工作做法。', '杜锦科长对考察组的到来表示欢迎，并指出，近年来，滨州市不断创新服务理念，积极探索施工图审查效能和服务质量提升，将施工图审查打造成为政府放心、企业满意的', '“滨州图审样板”。希望我们双方结对交流，取长补短，同学习，共进步，为全省勘察设计行业做出应有的贡献。', '刘立明主任从党建引领、文化建设、中心运营、市场布局等方面全方位介绍了发展情况和工作经验，双方深入探讨了企业经营理念、社会责任和发展前景。', '“适用、经济、绿色、美观”建筑方针，落实加强营商环境、民生改善创新部署的要求，推进信息化平台建设，拓展施工图审查服务深度和宽度，提高审查效率，发挥好施工图审查机构的政策性和技术性把关作用。经沟通，与滨州市作为长期结对交流对象，定期相互抽取已审查的项目进行问题交流，探讨技术标准。从而，逐步解决长期存在的条文理解各异、执行标准不一的问题。此次，我市抽取了滨州市2个图审项目，滨州市抽取了我市5个图审项目。座谈后结束后，双方各专业专家分组进行了技术交流。', '通过此次考察学习，考察组深刻感受到滨州市住建局及图审机构主动担当、积极作为的精神，对我市数字审图效能拓展提升、审图机构技术团队能力提升和企业文化形象建设起到了很好的启迪和激励作用。', '菏泽市建筑工程施工图审查中心、菏泽市建研建筑工程施工图审查有限公司和菏泽城建建筑设计研究院有关负责同志，部分图审专家参加了考察学习交流。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>144</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>菏泽牡丹机场建设投资有限公司一行赴郑州高校考察学习</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2018-12-12</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589801622744072192.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['12月10日，菏泽牡丹机场建设投资有限公司一行5人在副总马民的带领下，走进郑州航空工业管理学院考察学习。', '郑州航空工业管理学院打造了一处航空主题餐厅，考察人员带着问题走进现场，大家看到一架国产C919飞机模型，售饭窗口“变身”值机柜台，“国内航班候机区”导视牌，以及星空顶灯，餐厅的各个细节都给人一种登机的真实感，吸引了许多学生前来参观体验、就餐。在餐厅另一侧，大家还看到A380飞机模型餐厅，其设计令人叹为观止。大家在现场对此餐厅的建设规模、比例、材料做了详细的了解，并针对室内装修餐厅操作面积、餐厅就餐人数及规模等，向工作人员作了详细的询问。', '此次学习考察，使菏泽牡丹机场一行5人开阔了眼界，加深了对创新设计的理解。后续，考察学习结束后，考察人员会将此次学习的内容与旅游开发有限公司其他工作人员进行知识共享，为菏泽牡丹机场后续的发展打开一处新的产业领域。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>144</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>菏泽城投董事长张震带队赴郑州考察学习跨境电子商务项目</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2020-04-17</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589801373019406336.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['4月14日，菏泽城投集团董事长张震、菏泽海关副关长王诗强带队赴河南保税集团郑州新郑综合保税区考察学习，菏泽海关监管科科长付国强、菏泽城投集团副总苗光军、菏泽内陆港公司董事长张学亮、山东陆港跨境电子商务有限公司总经理许群一等相关人员参加。', '张震董事长一行先后考察参观了新郑综合保税区口岸作业区、跨境电子商务保税物流中心、跨境电商快递分拨区域和进口商品直营店。期间，与河南保税集团业务副总裁龚亮，河南保税集团业务产品总监史耀峰等有关负责人进行座谈。', '会上，双方就河南保税集团郑州新郑综保区规划布局、产业培育、项目导入以及综保区运营管理、招商引资等方面进行沟通交流。双方一致表示，将继续加强跨区域合作，与新郑综合保税区在产业培育、项目导入、人才引进、跨境电商园区建设等方面建立初步合作关系，共同推动菏泽保税物流中心、菏泽陆港跨境电商产业园发展。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>144</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>开封市委常委兰考县委书记陈维忠率党政企考察团来我市考察学习养老服务工作</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a277b870021/1691391287573487616.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['内容概述：开封市委常委、兰考县委书记陈维忠率党政企考察团来我市考察学习养老服务工作', '8月12日，开封市委常委、兰考县委书记陈维忠率党政企考察团来我市成武县考察学习养老服务体系建设、敬老院社会化改革、医养结合等工作。市委常委、副市长王昌华，市民政局局长刘勇，成武县委书记黄福常，县委副书记、县长范继臣等陪同活动。', '陈维忠一行先后深入到成武县晚霞红光医养院张楼分院、大曹庄农村新型幸福院、苟村集镇中心敬老院、成武县人民医院总医院医共体项目等地进行实地考察，每到一处都详细听取有关负责人汇报，实地了解我市养老服务设施建设、管理运营模式以及医养结合机构设置、人员配备、设备配置、运行管理、失能老年人的认知康复等工作开展情况。', '陈维忠一行对我市养老服务工作给予高度评价，表示此次考察学习受益匪浅，回去后将认真学习借鉴菏泽养老服务体系建设以及医养结合的典型经验做法，让老年人的获得感、幸福感和安全感更加充实、更有保障、更可持续。', '今年以来，我市以贯彻落实省民政厅“1261”总体思路为指引，抢抓突破菏泽、鲁西崛起战略对养老事业支持重大机遇，聚焦高质量养老服务，加快推进市县乡村养老服务体系建设，不断满足老年人多层次、多样化的健康养老服务需求，全市养老服务工作迈向新台阶，涌现出成武县全省县域养老服务体系创新示范县等典型县区和成武县苟村集镇中心敬老院等大批养老服务机构，呈现出向上向好的发展态势。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>144</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>菏泽市司法局组织人员外出考察学习司法行政基层工作</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1e311a0010/1583729751485317120.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['为进一步加强学习，开拓视野，提高我市司法行政基层系统的业务素质和工作能力，推动司法行政工作实现新突破。7月31日至8月2日，菏泽市司法局的党组成员、副局长晁红波带领所辖县（区）司法局分管局长、市基层法律服务工作者协会全体理事一行21人，赴临沂、枣庄、济宁三市进行了为期3天的人民调解、基层法律服务所及司法所规范化建设考察学习。在临沂考察学习期间赴孟良崮战役纪念馆开展党性教育。', '考察组一行先后到临沂市兰山区开阳法律服务所、兰山区社会综合服务中心、兰山司法所；枣庄市市中区至尊法律服务所、市中区永安司法所、市中区西王司法所；济宁市嘉祥县仲山司法所、护航法律服务所、公共法律服务大厅、社区矫正管理中心等地进行了实地考察学习，并就人民调解及司法所规范化建设中存在的困难、解决途径、保障机制等问题与有关同志进行了交流座谈。', '考察组每到一处，精心记录、并留下了详实的音频视频资料。其中，临沂市兰山区开阳法律服务所利用市中小企业协会社会组织开展拓展法律服务模式的形式值得我市学习借鉴；枣庄市市中区全面整合各类资源，最大限度调动综治、法院、劳动等部门参与各类矛盾纠纷化解，大力推动调解队伍职业化、专业化发展，真正构建起行政调解、司法调解、人民调解“三位一体”、上下联动的大调解格局，为我市多元矛盾纠纷调解机制建设提供了有益的经验；济宁市嘉祥县多措并举推动司法行政基层基础工作全面发展，成效显著，为我市推动司法行政基层基础全面发展提供了遵循。', '此次考察学习时间虽短，但考察组一行找到了差距、开阔了视野，考察组成员纷纷表示：要把学到的经验带回去，认真总结，主动寻找差距、弥补短板，主动适应新时代司法行政工作发展新要求，推动我市司法行政基层基础工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>144</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>市供销社赴莒南县考察学习土地股份合作制经验</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2018-06-04</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/88892/1572063555149103104.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['近日，菏泽市供销社组织各县区供销社业务主任、业务科长和部分基层供销社、专业合作社、为农服务公司负责人50余人，赴莒南县供销社考察土地股份合作制的经验做法。 考察团先后考察了莒南县代彬土地股份专业合作社、板泉为农服务中心，并听取了莒南县供销社推进土地股份合作社发展的基本情况介绍和经验做法。莒南县供销社的可复制经验，为菏泽市供销社领办创办土地股份专业合作社提供了明确思路。下步，菏泽市供销社将进一步解放思想，积极作为，做好土地股份合作社试点工作，大力推动全市为农服务中心服务功能的提升、土地托管工作的开展，有效增加农民收入、壮大村集体经济，为服务乡村振兴作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>144</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>市审计局赴潍坊和泰安考察学习投资审计工作经验</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2017-07-14</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2185a50017/1584706448921722880.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['7月13日至14日，市局毛宝军副局长、投资审计中心主任王清刚等一行4人，赴潍坊和泰安市审计局开展投资审计业务考察学习。', '潍坊市审计局总审计师郑栋强、投资审计中心主任王洪武，泰安市审计局调研员王燕华、投资审计专业局局长李兴昌及相关业务处室负责同志对政府投资审计项目管理、中介机构聘用考核、内部业务操作流程的质量控制管理、出台的制度办法等情况做了详细介绍。', '就政府投资项目价款结算审计、竣工决算审计、重大建设项目跟踪审计过程中的质量控制、风险点防控及政府投资审计相关制度建设等内容展开了深入讨论和交流。', '此次考察学习受益匪浅。潍坊和泰安市审计局在投资审计工作中制订了一系列制度和办法，有很多好的经验和做法值得学习和借鉴。我', '将以此次考察学习为契机，结合工作实际，补充、完善投资审计工作的各项规章制度，不断提高审计项目质量和审计管理工作水平，充分发挥审计监督职能作用，争取政府投资审计工作再上新的台阶。（刘海洋）']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>144</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>市人社局到徐州市学习考察创业及创业孵化基地建设工作</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2019-03-27</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926264438620160.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['月26日，市人社局党组成员、市返乡创业管理服务中心主任王海林和市返乡创业管理服务中心、市就业办相关工作人员到徐州市学习考察创业及创业孵化基地建设工作。', '徐州市人社局副局长苗斌，徐州市创业工作指导中心党委书记韦双成，徐州市创业工作指导中心主任殷飞分别介绍了徐州市创业工作情况及徐州市创业孵化基地运营管理经验做法。学习小组现场参观了徐州市大学生创业园和徐州中关村创新中心，并就创业、孵化基地建设的具体问题进行了交流探讨。', '下一步，市人社局将借鉴徐州市先进做法，把学到的经验同我市实际相结合，对标先进，找准问题，进一步解放思想，加快推进我市创业工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>144</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>聊城市东昌府区民政局到鄄城县考察学习殡葬综合改革工作</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2019-04-30</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a277b870021/1583668128435404800.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['4月29日上午，聊城市东昌府区民政局局长张风义一行8人，到鄄城县考察学习殡葬综合改革工作。鄄城县民政局局长李宪诗、局党组成员李强和社会事务股股长周永贵陪同考察。', '鄄城县民政局局长李宪诗介绍了鄄城县殡葬综合改革工作情况。李局长指出，11个月来深入扎实的殡葬综合改革实践，不仅扭转了鄄城县殡改工作的落后局面，也得到了一些启示：一是党委政府重视是根本。实践证明，只要领导重视，真抓实干，没有打破不了的僵局，没有解决不了的难题。二是宣传舆论是先导。推进殡葬改革，必须先破群众思想之冰。正是通过多种渠道、多种形式宣传引导，才使干部群众转变了思想观念，提高了对推行火化、生态安葬的认同感。三是党员干部带头是关键。在火化问题上，党员干部能否带头，做到一视同仁，是问题的关键。他们作出了榜样、带出了好头，群众也就不再观望，家里老人去世后，主动联系干部，要求火化。四是惠民服务是核心。鄄城县推行的6项免费殡葬惠民政策（免除遗体接运、存放、火化、骨灰寄存及骨灰盒、公益性公墓安葬），不仅减轻了群众负担，也赢得了群众支持。五是统筹兼顾是保障。殡葬改革是一项涉及社会治理变革的系统工程，必须统筹兼顾，综合施策，标本兼治。既要抓好火化，又要做好公墓建设、殡葬服务和移风易俗等工作。只有这样，才能真正把好事办好，助推乡村文明建设。', '两个县（区）民政局针对火化率提升、公益性公墓建设、散埋乱葬治理、棺木市场取缔、制止大操大办、殡改政策宣传等方面做法进行了经验交流，实地考察了什集镇联村公墓、大埝镇驻地公墓、大埝镇张楼村公墓。张风义局长在考察过程中对鄄城县殡葬综合改革的做法给予了充分肯定，并表示收获良多。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>144</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>级现代青年农场主考察学习交流活动圆满结束</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2018-06-01</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1ccab3000b/1589889479320010752.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['为加快现代青年农场主自营主体发展，搭建学习、交流平台，更好地发挥家庭农场在现代农业建设中的示范带动作用，菏泽市农广校于2018年5月30—31日，组织开展了由曹县、定陶区、鄄城县2015、2016级近40名现代青年农场主学员参加的', '郓城县阳光花卉有限公司，听取了苏九征、刘得众、何琴等三位负责人的情况介绍，现场察看了西甜瓜、良种繁育、花卉和油用牡丹生产基地。在菏泽月明珠大酒店进行了座谈交流，', '学员们踊跃发言，交流了自营主体的基本情况和经验、做法，分别展望了自营主体的发展前景。', '市农广校校长刘照金在学员座谈交流发言后，对本次考察学习交流活动进行了总结，并向全体现代青年农场主提出四点希望：一是坚定信心，增强发展现代农业的责任感和使命感；二是更新观念，准确把握自营主体的发展定位；三是积极稳妥，确保自营主体健康发展；四是形成合力，努力实现自营主体共同发展。通过考察学习和座谈交流，学员们开阔了视野，拓宽了思路，学到了经验，增强了发展信心。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>144</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>考察交流共进步相互学习提质效东平县司法局到巨野县司法局交流学习</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1e311a0010/1746851444386091008.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['近日，东平县司法局党组书记、局长李振兴一行6人到巨野县交流学习司法行政工作，巨野县司法局党组成员鹿心蕴及班子成员、相关业务负责同志陪同考察。', '巨野县司法局首先对东平县司法局一行的到来表示热烈欢迎，先后实地参观了巨野县青少年法治教育基地、宪法主题公园、民法典主题公园、理法园法治文化公园，详细了解了法治阵地建设构思、功能定位、日常运行等情况，一致认为巨野县法治文化阵地建设标准高、形式新、内容涵盖面广，贴近实际需求，起到了良好的示范引领作用，其成效值得借鉴和学习。', '东平县司法局党组书记、局长李振兴表示，巨野县在司法行政工作中质效显著，此次一行达到了取长补短、开拓思路的目的，并希望双方能够进一步加大交流学习力度，促进两地司法行政工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>144</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>解放思想见贤思齐菏泽市民政局赴德州考察学习乡村著名行动</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a277b870021/1719172438144716800.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['为全面落实市委主要领导指示精神，进一步改善我市营商环境、赋能城乡产业发展，助力乡村振兴，10月27日，菏泽市民政局组织各县区民政局局长、鲁西新区社会发展局局长等15人的考察学习团，由二级调研员杨爱民同志带队，赴德州市参观学习“深化乡村地名服务、助力城乡企业发展”的好经验、好做法。德州市民政局党组成员、副局长陈朝银、平原县相关领导、民政局负责同志陪同。', '考察组详细了解了德州市全面推进城乡无名道路命名、设标工作路径、难点以及资金筹措渠道，认真学习该项工作的做法。通过深入细致的考察学习，大家纷纷表示深受启发，本次学习既找到了差距，也学到了经验，下步工作中，市民政局将认真借鉴德州市的成功经验，找准“乡村著名行动”工作的切入点和发力点，精准把握工作重点，全面推动我市地名命名和设标工作，并积极探索新的地名管理服务模式，在深化乡村地名服务下足功夫，努力为优化我市营商环境、助力乡村振兴贡献民政力量。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>144</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>我市赴河南林州淄博桓台枣庄济宁开展建筑业高质量发展考察学习</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1a962f0005/1655746090605121536.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['为加快推进我市建筑业转型升级和高质量发展，5月5日至7日，菏泽市住建局会同市财政局、市税务局等部门以及市建筑业协会、部分骨干建筑企业等赴河南林州、淄博桓台、枣庄、济宁等地考察学习。', '期间，重点对如何打造建筑业优质品牌、鼓励企业做大做强、外出施工、“评定分离”、信用评价体系建设、建筑工人实名制管理等工作进行了深入学习交流。', '通过考察学习，加强了与周边地市的交流，开拓了眼界、拓宽了思路，也学习了好的经验做法，为下步我市建筑业实现高质量发展奠定了坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>144</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>中国地震台网中心深入开展两学一做学习教育到菏泽参观考察</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2017-09-07</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3dc2600062/1589416419949281280.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['为深入开展“两学一做”学习教育，9月7日下午，中国地震台网中心党办副主任赵烽帆带领45名党员和入党积极分子到菏泽参观考察。在座谈会上，王志玉局长向赵烽帆一行简要介绍了近年来菏泽经济社会发展现状和菏泽防震减灾工作情况。随后观看了《菏泽大地震1937》专题片，参观了菏泽市科普教育基地和台网中心。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>144</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>东明县司法局到巨野县考察学习法治文化建设工作</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1e311a0010/1583730069174484992.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['6月29日，东明县司法局党组成员、副局长黄铁军带领普法与依法治理、法治调研督察等相关科室负责人，到巨野县考察学习法治文化建设工作，学习借鉴法治文化建设先进经验和典型做法。', '考察组先后来到巨野县宪法主题公园、民法典主题公园、青少年法治教育基地，参观了法治主题雕塑、法治文化景观石、法治宣传标识等设置情况，了解了法治文化基地的设计理念、内容构成、日常维护等情况，听取了巨野县司法局关于加强法治文化阵地建设的情况介绍，双方围绕创新法治文化理念、强化普法宣传教育、提升公民法律素养等内容进行了深入交流。', '考察组认为巨野县法治文化建设内容丰富、形式多样、趣味性强，实现了艺术性与法治元素的有机融合，贴近生活实际，满足了群众的法治文化需求，普法成效明显，值得学习和借鉴。通过学习，拓宽了法治宣传教育工作的视野和思路，增强了做好法治文化阵地建设的信心和决心。', '考察组表示，要结合此次考察学习内容，按照站位高、工作实、形式新、效果好的要求，努力建设具有时代特点和地方特色的高品质法治文化阵地，全力打造法治文化品牌，推动法治文化建设高质量发展，让群众休闲、娱乐、健身的同时，在潜移默化中接受法治文化熏陶，不断增强人民群众对法治的真诚信仰。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>144</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>威海市财政局来我市考察学习政府和社会资本合作工作</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2017-07-26</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2ab278002d/1584380904552267776.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['7月25日，威海市财政局一行6人来我市考察学习政府和社会资本合作工作，并于7月26日在财局一楼召开了座谈会，楚局长介绍了我市市情及PPP工作的推进情况，庄爱敏科长就PPP工作中的一些具体做法做了经验介绍，投融资中心李超主任、王亚明主任、局金融科、预算科及PPP项目管理科全体人员参加了座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>144</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>市农业局组织新型职业农民及农业发展带头人赴台考察学习</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2017-11-22</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1ccab3000b/1589878877277126656.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['11月15日-21日，按照省农业厅要求，市农业局副局长唐家军带领全市各县区优秀种养大户、家庭农场经营者、农民合作社负责人等新型职业农民和农业发展带头人对台湾现代农业发展进行考察学习。', '考察期间，台湾中华农业经贸交流协会杨蕙瑛理事长热情接待了考察代表团一行，详尽介绍了台湾现代农业发展情况。考察团先后考察了台北市瑠公农业产销基金会、佳美食品工业股份有限公司、埔里台一生态农场、阿里山茶业协会、走马濑农场等各具特色的农业组织，参观了蔬菜、水果、花卉、茶叶等多处生产基地和生态农场以及集生产经营、旅游观光于一体的台湾休闲农业。', '通过实地考察，学习和了解了台湾农业发展的先进模式发展经验，为我市现代农业发展提供了有益的借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>144</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>单县赴郓城县考察学习农产品质量安全县创建工作</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2018-06-08</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1ccab3000b/1589879160220680192.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['为推进单县省级农产品质量安全县创建工作，6月6日，单县农业局局长张怀亮一行10人，赴郓城县考察学习农产品质量安全县创建先进经验、种植业单位业态管理工作。郓城县农业局局长孙万文、副局长常圣奇、农业综合执法大队大队长周建军陪同活动。', '考察组实地观摩了郓城县绿禾蔬菜种苗繁育产业园区、郓城县农产品检测中心和郭屯农资超市等，对农业标准化生产、农业投入品监管和农产品质量安全追溯管理进行了详细了解和深入交流，认真学习了相关操作规范、制度建设、监管追溯体系建设、农资管理模式、畜禽养殖等监管工作中的先进经验和做法。座谈会上周建军从追溯体系建设、农产品生产经营主体管理、农业投入品监管、农产品质量安全检测、农产品质量安全监管执法、宣传等方面作了毫无保留的经验交流。', '考察组通过学习，受益匪浅，将汲取郓城县在创建工作中的先进经验和做法，取长补短，不断改进完善，推进单县省级农产品质量安全县创建工作取得更好的成效。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>144</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>菏泽市科技局赴淮北市学习考察科技创新公共服务平台建设</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2016-11-04</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2999960028/1589813580193071104.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['11月2日，菏泽市科技局党组书记彭德启，菏泽高新区党工委委员、副主任陶福占，菏泽市科技局党组成员、副局长张宇锋及有关人员组成考察组赴安徽省淮北市学习考察科技创新公共服务平台建设情况，淮北市科技局党组书记、局长王淮海，党组成员、副局长马广梅陪同有关活动，双方就科技工作的主要思路及做法进行了深入交流。', '考察组现场调研了淮北市恒源泰科技孵化器，学习了北京恒源泰控股集团在全国各地市建设科技孵化器、发展科技孵化器产业的成功经验，并与北京恒源泰控股集团常务副总裁王剑、副总裁胡鹏、总裁助理孙大林等负责人洽谈了在菏泽投资建设科技孵化器事宜，达成了合作意向。（供稿：社会发展科技科）']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>144</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>日照市国资委到菏泽市考察学习阳光采购财务监管工作</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2021-09-04</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589800981057503232.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['9月2日，日照市国资委党委委员、副主任杨冰一行7人，来我市考察学习阳光采购、财务监管等方面工作。市国资委党委委员、副主任郭抒青介绍了我市上半年国资监管情况，重点开展阳光采购、财务预决算、防范债务风险等方面工作情况，双方就国资监管制度建设、阳光采购监督、投诉处理等有关问题进行了探讨。考察组一行实地参观了菏泽市公共资源（国有产权）交易中心的交易大厅、开标室、评标室、监控室等交易场所，听取了企业负责人的情况介绍，并就平台建设、制度建设等相关业务问题进行了解答和深度交流。市公共资源（国有产权）交易中心秉承“阳光、透明、正规、高效”的工作原则，以促进市属企业降本增效为目标，努力打造省内一流的交易平台。平台的建设不仅节约了国有资金，更规范了市属企业内部管理，预防腐败滋生。', '杨冰副主任对我市阳光采购、财务监管等工作给予高度评价，菏泽阳光采购工作有“两个没想到”，从抓服务入手，抓规范管理，抓业务拓展，抓管理创新、机制创新，不断深耕主业，创造了阳光采购的“菏泽经验”。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>144</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>市交通运输局到济南泰安考察学习保障农民工工资支付工作</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2021-09-07</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a18cedc0000/1589421997513768960.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['9月1日，菏泽市交通运输局许和文政委和专职工作人员曹安跟随菏泽市治理拖欠农民工工资领导小组办公室一行10人，到济南市和泰安市考察保障农民工工资支付工作，并围绕示范工程项目建设、制度落实、工长制等方面与有关人员进行座谈交流。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>144</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>市救助管理站赴滨州青岛两市学习考察标准化建设工作</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2019-07-26</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a277b870021/1583668119732224000.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['为做好《救助管理机构基本规范》地方标准的制定工作，推进我市救助管理机构标准化建设工作进程，根据救助管理工作标准化建设计划安排，7月23日至25日，在市民政局副局长马超同志的带领下，省标准化研究院工程师岳睿、市救助管理站站长王会钧等一行先后到滨州市救助管理站、青岛市救助服务中心学习考察救助管理机构标准化建设工作。', '学习考察组一行分别参观了两市救助管理机构救助大厅、受助人员居住区、观察区、档案室等，认真翻阅了救助档案和未成年人社会保护标准化试点工作手册等相关资料汇编，同两市相关负责同志进行了座谈交流，就救助管理工作中存在的问题、难点和新形势下救助管理工作的需求进行了深入探讨交流。', '下一步，市救助管理站和省标准化研究院将根据此行学习考察收集到的救助机构建设的经验和做法，积累地方标准编写素材，完成标准的起草工作，并邀请我省救助管理行业相关专家进行研讨，对标准草案进行修改完善，形成标准征求意见稿，年底完成标准的评审、报批工作。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>144</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>蔡文厚局长一行人到咸阳市考察学习木本油料产业</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2016-06-02</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a26ffcf0020/1585424907909464064.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['日，市林业局长蔡文厚带领副局长李庆展、果树站及定陶区鄄城县林业局有关人员一行9人，到陕西省咸阳市和宝鸡市考察学习文冠果等木本油料产业发展和苹果现代矮砧集约栽培模式的成功经验。重点考察学习文冠果良种选育、丰产栽培、精深加工及林业部门在文冠果开发方面的措施和成效。', '据了解，咸阳市非常重视以文冠果等木本油料产业发展，去年，咸阳市人民政府办公室《关于加快木本油料产业发展的实施意见》（咸政办发〔2015〕', '号），科学制定了木本油料“十三五”发展规划，力争到2020年，全市建成木本油料重点基地县5个，建设标准化、集约化、规模化、产业化示范园区10个；新发展木本油料基地', '万亩，其中核桃35万亩、油用牡丹10万亩、文冠果10万亩，改造低产林（园）40万亩；木本油料种植面积达到100万亩，年产木本食用油 3万吨以上，综合产值超过60亿元；培育一批带动面广、竞争力强、产业关联度大、技术水平高的木本油料产业龙头企业，将咸阳市建设成为陕西省重要的木本油料产业基地。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>144</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>张伦李春英率党政代表团赴长三角学习考察</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad76d74500f8/1762966756902715392.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['为贯彻落实全省、全市高水平开放暨高质量招商引资大会精神，2月26日至28日，市委书记张伦，市委副书记、市长李春英率菏泽市党政代表团赴江苏省无锡市、苏州市、常州市、泰州市考察，学习先进经验，砥砺奋进力量，确保2024年开好头起好步，推动菏泽高质量发展航船乘风破浪、行稳致远。无锡市委书记杜小刚，市委副书记、市长赵建军，市委副书记、秘书长陆志坚；苏州市政协主席朱民；常州市委书记陈金虎；泰州市委副书记、市长万闻华与代表团会谈交流、陪同考察。', '无锡历史悠久、经济发达，是长三角中心城市之一。代表团先后来到华虹半导体（无锡）有限公司、无锡先导智能装备、南山车联网小镇、鹰普（中国）有限公司，实地了解无锡市在发展工业经济、招商引资等方面的经验做法。杜小刚主持召开交流会，对代表团的到来表示热烈欢迎，期待菏泽把无锡作为对接江苏、辐射长三角的重要支点，推动菏泽“231”特色产业体系与无锡“465”现代产业集群深度合作、共建共荣。张伦代表菏泽市委、市政府，对无锡市的热情接待表示感谢，期待两地聚焦新一代信息技术、高端装备制造、新能源新材料等重点产业，进一步拓展合作领域、深化合作关系、提升合作层次，凝聚推动高质量发展的强大合力。', '苏州是我国对外开放的前沿阵地，奏响了以新发展理念引领改革创新的时代强音。代表团先后走进苏州市规划展示馆、太仓中德合作展示馆、舍弗勒（中国）有限公司、和路雪（中国）有限公司太仓公司，与企业负责人及有关负责同志深入交流，认真学习苏州在推进科技创新、优化营商环境、促进区域协调发展等方面的先进做法。', '从“工业重镇”到“智造名城”，常州着力构建智能制造体系，新能源汽车、新材料、光伏等产业发展势头强劲。代表团先后来到“两湖”创新区规划展示馆、理想汽车常州基地、江苏恒立液压股份有限公司、万帮数字能源股份有限公司，仔细听取企业生产经营情况介绍，详细了解当地拓展新空间、培育新动能的好经验好做法。', '近年来，泰州聚焦特色产业链、紧盯重点项目，加快打造具有全球影响力的医药健康产业高地和全国重要的医药健康创新策源地。在泰州大健康产业展示馆、北大医学部（泰州）医药健康产业创新中心、中海油气（泰州）石化有限公司、扬子江药业集团、长城汽车泰州分公司，代表团深入了解泰州发展新成就，对泰州市围绕生物医药、高端装备等重点产业，抓大项目、大招商、大服务，有力推动产业转型升级、企业做大做强的魄力和举措表示钦佩。', '学习考察期间，代表团成员边听边看、边学边议，一致认为这次学习考察，安排紧凑、内容丰富，触动很深、收获很多。通过实地考察，切身感受到了四市改革开放、创新发展的生动实践，学到了抓招商、育产业、优环境、扩开放的鲜活经验，是一次解放思想之行、学习取经之行、交流合作之行、共促发展之行。纷纷表示，下步工作中将进一步更新思想观念，拓宽发展视野，深化改革创新，勇于开拓进取，提升能力作风，狠抓工作落实，切实把学习考察成果转化为干事创业的实际举措，奋力开创菏泽各项事业发展新局面。', '无锡市、苏州市、常州市、泰州市有关市领导；我市市领导臧伟、王昌华、张鹏、姜凌刚、朱中华、耿振华，市有关部门主要负责同志，各县区党委书记参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>144</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>鄄城县审计局赴淄博市周村区审计局学习考察党建工作</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2019-09-06</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2185a50017/1584707189124104192.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['为全面提升党建工作水平，开阔工作思路，提升党员审计干部职业素质，近日，鄄城县审计局局长李保东一行20人赴淄博市周村区审计局考察学习党建工作先进经验。周村区审计局党组书记、局长杨延明、分管局长及有关科室负责人参加了座谈交流。', '周村区审计局有关负责同志首先介绍了党建工作的情况，随后，观看了周村区党建工作专题片，周村区审计局党组书记、局长杨延明同志做了“党建统领，‘五线’支撑，全力打造‘四型’高素质干部队伍”的工作经验介绍。座谈会上，两县区审计局就党建、审计计划制定、管控审计进度、实现日常考核、提升工作绩效、促进审计整改等方面进行了专题交流，并对我局一行提出的问题进行了详细的解答。鄄城县审计局局长李保东对周村区审计局毫无保留传授工作经验表示诚挚的感谢。', '考察结束后，考察组人员纷纷表示此次考察学习受益匪浅，切实学到了先进市区高质量，高水平的做法，体会到了自身的不足和差距，开阔了视野，启迪了思路，各方面工作值得我局学习。李保东局长要求考察人员认真吸取学习考察成果，取长补短，进一步促进我局审计工作和业务管理水平向更高层次迈进和发展。（马辉、王进军、王丽丽）']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>144</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>拓视野促提升菏泽市文化和旅游局组织考察学习应急广播体系建设</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2022-09-16</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a25e5c4001d/1585102879948013568.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['为学习借鉴先进经验，进一步推进我市应急广播体系建设，9月14日，菏泽市委常委、宣传部长周生宏带队赴济南市参观学习应急广播体系建设。市委宣传部、市文化和旅游局、市财政局，牡丹区、定陶区宣传部及融媒体中心相关人员随同考察。', '9月14日上午，考察组首先来到山东省广播电视局，参观了智慧广电和安全播出指挥调度大厅、应急广播指挥调度中心、监测中心，现场观摩了应急广播调度平台操作流程。随后，考察组到应急广播中心机房，对机房硬件设备、机房管理维护、应急保障等方面进行详细了解。下午，考察组考察了济南市应急广播指挥中心，详细了解城市应急广播十大创新应用场景，并与专家学者进行了座谈研讨。现场考察结束后，省广播电视局党组成员、副局长谢宁就考察组关心的相关问题做了一一沟通交流。', '参观学习结束后，考察组人员表示，山东省和济南市应急广播体系建设方案设计科学、理念新颖、成效显著，为菏泽市进一步推进应急广播体系建设拓展了思路、指明了方向。菏泽市将对标先进，不断推进我市应急广播体系建设提质增效。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>144</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>菏泽市生态环境局赴临沂市考察学习水环境治理工作</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2925400026/1584374645585346560.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['8月28日，菏泽市生态环境局党组书记、局长权洪涛带领市局有关领导及11个县区分局主要负责同志，赴临沂市考察学习水环境治理工作经验，积极寻求先进治污理念和治污技术，力求弥补当前我市水污染防治工作短板，保障全市水环境质量持续稳定达标。', '权洪涛一行现场考察了兰山区义堂镇玉兰沟、半程镇沙汀社区等乡镇新农村净水系统现场运行效果，并实地参观了金锣水务智慧工厂环保设备制造现场以及花园小区设备中试基地，认真学习了“兰山治水模式”小流域治理先进经验，并与临沂市生态环境局、兰山区政府负责同志进行深入地座谈和交流。', '权洪涛表示，要将先进治污技术和理念带回菏泽，充分借鉴临沂治水经验，为菏泽治水提供新思路、新办法、新举措；要结合本地实际，开展试点并择优推广，为水环境治理工作奠定坚实基础，推动全市水环境质量不断改善。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>144</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>市纪委召开常委会学习习近平总书记在宁夏考察时的重要指示精神</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2020-08-06</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad6a22e000f1/1614810341521227776.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['6月19日，市纪委常委会召开会议，传达学习习近平总书记在宁夏考察时的重要指示精神，结合工作研究贯彻落实意见。市委常委、市纪委书记、市监委主任李茂楠主持会议并讲话。', '会议指出，要深入领会习近平总书记在宁夏考察时就统筹推进常态化疫情防控和经济社会发展、巩固脱贫攻坚成果、加强生态环境保护、推动民族团结进步工作的重要指示精神，找准工作结合点，发挥纪检监察职能作用，抓好贯彻落实。', '会议强调，要关注疫情形势，开展好疫情防控常态化条件下的各项工作，在工作、出差、生活中注意个人防护的同时，推动防控责任落实、守好安全防线。要坚决贯彻以人民为中心的发展思想，围绕“六稳”、“六保”、改善民生等做好监督，要聚焦省委脱贫攻坚巡视“回头看”转办线索做好登记流转，明确责任单位和办理时限，为打赢脱贫攻坚战保驾护航。', '会议学习了全省纪检监察系统调查研究工作培训班、监督检查业务研修班精神，听取了关于机关网络和信息化建设的情况汇报。指出纪检监察的大量工作本质上就是调查研究，要结合工作、深入基层，查实情、出实招、办实事，深入思考实践中遇到的问题，不断深化规律性认识。要强化监督首责，坚持原则、问题、过程、结果导向统一，精准把握“监督的再监督”定位，统筹力量形成合力，完善有力有序有效的运行机制，推动纪检监察工作高质量开展。要始终绷紧网络安全和保密工作这根弦，按照省纪委时间节点要求，不等不靠，高质高效完成网络和信息化建设任务，更好服务纪检监察工作。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>144</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>郓城县委副书记县长张晖带队赴兄弟县区考察学习重点项目建设情况</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad785b7400fa/1574296928722616320.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['近日，郓城县委副书记、县长张晖带队赴菏泽市经济开发区、菏泽市现代医药港、定陶区、成武县、鄄城县14个项目现场，考察学习全市重点项目建设情况。郓城县领导李殿彬、张栋、段文龙、郑发奎等参加活动。', '考察团成员边看边议，详细了解了项目建设情况，并就招商引资、项目建设等具体工作方法与兄弟县区相关负责人进行了交流探讨。', '考察团成员纷纷表示，兄弟县区项目体量大、科技含量高、建设投产快、产品附加值高，令大家倍感鼓舞、倍受启发、倍增动力。', '张晖要求，各相关部门要以这次考察为契机，借鉴学习兄弟县区的先进经验，对标对表、查找不足、正视短板，坚持既定思路和方向，以更大力度抓招商落实、抓项目建设。相关部门结合学习感受做了表态发言。各乡镇（街区）负责人及有关部门单位负责人参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>144</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>市科技局赴济宁徐州等地市考察学习对标城市创新工作经验</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2019-06-28</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2999960028/1589813480377024512.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['为深入贯彻落实全省“担当作为、狠抓落实”工作动员大会精神，按照省委办公厅、省政府办公厅《关于做好“对标先进工作”的通知》要求和市委市政府总体工作部署，紧紧围绕“后来居上”目标，抢抓“突破菏泽、鲁西崛起”战略机遇，对标学赶、争创一流，6月24日-6月28日，市科技局在局党组书记、副局长司品供带领下赴济宁、徐州、镇江、临沂4市考察学习先进创新工作经验。', '考察组一行实地考察了济宁产业技术研究院、徐州淮海经济区技术产权交易中心、镇江江苏金斯瑞生物科技有限公司、临沂山东罗欣药业集团股份有限公司等科技型企业，并召开座谈会深入交流学习先进的创新工作方法、经验、制度、协同创新体系建设以及研发投入占比、高新技术企业培育、创新平台建设和党的建设等，为我市科技创新工作补齐短板明确了努力方向，为实现突破菏泽、鲁西崛起打下了坚实基础。', '考察地市科技局有关领导，市科技局副局长张宇锋、相关科室负责人以及相关县区科技局局长陪同活动。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>144</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>菏泽市党政代表团赴长三角学习考察座谈会召开</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2024-03-02</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad76d74500f8/1763717584613724160.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['在圆满结束赴江苏省无锡市、苏州市、常州市、泰州市的学习考察后，3月1日，市委书记张伦主持召开菏泽市党政代表团学习考察座谈会，学先进、找不足、明思路，推动菏泽高质量发展迈出新步伐。市领导周生宏、王昌华、张鹏、姜凌刚、朱中华及代表团成员参加会议。', '参会市领导和代表团成员作了交流发言，谈体会认识，找差距不足，说下步打算。大家一致表示，通过学习考察，为长三角的奋进态势、发展成效和拼搏干劲感到“坐不住”“等不起”“慢不得”，从四市大手笔推进科技创新、产业转型、改革开放、营商环境优化等实践中深受启发，将潜心学习借鉴这些好经验好做法，不断扬优势、补短板、强弱项，当好行动派、实干家，推动菏泽高质量发展不断迈出新步伐。张伦认真听取大家的发言，不时就有关问题同大家交流。', '张伦在讲话中强调，思想境界决定发展层次，抓发展必须坚持“解放思想、转变观念”。要开拓眼界、抬高标杆，对标先进、勇攀高峰，敢于与最优者“对标”、与最强者“比拼”、与最快者“赛跑”。保持定力、久久为功，树牢“功成不必在我、功成必定有我”的政绩观，一件接着一件干、一锤接着一锤敲，一步一个脚印推动高质量发展。产业生态赢得未来，抓产业必须坚持“突出特色、发挥优势”。要积极挖掘资源潜能、放大比较优势，抢占新赛道、新风口，培育更多新质生产力。强化人才支撑，高度重视创新，着力推动产业升级，努力打造更高层次、更具竞争力的产业生态。大项目促进大发展，抓招商必须坚持“尽锐出击、以快制胜”。要开展更多专业性、前瞻性、精准性、实效性招商，努力招引更多大项目好项目，尽快形成新的经济增长点。环境越优发展越快，抓环境必须坚持“城市提质、干部提能”。要加快完善城市基础设施，打造更优法治环境，不断提升干部队伍专业、敬业精神，全力以赴推动高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>144</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>江苏省泰兴市科技局来牡丹区学习考察国家农业科技园区</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2016-05-25</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2999960028/1589815505131143168.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['5月24日，江苏省泰兴市科技局组织本市新街农业园区、黄桥农业园区、上海绿地集团、江苏古溪农业发展有限公司等企业相关人员，在泰兴市科技局副局长夏秋同志的带领下，一行9人来牡丹区学习考察国家农业科技园区的先进经验和做法，牡丹区科技局有关负责人陪同参观学习了牡丹区国家农业科技园区、菏泽尧舜牡丹生物科技有限公司、天华电商物流产业园、盛华牡丹产业园。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>144</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>高荣国副市长率队赴沂水县考察学习殡改及公益性公墓建设工作</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2018-04-17</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a277b870021/1583668142750564352.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['4月16日，高荣国副市长率考察团一行40余人，赴临沂市沂水县考察学习殡葬改革工作及公益性公墓建设的成功经验和做法。', '上午，考察团在临沂市及沂水县领导陪同下，先后参观了沂水县级公益性公墓跋山公墓现场、镇级公益性公墓长山公墓现场，详细考察了公益性公墓规划建设、资金投入、运行管理等。随后在沂水县第一会议室举行座谈交流，会上，沂水县委常委、宣传部长及临沂市民政局分管局长分别介绍了沂水县和临沂市殡葬改革工作及公墓建设的成功经验和好的做法，并就推进工作过程中采取的方法和突破口与我市考察团进行了深入交流。考察团一致认为，沂水县殡葬改革和公益性公墓建设的成功经验值得学习与借鉴。', '座谈会后，考察团一行继续召开了菏泽市殡葬综合治理工作会议，市民政局局长赵斌同志宣读了《关于在全市开展殡葬综合治理的工作方案》征求意见稿，高荣国副市长作了重要讲话。高荣国副市长指出，抓好殡葬改革工作是中央、省委省政府、市委市政府的决策部署，并从五个方面分析了做好殡改工作的背景形势，强调各县区一定要学习好沂水殡改先进经验，并从落实惠民殡葬政策、做好宣传发动、抓紧组织实施、搞好试点典型、尽快出台文件等方面提出了具体要求。市委宣传部副部长、文明办主任尹慧萍同志主持会议。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>144</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>邹平市自然资源和规划局来郓城考察学习智慧国土监控平台建设运行情况</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2020-08-15</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2a3401002b/1585448054285139968.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['8月13日，邹平市自然资源和规划局党组书记、局长丁峰，党组成员、主任科员许波等一行6人来到郓城参观学习“智慧国土”监控平台建设运行情况。郓城县自然资源和规划局党组副书记曹宾、办公室主任孟令麟、巡察办主任王乃云陪同。', '邹平市参观学习组在郓城局“智慧国土”监控指挥中心现场观摩了“智慧国土”监管指挥平台系统演示，结合“建立预警、派发告知书、现场核查、现场研判定性、指挥中心复核、现场依法处置、材料归档”工作流程，深入了解监控指挥平台系统与自然资源监管工作的衔接应用。', '参观学习组与郓城局相关人员就新形势下自然资源执法监察工作进行了深入探讨和交流，并对郓城“源头防控”信息化机制给予了高度评价，表示要认真学习郓城局的成功经验，结合当地实际尽快建立完善“智慧国土”监控平台。通过交流学习，郓城县自然资源和规划局开阔了思路和眼界，表示将进一步加强交流学习，不断深化新一代信息技术的广泛应用，为实现执法手段智能化提供了更加广阔的空间。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>144</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>菏泽国投集团党委书记董事长林颖带队赴临沂国控集团考察学习</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2021-09-14</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589800961897922560.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['2021年9月10日，菏泽国投集团公司党委书记、董事长林颖带队，率集团公司副总经理王者武，党委委员刘柏明及相关部门负责同志赴临沂国控集团考察学习。', '临沂国控集团党委书记、董事长鲁峰武热情迎接了集团公司党委书记、董事长林颖一行。在座谈会中，集团公司考察组一行详细了解了临沂国控的组织架构、功能定位、经营产业等基本情况，重点对临沂国控集团投融资模式、企业管理、契约化管理以及划转企业的生产管理、改革重组、优化布局、优惠政策等方面进行学习。', '此次考察学习，是集团公司贯彻落实市国资委《市属企业对标管理提升行动方案》精神的一项重要活动，旨在学习同行先进单位的成功经验，进一步做好企业各项工作，全面提升整体实力，推动集团公司高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>144</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>郓城县科技局赴单县学习考察国家级科技企业孵化器建设情况</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2018-05-10</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2999960028/1589815475913621504.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['为了更好地促进郓城县孵化载体建设，更好地促进大众创业万众创新，更好地加快企业技术创新和科技成果转化，加速培养高新技术企业，推动新旧动能转换，5', '日上午，郓城县科技局局长杨际民一行四人对单县国家级科技企业孵化器─单县高新技术创业服务中心进行了实地考察，学习和借鉴科技企业孵化器建设运营方面的经验。', '单县科技局局长许涛、各科室科长、单县高新技术创业服务中心负责人进行接待，介绍了项目的投资建设和运营情况。双方就孵化器建设、管理运行及存在的问题进行了沟通和交流。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>144</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>晋城市城区区委宣传部考察菏泽信息工程学校学习强国推广使用情况</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2019-09-12</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a259ed7001c/1589782490329907200.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['9月11日，山西省晋城市城区区委宣传部董燕茹副部长带领考察团一行5人，来到菏泽信息工程学校考察“学习强国”学习平台推广使用情况。菏泽信息工程学校校长马飞、副校长张华、陈科山、纪委书记张纲领及学校部分科室负责人参加了此次学习交流活动。', '信息工程学校多措并举抓好“学习强国”学习应用，组建微信群，推动“学习强国”在学校落地生根。校长马飞同志每天关注学习动态，学校党委书记李振华几乎每天调度学习情况，宣教科每周通报各科室增长积分排名，适时加强督促指导，为全体教职工学习加油鼓劲。随着学习活动的不断深入，学校制定了《“学习强国”特色示范课堂建设方案》，启动并逐步加大“学习强国”进课堂活动的步伐。', '“梦想从学习开始，事业从实践起步”，菏泽信息工程学校广大师生以“习近平新时代中国特色社会主义思想”和“党的十九大精神”为指导，创新学习方式和组织形式，充分利用“学习强国”平台上丰富的学习内容和资源，不断提升自身思想觉悟、文明素质、科学素养。为学习型书香校园建设，为学校职业教育教学事业发展注入强大活力。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>144</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>菏泽城投菜篮子公司赴郑州市投农贸市场开展对标考察学习活动</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2021-06-01</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589801171281772544.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['为贯彻落实市城投集团董事长张震在2021年工作动员大会上关于开展对标学习提升行动的讲话精神，5月29日，城投菜篮子公司总经理宋坤带领招商运营部一行7人赴郑州市投集团旗下农贸市场开展对标学习活动。', '学习组一行先后到郑州市投集市旗下穆庄农贸市场、丹枫路农贸市场、丰乐农贸市场进行了参观学习，并与对方相关负责人就农贸市场的发展方向、业态规划、招商政策、运营管理要点难点等相关专业技术问题进行了交流和探讨。', '通过此次对标学习，学习组成员对农贸市场的标准化运营、业态规划的丰富度、招商运营工作以及企划工作提升的重点要点有了一个新的认识。', '宋坤强调，农贸市场的招商和运营必须按照高质量高标准的管理模式来稳步推进。要深入到市场商户的经营中去，引导和帮扶商户合规有序地扎根市场稳健经营。要狠抓消防安全、食品安全工作，招商运营人员更要以市场为家，以商户为友，做好运营服务工作中的每一个细节。要加强交流学习，取长补短，提升公司的现代化管理运营水平。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>144</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>菏泽市东明县供销社到东明县麦丰小麦种植合作社考察学习</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2018-03-27</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/88892/1572063570819022848.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['近日，东明县供销社组织全县各乡镇供销社主任到东明县麦丰小麦种植合作社考察学习。 考察组首先听取了大连交通大学环境与化学工程学院吴敦虎教授对于富硒小麦对人体健康的好处、种植优势、发展前景的生动讲解。随后，考察组参观了麦丰合作社的富硒小麦基地、粮仓以及富硒产品加工车间、供销为农服务中心，并听取了合作社负责人马国兴对合作社基本情况的介绍。与会人员纷纷表示，种植富硒小麦发展前景好，学习其先进经验、加强与其合作，将为提升供销社增强富农兴社功能，推进服务农业规模化、开展土地托管工作有着极大的推动作用。 在座谈会上，东明县供销社主任吴柏峰要求，各乡镇供销社要抓机遇、补短板，大力推进土地托管、创办专业合作社、开展村社共建，要认真学习好麦丰小麦种植合作社的先进经验，立足自身优势、乡镇种植优势，积极寻求结合点、增长点，加强与麦丰小麦种植合作社的合作与对接，搞好合作与联合，实现双赢。 东明县麦丰小麦种植合作社位于东明县马头镇，已与马头镇20多个村庄签订富硒小麦种植、收购协议，发展富硒小麦种植10万余亩，入社农户达3000多户、社员10000多人；在马头镇创业园区建有年产12.6万吨专用面粉的加工企业一个、为农服务中心一个，形成了“公司+合作社+基地+农户”的经营模式，合作社生产的富硒小麦产品在北京、上海、杭州、济南等地的市场逐步打开。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>144</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>国企动态菏泽城投公司赴临沂城投集团徐州新盛集团徐州产城集团等企业考察学习</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1731940412068859904.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['标 题：【国企动态】菏泽城投公司赴临沂城投集团、徐州新盛集团、徐州产城集团等企业考察学习', '内容概述：【国企动态】菏泽城投公司赴临沂城投集团、徐州新盛集团、徐州产城集团等企业考察学习', '根据市国资委关于“争创一流企业开展价值创造行动”的工作要求，为进一步对标找差、强弱补短，提升公司核心竞争力、价值创造能力和现代化管理水平，加快建设同层级同行业一流企业，11月29日—30日，菏泽城投党委书记、董事长车建民带队赴临沂城投集团、徐州新盛集团、徐州产城集团开展对标学习，公司党委副书记、总经理毛卫国，党委委员、工会主席赵善淼，党委委员、副总经理于恒园，集团办公室主任李昊、投资发展部部长马继斌参加对标学习活动。', '此次对标学习采取实地考察、座谈交流等方式进行，考察组成员带着问题，一路看、一路问、一路学，深入开展探讨交流，积极学习先进经验。在临沂城投集团，参观考察了临沂老年医院、临沂高铁北站、天河产业园及临沂城投集团党建展厅、企业发展馆。座谈会上，临沂城投集团公司党委书记、董事长王健同志介绍了企业组织架构、业务布局、转型发展、城市运营及收益、薪酬管理、人才培养、内部管控与考核、投融资及债务风险化解等方面的经验做法，双方就城投类企业改革转型等内容进行了深入交流。车建民同志简要介绍了菏泽城投公司基本情况和学习目的，对临沂城投近年来取得的发展成绩给予高度评价，表示临沂城投在城市建设、城市运营、企业管理等方面的经验做法非常值得学习借鉴，希望双方能够加强沟通交流，开展多方面、多层级合作，为促进双方地方经济社会发展作出积极贡献。', '在徐州新盛集团，先后参观了新盛弘阳广场、云东文化街区，重点对地产项目建设销售和酒店、商业的招商运营进行了考察。座谈会上，徐州新盛集团公司党委书记、董事长王向阳同志介绍了企业改革发展、产业布局情况，双方就人才管理、企业运营、投融资管理、资产管理、债务风险化解等有关工作进行了探讨和交流。车建民同志在讲话中指出，徐州新盛集团的发展成就有目共睹，在行业内走在了前列。通过本次考察学习，我们学到了宝贵的经营管理经验，也在高质量发展方面受到了启发，获益匪浅。希望双方加强沟通对接，发挥各自优势，在更大范围、更宽领域、更深层次上开展务实合作，携手并肩发展，实现互利共赢。', '在徐州产城集团，参观考察了金融服务中心、质子重离子医院项目展厅和工地现场。座谈会上，徐州产城集团党委副书记、总经理刘利同志介绍了企业业务规模及发展情况，双方就企业管理存在的问题及经验进行了交流探讨。车建民同志表示，徐州产城集团在实体化转型、项目运营管理等方面亮点多、成果大，经验值得学习和借鉴。将以此次考察学习为契机，把好经验、好做法带回去，运用到企业改革发展中，转化为加快高质量发展的具体措施和行动。希望双方加强往来、共享经验、互通有无，共同探索国有企业改革发展新理念、新模式、新路径，不断推动各项工作再上新台阶。', '他山之石，可以攻玉。通过此次考察学习，进一步理清了思路，明确了差距，找准了定位。下一步，菏泽城投将以时不我待的紧迫感抢抓机遇，以舍我其谁的使命感升级转型，坚持以学促知、以知促用、以用促干，将先进经验做法与企业管理实际有机结合，切实把学习成果转化为发展成效，逐步实现从适应趋势到引领行业的跨越，助力公司加快实体化转型、高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>144</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>市治理拖欠农民工工资工作领导小组有关单位赴济南市泰安市考察学习</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2021-09-02</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582925872069869568.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['为进一步提升我市保障农民工工资支付工作质量，筑牢根治欠薪防线，维护建设企业和广大劳动者权益，9月1日，由市治理拖欠农民工工资领导小组办公室组织，市人社局党组成员孙光磊带队，市人社局、市住建局、市交通局、市水务局分管负责同志及相关业务科室负责人共同赴济南、泰安两市开展了考察学习活动。', '为进一步提升我市保障农民工工资支付工作质量，筑牢根治欠薪防线，维护建设企业和广大劳动者权益，', '日，由市治理拖欠农民工工资领导小组办公室组织，市人社局党组成员孙光磊带队，市人社局、市住建局、市交通局、市水务局分管负责同志及相关业务科室负责人共同赴济南、泰安两市开展了考察学习活动。', '此次考察学习通过交流座谈和实地调研的方式进行，考察组一行首先到达泰安市监管平台指挥中心参观学习并座谈。会上，泰安市人社、交通等相关单位负责同志详细介绍了泰安市各领域在保障农民工工资支付工作方面的先进做法，从组织领导、制度落实、信息监管、案件办理、督导检查等多个角度分享了工作经验。随后，在泰安市徐家楼新华片区棚改项目，现场观摩项目各项制度落实情况。', '下午，考察组到达济南市，在树兰（济南）国际医院项目进行实地调研，并在项目现场进行了座谈。会上，济南市向考察组分享了通过“三定三重三抓”实施“街镇工长制”的先进工作经验，济南市人社局、住建局负责同志及项目工长、项目经理从制度建设、过程监管、考核督导等多方面分别介绍了具体工作做法。', '下午，考察组到达济南市，在树兰（济南）国际医院项目进行实地调研，并在项目现场进行了座谈。会上，济南市向考察组分享了通过', '拖欠农民工工资工作领导小组作用，进一步加大相关政策法规宣传力度，加强部门联动，不断推动我市']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>144</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>单县县委组织部赴兰陵县费县考察学习对标对表全面提升组织工作质量</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2019-08-19</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad7718a300f9/1619527739960721408.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['6月26日，为加强组织工作建设，贯彻落实市委组织部有关要求，对标对表先进地区，找到差距、竖起标杆，深入推进单县八大“红色品牌”建设。单县县委组织部组织各分管副部长、各科室负责同志一行16人，由县委常委、组织部长邓林军同志带队，先后到临沂兰陵县、费县考察组织工作，学习先进经验。', '在兰陵县鸿强蔬菜产销专业合作社，详细听取了相关负责同志关于党建引领乡村振兴工作介绍，该合作社筹建、运营、生产、销售等多方面的做法先进，在推动村民入社，带动农户种植，增加经济收入方面，对我县探索发展壮大村级集体经济具有很强的启发作用。', '随后考察团又来到被山东省委授予“山东省先进基层党组织”的兰陵县代村，就乡村振兴工作，进行了考察学习。', '“时代楷模”王传喜任兰陵县代村党组织书记、村主任的19年，充分发挥“领头雁”作用，带领全村党员干部群众坚持党建引领，坚持在发展中改善民生，探索出了一个产业美、村庄美、人文美、生态美、生活美的社会主义新农村，迈入了乡村振兴的新时代，代村的这种先进经验对于我县正在实施的“头雁工程”具有重要的借鉴意义。', '在兰陵的考察学习工作结束后，考察团一行又赶往临沂费县就县直机关党建工作进行了考察学习。考察团一行先后参观学习了费县综合行政执法局、费县供销社和费县自然资源和规划局。每到一处，大家都认真听取了各单位关于县直机关党建品牌打造、党建与工作有机融合的详细介绍。', '最后，考察团一行与费县县委组织部、费县县直机关工委的相关负责同志就党建、干部、人才工作进行了深入的座谈交流。', '邓林军指出，费县高度重视党建工作，工作措施有力，工作注重创新，制度建设紧贴实际，各级领导善抓、会管。抓党建工作能够做到驰而不息、届届相接、用心用脑、有型有影。各项党建工作的开展都能够与各自工作紧密结合，一个单位一个党建品牌，一个党建品牌一种精神传承，对单县的机关党建工作具有十分重要的借鉴意义。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>144</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>东营市海洋与渔业局党组副书记郭东升一行到市水产局考察学习</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2018-04-20</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3df0a30063/1605491409744297984.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['郭东升同志一行与我局党组书记、局长刘祥德同志，局党组副书记、副局长史峰同志，局机关人事科、渔业科、渔技站等科室负责人进行了座谈，就党风廉政建设、精神文明建设、招商引资等工作开展做了深入的探讨与交流。', '通过此次考察交流，双方在党风廉政建设、精神文明建设、招商引资等工作方面都有了更加全面的了解，为我局与东营市海洋与渔业局进一步的交流协作、共谋发展奠定了基础。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>144</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>广东省粮食局副局长吴津伟来我市考察学习地方储备粮管理工作</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2017-07-07</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/88892/1572063604574781440.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['7月5日-7日，广东省粮食局副局长吴津伟一行10人，在山东省粮食局副局长李伟陪同下，到我市学习地方储备粮管理工作。市委常委常委副市长闫剑波会见了吴津伟一行。 吴津伟副局长一行首先听取了我市地方储备粮管理情况，实地察看了广东省级储备粮在菏泽市粮油中转储备库定陶仿山分库储存现场，并就广东地方储备粮到山东代储商讨了初步意见。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>144</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>市人社局组织到聊城市东昌府区学习考察被征地农民社会保障政策落实工作</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2016-11-04</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926388971700224.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['月2日，市人社局组织到聊城市东昌府区学习考察被征地农民养老保险工作，市、县区局被征地农民社会保障工作分管同志、城乡居民养老保险事业处主任参加活动。', '聊城市和东昌府区人社局分别介绍了被征地农民社保专户落实到个人账户情况及经验做法，学习小组现场参观了东昌府区被征地农民工作经办流程，并就具体问题进行交流探讨。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>144</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>交流学习拓思路守正创新开新局东明县司法局赴济宁市金乡县考察学习依法治县和法治政府建设工作</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2023-03-04</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1e311a0010/1631827832646799360.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['交流学习拓思路 守正创新开新局--东明县司法局赴济宁市金乡县考察学习依法治县和法治政府建设工作', '标 题：交流学习拓思路 守正创新开新局--东明县司法局赴济宁市金乡县考察学习依法治县和法治政府建设工作', '内容概述：交流学习拓思路 守正创新开新局--东明县司法局赴济宁市金乡县考察学习依法治县和法治政府建设工作', '3月2日，东明县司法局党组书记、局长刘同军，县委督察室科长张旷达带领考察组一行11人，赴济宁市金乡县考察学习依法治县、法治政府建设、司法行政和党建等工作。', '考察组一行实地参观了“全国模范司法所”--兴隆司法所、金乡街道司法所，“全国民主法治示范村”--鱼山街道崔口村、金乡县司法局党建文化长廊、金乡县民法典主题广场等场所，详细了解了金乡县在法治政府示范创建、规范化司法所建设、党建文化建设等方面的先进做法和工作成效。', '座谈会上，考察组观看了《金乡县全面依法治县工作汇报片》，认真听取了金乡县司法局对法治政府建设示范创建相关工作情况介绍，并就人民调解、法治督察、合法性审查、执法监督、行政复议应诉、社区矫正等工作进行了深入交流和探讨。', '走出去学习借鉴，引进来优化提升。考察组一行对金乡县在法治政府建设和社会治理工作取得的成效给予高度评价，一致表示此番考察学习不虚此行、受益匪浅，不仅建立了友谊、开阔了眼界 、交流了经验，更是找出了差距、发现了不足。下一步，东明县司法局将坚持开阔视野、拓宽思路、对标先进，学习借鉴全国全省法治政府建设示范市、县典型经验做法，进一步强短板、补弱项，探索出符合东明特色的工作机制，推动依法治县和法治政府建设工作再上新台阶，为黄河流域生态保护和高质量发展保驾护航。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>144</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>聊城市卫生计生委联合市财政局来菏考察学习疾病应急救助制度建设</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2016-06-20</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1d7dd7000e/1584460403780354048.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['6月14日上午，聊城市财政局、市卫生计生委、市120指挥调度中心一行4人，来我市考察学习疾病应急救助制度建设情况。 学习交流座谈会在菏泽市120指挥中心召开。会议由菏泽市卫生计生委党委委员、副主任张佩宪主持，市120指挥调度中心主任、市红十字会副会长张之轩介绍了菏泽市疾病应急救助资金核销流程和目前资金核销情况，并结合工作实际，就三无病人和无支付能力病人的核实鉴定工作进行了交流。 聊城市的负责同志表示，通过考察学习，对疾病应急救助制度的建设有了更深的了解，在应急救助资金核销实际工作中工作思路更加明确。张佩宪最后进行了总结，希望两市进一步加强交流合作，规范做好疾病应急救助资金核销工作。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>144</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>郓城县自然资源和规划局到安徽省太和县考察学习土地执法监管模式</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2021-01-07</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2a3401002b/1585447996487630848.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['为进一步提高自然资源和规划管理工作，破解土地执法难题，1月4日，郓城县自然资源和规划局党组书记、局长袁良臣带队，党组副书记曹宾、局办公室、执法队、巡查办相关负责人组成的考察小组到安徽省阜阳市太和县考察学习自然资源执法监管工作。太和县副县长宋丽芳、阜阳市国土资源执法监察支队支队长张玉林、政府办公室党组成员陈峰、县自然资源和规划局局长单朝晖陪同考察。', '座谈会上，学习组听取了太和县“月度卫星遥感监测执法+量化考核”管理模式介绍。2017年太和县违法用地多，违法用地率偏高，被国土资源部南京督察局约谈，土地被限批。为扭转违法用地严峻形势，太和县创新国土资源管理量化考核模式，制定印发《太和县国土资源管理量化考核办法（试行）的通知》《太和县违法用地防控责任押金制度（试行）的通知》，成立以县长任组长、分管县长任副组长的国土资源量化考核领导小组，采取“月度卫星遥感监测执法+量化考核”管理模式，实行月考评、季调度，建立风险防控押金制度、落后单位主要负责人表态发言制度、奖励制度等一系列的创新性制度，压实了县、乡、村三级责任，国土资源管理工作走上规范化轨道，违法用地率连续两年居全市最低。', '太和、郓城自然资源和规划部门先后围绕“智慧国土”监管模式和“月度卫星遥感监测执法+量化考核”模式开展交流学习，高度肯定了彼此的创新做法和管理成果，就两种监管方式的不足进行了深入探讨。通过友好交流学习，太和、郓城自然资源和规划部门开阔了视野，深化了对执法监管模式的认识，应对未来土地管理风险挑战能力得到进一步提升。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>144</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>菏泽市科技局杜岩局长一行赴黄三角农高区考察学习</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2020-06-18</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2999960028/1589813234100076544.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['为进一步推动菏泽市农业科技园区提档升级、提质增效，学习借鉴黄河三角洲国家农业高新技术产业示范区建设成功经验，6月4日，菏泽市科技局杜岩局长带队，副局长徐静，牡丹区、成武、单县、郓城、东明县科技局主要负责人等一同赴农高区进行考察学习，黄三角农高区管委会王守宝副主任陪同考察活动。', '杜岩一行首先到达中科院现代农业技术创新中心，观看并听取了中心相关负责人有关情况介绍，技术创新中心由科技部、山东省、中科院联合共建，国内首个体量大、学科交叉融合、技术综合集成、功能齐全配套的国家级现代农业重大科技创新平台。技术创新中心集成了八大技术领域，为园区提供核心技术和人才支撑，孵化了四大新兴产业，为园区高质量发展提供示范。随后，杜岩一行实地考察了技术创新中心的新一代智能农机装备中试研发、盐地藜麦育种产业化、农业益虫资源综合利用研发、多尺度农田生态系统定位观测试验场等4个技术创新平台。在黄河三角洲现代农业双创中心，在听取情况介绍后，杜岩一行与双创中心负责人就成果转化、创业孵化等进行了交流。在东营广元生物科技股份有限公司，杜岩一行观看了企业发展的视频汇报，察看了公司的主营产品，并与公司负责人就产品销售、技术创新、研发投入、产业产值等进行了交谈了解。考察学习期间，杜岩一行还实地考察了山东科学院黄河三角洲现代农业试验示范基地、黄河三角洲合成生物学工程与农业服务中心、东营瑞达生物科技有限公司、东营艾格蓝海水产科技有限公司等。', '考察结束后，杜岩表示，通过此次考察，学到很多可以借鉴的经验做法，农高区在现代农业发展上走在了前列，特别是在农业智能装备、农业科技人才、农业高新技术产业等方面，真正体现了“农”“科”“高”，为全国农业科技园区建设提供了样板示范。杜岩要求，回去后，我们将进一步做好对照对标，认真学习研究，结合实际抓好成功经验的消化吸收和转化落地。同时，杜岩局长与王守宝副主任围绕开展农业技术合作、农业科技成果转移转化等交换了意见，并达成了初步合作意向。', '黄三角农高区二级巡视员、科技创新局负责人、中科院创新中心负责人罗守玉，科技创新局四级调研员徐云祥陪同考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>菏泽金润金特公司董事长兼总经理赵玉强到市城投公司考察学习</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589800800824066048.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['10月29日下午，菏泽金润、金特公司董事长兼总经理赵玉强一行到市城投公司考察交流，并赴项目施工现场学习建设管理等工作经验。市城投公司工程管理部何成帅及相关项目负责人陪同活动。', '在菏泽市媒体融合发展产业园项目，项目负责人许学刚对赵玉强一行的到来表示热烈欢迎，赵玉强介绍，菏泽市金润健康产业有限公司、金特文化旅游有限公司是市财金集团下属子公司，主要承担市政府公建项目，其中金润公司负责市立医院东院区建设、金特公司负责方特文旅建设。随后，考察组在许学刚的带领下，深入基坑工作面，查看了现场施工组织情况，询问了质量管理制度和标准，并针对工期的把控措施进行深入探讨。', '考察组来到菏泽医专新校区项目现场，项目负责人吴帅向其详细介绍了医专新校区的规划布局和建设进度，以及项目部在推进建设过程中秉承的“立说立行，盯住不放，坚韧不拔”的工作作风，双方就现场管理模式进行了充分交流。', '在菏泽文化艺术中心项目，城资公司党支部书记崔传平亲切接见了赵玉强一行，并就招投标流程和施工安全教育等方面作了详细介绍。赵玉强表示，本次考察学习收获颇丰，在感叹项目飞速建设的同时，深刻感受到城投公司在项目管理和制度建设上的深厚功力，我们将汲取本次学习经验，充分转化为金润、金特公司的发展动力，进一步完善公司管理机制，促进项目高质量建设，也希望以此次学习为契机，深化与城投公司的沟通交流，共同为我市经济社会高质量发展增姿添彩。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>144</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>交投集团党委委员副总经理杜馨馨一行到开发区考察学习</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2022-02-28</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589800353321189376.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['日前，围绕产业园规划建设、投融资、管理运营等方面工作，交投集团党委委员、副总经理杜馨馨一行到开发区考察学习。', '杜馨馨一行先后前往鲁西南大数据中心、凯大新型材料公司、大唐5G产业园、精进电动、鲁航智能制造机械装备产业园等地，考察产业园的规划建设模式，深入学习了解产业园的投融资模式，针对产业园的运营管理情况进行现场沟通。', '杜馨馨表示，各企业项目在产业园规划建设、投融资、管理运营等方面积累了大量经验，要进一步增强发展紧迫感，把学习考察成果转化为高质量发展的实际成效，为新项目实施开展打好坚实基础，为集团公司高质量发展做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>144</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>临沂市自然资源和规划局到曹县学习考察点状供地试点工作</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2020-12-21</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2a3401002b/1585448001998946304.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['12月18-19日，临沂市自然资源和规划局到曹县考察学习“点状供地”工作，曹县自然资源和规划局相关业务人员陪同活动。', '曹县自然资源和规划局在工作汇报中介绍了“点状供地”方面的农用地转用审批、土地供应、用地规划等工作经验和实施情况。并实地考察黄河故道湿地公园试点工作现场，全面了解曹县结合乡村振兴战略、产业发展等在“点状供地”方面的工作开展情况，考察组认为曹县在“点状供地”方面的先进经验值得学习和借鉴。', '在随后的座谈交流中，双方还围绕土地利用总体规划等工作进行了交流探讨，并表示将继续加强沟通和交流，结合当地情况，探索出符合各自实际的“点状供地”办法。（曹县自然资源和规划局）', '在随后的座谈交流中，双方还围绕土地利用总体规划等工作进行了交流探讨，并表示将继续加强沟通和交流，结合当地情况，探索出符合各自实际的']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>144</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>国企动态冠县水利局一行到菏泽市土发集团魏楼水库项目考察学习</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1677140313443106816.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['7月5日，聊城市冠县水利局业务科长刘涛一行到魏楼水库项目进行考察学习。冠县水务集团财务总监王静、副总经理张鹏，工行聊城分行高级经理曲荣珍、张宗锐，工行冠县支行行长王成军、刘艳，工行菏泽分行公司部经理杨胜军，工行牡丹支行行长刘军参加考察学习活动，陪同出席的有菏泽市金地水务有限公司技术负责人沈福贵，副总经理邵尉，市土发集团融资中心融资专员刘宛菂，山东润鲁工程咨询有限公司魏楼水库工程总监冯建民。', '会议就水库的建设背景，前期立项手续，资金来源和资金使用情况，工程管理制度及运营等多方面内容进行深入交流。', '刘涛对魏楼水库项目建设给予高度评价，他表示，通过参观学习，对建设水库的标准、理念、宗旨有了全面的认识，并深入了解了魏楼水库目前的融资方式和途径，为冠县的水库项目建设提供了宝贵的经验。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>144</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>泰安市宁阳县人社局到鄄城县学习考察就业与社会保障扶贫工作</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2016-04-11</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926998441820160.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['4月8日，泰安市宁阳县人力资源和社会保障局党组成员、劳动就业办副主任侯辉一行7人到鄄城学习考察就业与社会保障扶贫工作，县人大副主任、党组成员甘玉峰，县人社局相关领导陪同活动。 宁阳县人社局一行实地参观了郑营镇西街村人发加工点、陈王街道西曹村、跨境电商产业园，产业园负责人就园区发展情况、园区建设情况、园区管理和服务、创业扶持政策、精准扶贫就业点生产经营状况和经验做法向客人做了详细介绍。考察组表示对鄄城县借助“双联双创”活动，送项目到村、送就业到户、送技能到人、送政策到家，帮助农村发展经济、扶贫脱贫的做法很受启发，对宁阳县人社局开展扶贫工作具有很强的借鉴意义，希望与鄄城人社局加强交流，互相学习，按照全省就业与社会保障精准扶贫工作要求，取长补短、奋力作为，带动更多的贫困群众就业创业，早日实现脱贫致富。', '月8日，泰安市宁阳县人力资源和社会保障局党组成员、劳动就业办副主任侯辉一行7人到鄄城学习考察就业与社会保障扶贫工作，县人大副主任、党组成员甘玉峰，县人社局相关领导陪同活动。', '宁阳县人社局一行实地参观了郑营镇西街村人发加工点、陈王街道西曹村、跨境电商产业园，产业园负责人就园区发展情况、园区建设情况、园区管理和服务、创业扶持政策、精准扶贫就业点生产经营状况和经验做法向客人做了详细介绍。考察组表示对鄄城县借助“双联双创”活动，送项目到村、送就业到户、送技能到人、送政策到家，帮助农村发展经济、扶贫脱贫的做法很受启发，对宁阳县人社局开展扶贫工作具有很强的借鉴意义，希望与鄄城人社局加强交流，互相学习，按照全省就业与社会保障精准扶贫工作要求，取长补短、奋力作为，带动更多的贫困群众就业创业，早日实现脱贫致富。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>144</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>河南省开封市政府副市长刘震一行来我市考察学习养老服务工作</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2023-05-13</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a277b870021/1657915939057963008.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['河南省开封市政府副市长刘震一行来我市考察学习养老服务工作，5月11-12日，河南省开封市政府副市长刘震带领市民政局党组书记、局长李红权等一行15人来我市考察学习，市政府副市长张鹏，市民政局党组书记、局长刘勇陪同活动。', '开封市考察团先后前往鲁西新区许楼社区“智慧电视医院”、菏泽医专附属医院、成武县晚霞红光医养院张楼分院、大曹庄农村新型农村幸福院、苟村集镇中心敬老院、晚霞红光医养院、养老康复中心考察学习，实地了解我市养老服务工作开展情况。考察团还应邀前往市博物馆参观了“涓涓成海——于海娟书法艺术慈善捐赠展览”。', '开封市政府副市长刘震表示，菏泽市养老服务工作特色明显、经验丰富、亮点纷呈，在医养康养、农村养老等方面的好经验好做法值得学习借鉴。通过考察学习，收获颇丰，希望双方切实增进交流互动，互鉴互学，取长补短，助力推动养老服务工作再创新高。', '市民政局将以此次考察交流为契机，抢抓机遇，攻坚克难，培育选树一批连锁化、规模化、品牌化养老服务机构，着力打造竞争力强、标志性高、美誉度好的养老服务品牌，探索形成更多有特色、可复制、可推广的养老服务发展新模式，不断开创我市养老服务高质量发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>144</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>市科技局组织集中学习习近平总书记在山东考察时重要讲话精神</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2024-06-04</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2999960028/1797826931505455104.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['5月30日，市科技局组织深入学习领会习近平总书记在山东考察时重要讲话精神，党组书记徐静主持活动，局机关全体党员干部参加学习。', '政治任务，同习近平总书记在全国科技创新大会、两院院士大会上的重要讲话精神结合起来，同党的二十大对教育、科技、人才', '总体部署的战略调整结合起来，深刻领会习近平总书记重要讲话的精神实质和丰富内涵，以实际行动坚定拥护']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>144</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>招标投标解放思想南下取经菏泽市公共资源交易中心东明分中心赴先进地区考察学习</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2024-04-29</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3031560035/1795274689178968065.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['【招标投标】解放思想，南下取经——菏泽市公共资源交易中心东明分中心赴先进地区考察学习', '标 题：【招标投标】解放思想，南下取经——菏泽市公共资源交易中心东明分中心赴先进地区考察学习', '内容概述：【招标投标】解放思想，南下取经——菏泽市公共资源交易中心东明分中心赴先进地区考察学习', '为进一步解放思想、开拓思维、创新理念，持续深化公共资源交易平台整合共享，提升公共资源交易服务效能，', '日，县行政审批服务局党组书记、局长岳远航亲自挂帅，率领公共资源交易中心主要负责人及相关业务骨干远赴江苏政务服务领域的先进县市进行深度考察学习，以期为我县公共资源交易注入新的活力与智慧。', '考察组一行先后走访了张家港市行政审批局、常熟市行政审批局以及江阴市大数据管理和政务服务局。在讲解员的引领下，实地参观了两地市公共资源交易中心专家抽取式、开标区、封闭评标区、隔夜评标专家休息区、专家通道等功能场所。', '在随后的座谈会上，考察组与拜访单位就交易平台建设情况、诚信评价、远程异地评标、政府采购、强化公共资源交易的监督和管理等方面内容进行了深入的探讨与交流。大家畅所欲言，分享各自在公共资源交易领域的成功经验与做法，共同探讨解决公共资源交易中的痛点与难点。通过此次交流，考察组不仅开拓了视野，更收获了许多宝贵的经验与启示。', '值得一提的是，考察组还与拜访单位达成了公共资源交易远程异地评标框架协议。这不仅加强了两地之间的合作与交流，更为我县公共资源交易提供了更加广阔的平台与机遇，进一步提升了公共资源交易的便利化水平。', '考察学习结束后，岳远航书记强调，此次南下取经之行意义重大，考察组成员要深刻领会学习成果，结合我县实际，深入研究并借鉴先进经验做法，将其转化为推动我县公共资源交易工作的强大动力。同时，他要求全体人员要以此次考察学习为契机，转变思维方式、改革思路方法，强化创新突破、坚持有解思维，进一步提升交易服务质效、扩宽要素市场，为更好地推动公共资源交易改革贡献力量。', '通过此次南下取经之旅，考察组看到了工作上的差距，找到了学习对标的榜样，听到了创新发展的经验，带着问题而去，带着思考而回。菏泽市公共资源交易中心东明分中心将以此次学习考察为抓手，切实把考察成果转化为推动我县公共资源交易工作的实际成效，优化交易流程，提升工作水平，推动我县公共资源交易事业快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>144</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>县委常委组织部部长尚彦龙同志带队赴滨州东营考察交流学习乡镇党委党校建设工作</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2020-12-14</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad7718a300f9/1619527458367733760.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['标 题：县委常委、组织部部长尚彦龙同志带队赴滨州、东营考察交流学习乡镇党委党校建设工作', '内容概述：县委常委、组织部部长尚彦龙同志带队赴滨州、东营考察交流学习乡镇党委党校建设工作', '乡镇党委党校作为最基层的一级党校,是党员教育体系的重要组成部分,肩负着集中教育培训基层党员的重要职责。按照市委组织部要求，为进一步提升我县乡镇党委党校建设水平，12月2日—3日，县委常委、组织部部长尚彦龙同志，县委党校常务副校长王玉成同志带队赴滨州市滨城区、博兴县，东营市广饶县等地考察学习乡镇党委党校建设经验。县委组织部、县委党校、县自然资源和规划局、莱河镇、朱集镇、浮岗镇等单位负责同志参加活动。', '参观学习组一行，先后参观了滨州市博兴县吕艺镇委党校、纯化镇委党校，滨城区梁才街道党工委党校、杨柳雪不忘初心党性教育基地、杨柳雪镇委党校；东营市广饶县陈官镇委党校、大码头镇委党校、大王镇委党校、东营市（华泰）非公党建学院等，实地考察党校教室、研讨室、教研工作站、学员宿舍、大报告厅、学员餐厅等功能区布局建设情况，并召开座谈会，听取党校运行情况、基层党员培训情况以及办学治校等方面的经验做法。', '滨州市在乡镇党委党校建设中，充分利用地域条件，打造红色教育基地，将红色基因融入党员教育，研发红色课程，培树红色先锋，教育培训效果显著。东营市广饶县在乡镇党委党校建设中，坚持“组织机构实体化、培训场所标准化、师资队伍优质化、培训计划科学化、培训形式多样化、管理制度规范化”的“六化”建设标准，探索可复制可推广的基层党校工作新模式，打造出基层党员干部教育培训的“主渠道”“主阵地”。这两地乡镇党委党校建设创新有力、特色鲜明，各有亮点、各具特色，提供了可借鉴、可复制、可推广的经验。', '参观学习组成员认真听、认真看、认真学，认真记，通过学习，对党的教育工作有新的认识，对贯彻落实《2019-2023年全国党员教育培训工作规划》有了新的理念，拓宽了视野，打开了思路。参观学习组成员纷纷表示，下一步，将认真梳理总结滨州、东营等地乡镇党委党校建设先进经验和成功做法，结合我县实际，加以学习借鉴和运用，立行立学，根据县委要求，先行先试，高标准建设一批乡镇党委党校，将我县乡镇党委党校工作抓出亮点、抓出特色、抓出创新，全面提升我县乡镇党委党校建设水平。', '这次考察学习活动得到了滨城区委组织部、博兴县委组织部、广饶县委组织部的大力支持，为我们提供了学习样板和经验，推动这次考察学习取得圆满成功。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>144</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>河南省三门峡市委组织部学习考察我市优秀年轻干部培养选拔薪火工程工作</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2018-04-19</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad7718a300f9/1619515192306040832.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['2018年4月17日，河南省三门峡市委组织部青干科科长李战颇一行2人到我市就优秀年轻干部培养选拔“薪火工程”工作进行考察交流。 考察交流主要采取座谈方式进行。我们就我市优秀年轻干部培养选拔“薪火工程”工作作了系统介绍，并与三门峡市委组织部同志进行了深入交流，探讨了目前干部队伍建设特别是年轻干部培养选拔工作中存在的主要问题和困惑，分析了问题产生的原因，解读了我市开展优秀年轻干部培养选拔“薪火工程”工作的背景动因、具体措施和创新特点。 三门峡市委组织部考察组对我市年轻干部培养选拔工作给予充分肯定，认为我市在培养选拔年轻干部工作中紧紧围绕干部工作关键环节，通过科学建立年轻干部“海选名单”和“优选名单”，构建起了“选拔、培训、锻炼、管理、使用”一体化干部培养选拔使用链，形成了体系和合力，表示收获颇丰，先进的理念和做法很值得学习、借鉴、推广。 双方表示希望通过此次考察学习，进一步增进双方的沟通交流，实现互相借鉴、优势互补、共同进步。', '年4月17日，河南省三门峡市委组织部青干科科长李战颇一行2人到我市就优秀年轻干部培养选拔“薪火工程”工作进行考察交流。', '考察交流主要采取座谈方式进行。我们就我市优秀年轻干部培养选拔“薪火工程”工作作了系统介绍，并与三门峡市委组织部同志进行了深入交流，探讨了目前干部队伍建设特别是年轻干部培养选拔工作中存在的主要问题和困惑，分析了问题产生的原因，解读了我市开展优秀年轻干部培养选拔“薪火工程”工作的背景动因、具体措施和创新特点。', '三门峡市委组织部考察组对我市年轻干部培养选拔工作给予充分肯定，认为我市在培养选拔年轻干部工作中', '紧紧围绕干部工作关键环节，通过科学建立年轻干部“海选名单”和“优选名单”，构建起了', '一体化干部培养选拔使用链，形成了体系和合力，表示收获颇丰，先进的理念和做法很值得学习、借鉴、推广。', '双方表示希望通过此次考察学习，进一步增进双方的沟通交流，实现互相借鉴、优势互补、共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>144</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>市水产服务中心召开会议传达学习贯彻习近平总书记在福建考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2021-04-30</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3df0a30063/1605492336299606016.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['内容概述：市水产服务中心召开会议传达学习贯彻习近平总书记在福建考察时的重要讲话精神', '4月29日下午，市水产服务中心召开会议传达学习贯彻习近平总书记在福建考察时的重要讲话精神。', '会议指出，习近平总书记在福建考察期间的重要讲话不仅面向福建，更面向全党、全国，对当前正处于发展阶段的菏泽渔业来说尤其具有现实指导意义。大家要深入学习领会习近平总书记重要讲话指示精神，结合菏泽渔业实际抓好贯彻落实，进一步增强“四个意识”、坚定“四个自信”、坚决做到“两个维护”，瞄准年度目标，聚力全市渔业重点任务，齐心协力、奋发进取，努力推动全市渔业实现新发展，确保“十四五”开好局、起好步，以更加优异的成绩迎接建党100周年。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>144</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>东明县司法局赴济宁市泗水县考察学习法治政府建设和司法行政工作</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1e311a0010/1628657997452546048.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['\u200b为扎实推进全面依法治县和司法行政工作，进一步推动法治政府建设示范创建活动提质增效，2月22日，东明县司法局党组书记、局长刘同军，县委政法委政治部主任李锐，县委督察室科长张旷达带领考察组一行14人，赴济宁市泗水县考察学习法治政府建设和司法行政工作。泗水县司法局党组书记、局长王庆利等领导参加活动。', '考察组先后实地参观了泗水县金庄司法所、中册司法所、民法典主题公园等场所，观看了泗水县创建法治政府建设示范县专题片《法润泗水谱华章》，深入了解泗水县法治政府建设工作开展情况。', '座谈会上，泗水县就创建全省法治政府建设示范县作经验介绍，考察组认真听取并就法治政府建设示范创建工作相关问题与泗水县展开深入交流和探讨。', '考察组深入学习了泗水县示范创建工作机制、推进措施、亮点打造及宣传工作方面的先进经验，对泗水县在法治政府示范创建工作中领导重视程度高、专班推进实、细节把握牢等典型做法给予高度评价，并对泗水县司法局的热情接待和毫无保留的经验介绍表示诚挚感谢。', '下一步工作中，东明县司法局将以此次考察学习为契机，在对先进经验消化吸收的基础上，找差距、补短板，挖亮点、宽思路，做到学有所思、学有所悟、学有所获，融会贯通、学以致用，持续用力、精准发力，以思想大解放促进工作大提升，奋力推动东明在全省法治政府建设示范创建活动中取得新成效、实现新突破。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>144</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>漯河市水利局来我市学习考察城乡水务一体化及水务集团运营管理工作</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2021-12-17</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3e164c0064/1585105207459577856.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['12月16日，漯河市水利局党组书记、局长彭建平一行5人来我市学习考察城乡水务一体化及水务集团运营管理工作。菏泽市水务局党组成员、副局长高岗剑，市水务局办公室主任、四级调研员曹正斌，市水务集团党委副书记、总经理侯居良等陪同活动。', '首先在菏泽市水务局会议室召开了座谈会，高岗剑介绍了菏泽市城乡水务一体化管理发展的历程，以及城乡供水一体化建设情况，分析了发展过程中面临的问题和取得的成效。侯居良介绍了菏泽市水务集团组建情况，以及目前的发展状况。考察组与菏泽市参会人员开展了热烈的交流讨论，咨询了城乡水务发展的有关问题，菏泽市有关人员将相关经验做法进行了详细介绍，并提出了有关建议。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>144</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>菏泽市自然资源和规划局赴邢台市考察学习农村集体经营性建设用地入市经验</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2023-11-11</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2a3401002b/1723994588940734464.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['11月8—9日，菏泽市自然资源和规划局带领成武县自然资源和规划局相关科室人员，组团赴邢台市威县，学习农村集体经营性建设用地入市经验。', '考察组成员先后与邢台市威县自然资源和规划局相关业务人员进行了座谈，深入交流农村集体经营性建设用地入市实践中遇到的问题和解决的办法，全面了解当地入市工作情况。', '考察组成员表示，通过考察学习，拓宽了视野、增强了信心，将把邢台市的成功经验，与菏泽市实际情况相结合，加快推动菏泽市农村集体经营性建设用地入市工作做出特色和亮点。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>144</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>黑龙江省七台河市民政局到我市考察学习养老服务等民政工作</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2023-12-28</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a277b870021/1740575950954958848.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['日，黑龙江省七台河市民政局党组书记、局长孙安红带队到我市考察学习养老服务等民政工作。市民政局党组成员、副局长黄贤峰，办公室主任董屹杨等陪同活动。', '考察组一行先后到菏泽医专附属医院养护中心，成武县智慧养老服务中心、怡养护理院、晚霞红光医养院、苟村集镇中心敬老院、晚霞红光医养院张楼分院、孙寺镇谢楼村新型幸福院，单县乐善乐善家园精神障碍社区康复服务中心、单县颐养院、婚姻登记巡回点，实地考察了医养康养融合服务模式、智慧养老综合服务等工作，相关负责人详细介绍了养老服务工作情况、典型做法，以及养老机构运营经验模式。', '孙安红对我市民政工作给予高度评价，特别是对我市加快构建居家社区机构相协调、医养康养相结合的养老服务体系，推动养老事业与产业、基本养老服务与多样化服务协调发展等方面工作给予高度赞誉。表示将认真借鉴我市养老服务等方面先进经验，助力推动养老服务工作、民政工作取得新成效。', '下一步，菏泽市民政局将继续立足老年群体对美好生活的需求，敢于争先创优、提升境界标准，着力发展“银发经济”，探索形成更多有特色、可复制、可推广的养老服务发展新模式，聚力开创养老服务高质量发展新局面，全力全方位打造鲁苏豫皖四省交界养老服务高地。', '，探索形成更多有特色、可复制、可推广的养老服务发展新模式，聚力开创养老服务高质量发展新局面，全力全方位打造鲁苏豫皖四省交界养老服务高地。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>144</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>泰安市潍坊市人社局到曹县考察学习农村劳动力转移就业电子商务发展等经验做法</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2016-03-17</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926998987079680.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['标 题：泰安市、潍坊市人社局到曹县考察学习农村劳动力转移就业、电子商务发展等经验做法', '内容概述：泰安市、潍坊市人社局到曹县考察学习农村劳动力转移就业、电子商务发展等经验做法', '3月17日，泰安市人社局党委委员、副局长蒋建民率领考察组一行8人和潍坊市人社局党委委员、市人力资源管理服务中心主任郭祥锋率领考察组一行15人来曹县考察学习劳动力转移就业和电子商务发展等工作的经验和做法。在菏泽市人社局副局长王海林、市劳动就业办、市就业促进科科长甄君华，曹县人社局长王晓德、县劳动就业办公室负责同志陪同下，考察组一行先后到曹县中小企业创业示范园、大集镇丁楼淘宝村、大集镇农村电商创业示范园等地进行实地参观和学习。', '月17日，泰安市人社局党委委员、副局长蒋建民率领考察组一行8人和潍坊市人社局党委委员、市人力资源管理服务中心主任郭祥', '锋率领考察组一行15人来曹县考察学习劳动力转移就业和电子商务发展等工作的经验和做法。在菏泽市人社局副局长王海林、市劳动就业办、市就业促进科科长甄君华，曹县人社局长王晓德、县劳动就业办公室负责同志陪同下，考察组一行先后到曹县中小企业创业示范园、大集镇丁楼淘宝村、大集镇农村电商创业示范园等地进行实地参观和学习。', '发展等工作的经验和做法。在菏泽市人社局副局长王海林、市劳动就业办、市就业促进科科长甄君华，曹县人社局长王晓德、县劳动就业办公室负责同志陪同下，考察组一行先后到曹县中小企业创业示范园、大集镇丁楼淘宝村、大集镇农村电商创业示范园等地进行实地参观和学习。', '考察期间，曹县中小企业创业示范园、大集镇农村电商创业示范园等相关负责人就园区发展情况、园区建设情况、园区管理和服务、创业扶持政策落实等情况向客人进行了详细介绍。考察组还实地参观了鼎鼎服饰、金丽服饰生产加工基地，考察了服装材质、设计理念、销售等情况。', '在随后召开的座谈交流上，曹县相关负责人向考察组绍了创业园为返乡农民工和大学生搭建创业平台、提供服务、举办创业培训、电商培训、创业指导服务开展情况及提供的扶持政策，创建工作取得的明显成效及下步工作打算。', '考察组认为，曹县创业园的建设和管理很有特色，做到了领导重视、政策扶持到位、平台建设高效便民、多部门配合、厂区整洁，很值得学习和借鉴，学到了不少好的经验和做法。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>144</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>国企动态菏泽财金集团党委传达学习习近平总书记考察中国人民大学重要讲话精神</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2022-05-05</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1589800203936858112.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['标 题：【国企动态】菏泽财金集团党委传达学习习近平总书记考察中国人民大学重要讲话精神', '内容概述：【国企动态】菏泽财金集团党委传达学习习近平总书记考察中国人民大学重要讲话精神', '4月28日下午，财金集团召开党委（扩大）会议，落实“第一议题”制度，传达学习习近平总书记考察中国人民大学重要讲话精神，研究部署贯彻落实举措。集团党委书记、董事长林建主持会议，集团高管及各部室、子公司、团委负责人、青年代表参加会议。', '在五四青年节即将到来之际，习近平总书记考察中国人民大学，向全国各族青年致以节日祝贺，对当代青年提出殷切期望和明确要求。这是以习近平同志为核心的党中央送给全国青年的节日礼物，充分体现了习近平总书记对青年一代始终不移的关爱和一以贯之的重视，体现了党的领袖强烈的历史自觉和深邃的战略眼光。', '集团青年干部员工占比超六成，朝气蓬勃，富有想象力、创造力和突破力，是推动集团改革发展的主力军和生力军。时代要求一代更比一代强，伟大的时代为青年成长成才创造了平台和机遇，我们有幸生逢伟大时代，要牢记习近平总书记嘱托，深刻理解把握时代潮流、国家需要、人民期待，深刻认识自身肩负的历史使命，坚定前进信心，立大志、明大德、成大才、担大任，主动融入全市经济社会发展大局，在真刀真枪的实干中成就一番事业。', '一要胸怀国之大者，着眼中华民族伟大复兴战略全局和世界百年未有之大变局，始终爱国爱民爱企，将党史学习教育中激发出来的信念信心、热情激情转化为攻坚克难、建功岗位的具体行动；二要涵养前瞻思维，保持本领恐慌警觉，大力培养跨部门跨行业的专业综合能力，以更宽广的视野、更长远的眼光来思考把握未来发展面临的一系列重大问题，在实现自我成长的同时带动团队共同进步；三要勇于开拓创新，永葆谦虚谨慎不懈奋斗的精气神，既善于从别人走过的路中学习经验，也要敢于从没有路的地方闯出新路，让越来越多的潜力变成能力，让越来越多的不可能变成现实；四要锤炼品德修为，心怀感恩之心，感恩党和国家，感恩社会和人民，明辨是非、恪守正道，不怕吃苦、不惧风浪，保持定力、严守规矩，在接续奋斗中梦想成真，从中找到人生真谛、生命价值、事业方向。会议还传达了副市长肖友华和市国资委主任司品供在市属国有企业经理层任期制和契约化签约仪式上的讲话精神，对年度重点工作任务作了进一步安排部署。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>144</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>农安县创建动态县农业局组织赴莘县学习考察国家农产品质量安全县创建</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2018-09-04</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1ccab3000b/1589885307078049792.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['赴聊城市莘县围绕农产品质量安全追溯管理、基地管理、农资管理，农业人工智能大数据控制等方面进行考察学习。莘县农业局副局长魏保敬，农业综合执法大队副大队长陈瑞华等陪同。', '学习团先后实地参观考察了莘沃农业人工智能大数据控制中心、莘县农业科技安全展示厅、莘县农产品质量安全监控中心、莘县中原现代农业发展有限公司农资配送中心、莘县效力农资有限公司、莘县耀霆渔业合作社、莘县燕集农安办等地，着重考察学习了莘县农产品质量安全监控中心，并就示范区建设组织保障、质量安全标准化、化学投入品控制、疫情疫病监控、质量安全可追溯、预警与应急管理、宣传培训和诚信体系建设等问题与莘县农产品质量安全负责人进行了深入交流、研讨。每到一处，大家都详细看、认真听，边讨论、边思考，结合各自相关工作实际情况，对比总结，找差距，寻措施，学经验。', '考察结束后，孙万文指出，莘县的农产品质量安全创建方面取得了非常显著的成绩，探索出了一批可圈可点的典型经验和做法，通过参观学习，进一步认识到了自身的差距和短板，回去之后要结合我县农业工作实际，认真分析总结，创新工作思路，认真学习创建农产品质量安全县先进经验做法，让考察学习的效果实实在在体现在工作中。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>144</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>深入学习贯彻习近平总书记考察重庆重要讲话精神以积极有效工作坚决保障打赢脱贫攻坚战</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2019-05-06</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f70181ad6a22e000f1/1614061420964478976.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['深入学习贯彻习近平总书记考察重庆重要讲话精神 以积极有效工作坚决保障打赢脱贫攻坚战', '标 题：深入学习贯彻习近平总书记考察重庆重要讲话精神 以积极有效工作坚决保障打赢脱贫攻坚战', '内容概述：深入学习贯彻习近平总书记考察重庆重要讲话精神 以积极有效工作坚决保障打赢脱贫攻坚战', '4月26日至29日，中共中央政治局委员、中央纪委副书记、国家监委主任杨晓渡到四川省乐山市、凉山州进行调研。他强调，要全面贯彻习近平新时代中国特色社会主义思想和党的十九大精神，深入学习领会习近平总书记考察重庆重要讲话精神，认真落实十九届中央纪委三次全会部署和赵乐际同志指示要求，树牢“四个意识”、坚定“四个自信”、做到“两个维护”，把全面从严治党要求贯穿脱贫攻坚全过程，聚焦解决“两不愁三保障”突出问题，积极努力，有效推动，确保党中央决策部署坚决落到实处。', '日，中共中央政治局委员、中央纪委副书记、国家监委主任杨晓渡到四川省乐山市、凉山州进行调研。他强调，要全面贯彻习近平新时代中国特色社会主义思想和党的十九大精神，深入学习领会习近平总书记考察重庆重要讲话精神，认真落实十九届中央纪委三次全会部署和赵乐际同志指示要求，树牢“四个意识”、坚定“四个自信”、做到“两个维护”，把全面从严治党要求贯穿脱贫攻坚全过程，聚焦解决“两不愁三保障”突出问题，积极努力，有效推动，确保党中央决策部署坚决落到实处。', '杨晓渡先后来到马边县荣丁镇后池村、劳动乡福来村、民建小学和雷波县马湖乡额子沟莼菜基地、汶水镇铜厂沟村、八寨中心乡甲谷村等地，走访慰问贫困群众并详细询问他们的家庭生活、住房改造、看病就医、孩子就学等情况，深入了解基层党建、产业扶贫、教育及健康扶贫等情况，要求基层党员干部以身作则、带头攻坚，让贫困群众过上好日子。他在看望中央纪委国家监委扶贫干部时强调，要带头发扬党的优良传统和作风，扎扎实实做好定点扶贫工作，为实现两县脱贫摘帽作出贡献。', '调研期间，杨晓渡还在两县分别召开了市（州）县乡（镇）党委书记、纪委书记及有关同志参加的座谈会。他指出，在党中央坚强领导下，在省委和市（州）委带领下，两县脱贫攻坚工作取得重要阶段性成果，进入决战决胜的关键阶段，大家要进一步把思想和行动统一到党中央决策部署上来，深入学习领悟习近平新时代中国特色社会主义思想，包括习近平总书记考察重庆重要讲话精神，并用以武装头脑、指导实践、推动工作；要坚持稳中求进工作总基调，在巩固已有成果基础上，继续稳扎稳打、步步为营，以更加坚强有力的领导、更加严实深细的作风，确保脱贫攻坚任务高质量完成。纪检监察机关要切实提高履职能力，强化政治监督，加强对脱贫攻坚主体责任履行情况的监督检查，督促并协助大家把“两个维护”落实到具体工作中，为打赢脱贫攻坚战提供坚强保障。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>144</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>菏泽市应急系统赴日照市岚山区考察学习第一次全国自然灾害综合风险普查工作</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a224ea2001a/1589866654186078208.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['为贯彻落实国务院、省政府关于第一次全国自然灾害综合风险普查的工作要求，扎实推进我市第一次全国自然灾害综合风险普查工作。3月2日，市应急局副局长张永进带领各县区分管局长、科室负责人等赴日照市、岚山区考察学习为贯彻落实国务院、省政府关于第一次全国自然灾害综合风险普查的工作要求，扎实推进我市第一次全国自然灾害综合风险普查工作。3月2日，市应急局副局长张永进带领各县区分管局长、科室负责人等赴日照市、岚山区考察学习第一次全国自然灾害综合风险普查工作方面的先进理念和工作经验。', '张永进一行首先听取了日照市关于第一次全国自然灾害综合风险普查工作的情况介绍，并结合我市实际，围绕组织领导、方案编制、实施方式、预算测算等方面问题进行了探讨。随后赶赴岚山区，观摩岚山区风险普查的成果，并进行了座谈交流，双方就县级层面普查工作进行了深入沟通。', '张永进副局长表示，此行受益匪浅。市、县要以此次考察学习为契机，认真学习总结相关经验做法，全力推进我市第一次全国自然灾害综合风险普查工作。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>144</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>国企动态菏泽市加快服务业高质量发展专题班一行赴菏泽城投老城曹州项目考察学习</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1805410249553989632.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['标 题：【国企动态】菏泽市加快服务业高质量发展专题班一行赴菏泽城投老城曹州项目考察学习', '内容概述：【国企动态】菏泽市加快服务业高质量发展专题班一行赴菏泽城投老城曹州项目考察学习', '6月20日下午，市发展和改革委员会主任、市国防动员办公室主任杨绍青带队菏泽市加快服务业高质量发展专题班一行赴菏泽城投老城曹州项目考察学习。牡丹区委常委、区政府党组副书记、副区长周建家，牡丹区西城街道办事处党工委书记张效坤，菏泽城投集团总经理助理、曹州花城公司董事长张昊及相关负责同志参加活动。', '杨绍青一行先后参观了展示中心、慎思园，1446商业街区，了解历史悠久的菏泽文化，亲身体会菏泽城投老城曹州文旅产业的蓬勃活力，并听取项目基本情况介绍。', '通过现场参观和听取介绍，杨绍青一行对菏泽城投老城曹州项目景区的发展现状、项目招引、活动开展等情况给予高度评价，并要求考察团成员认真把握此次学习机会，用心看、对比学、认真悟、深入想，结合菏泽当地实际，不断创新在项目建设中的经验做法，推动工作再上新台阶。', '下一步，菏泽城投将以此次考察学习为契机，切实增强做好重点项目建设的使命感和责任感，对标先进找差距，解放思想、真抓实干、锐意进取，加大项目建设力度，提升项目招引水平，认真打造重点项目集群，推动各项产业提质增效，为实现经济高质量发展做出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>144</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>肥城市职业中等专业学校春季高考教学工作考察团到鄄城县职业中等专业学校参观学习</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2020-10-15</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a259ed7001c/1589539456476512256.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['标 题：肥城市职业中等专业学校春季高考教学工作考察团到鄄城县职业中等专业学校参观学习', '内容概述：肥城市职业中等专业学校春季高考教学工作考察团到鄄城县职业中等专业学校参观学习', '10月15日，肥城市职业中等专业学校春季高考教学工作考察团一行9人，在学校党委副书记温令自的带领下来到鄄城县职业中等专业学校考察交流。县教体局副局长王方立、校党支部书记胡继东、校长齐鲁金、教务处和相关专业专业教学部领导陪同交流并参加了座谈。', '齐鲁金校长代表学校对肥城市职业中专的各位领导的到来表达了热烈的欢迎，双方就课堂教学、春季高考等工作进行了深入交流。齐校长重点介绍了学校的发展机遇、管理体制建设、师资队伍建设、春季高考办学经验、山东省示范校和品牌专业建设等情况。听了齐校长的发言后，肥城市职业中专党委副书记温令自赞叹不已并表示，双方以后要常来常往加强交流学习。随后，齐校长陪同温书记参观校园。参观结束后，各部门、各专业教学部分头对接进行了经验交流。', '双方在欢快的氛围中结束了交流活动，肥城市职业中专党委副书记温令自对我校开放的胸怀表达了感谢，对此行的意义做出了肯定，最后也邀请我校领导和教师能够到肥城市职业中专传经送宝、做客交流。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>144</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>学习中共山东省自然资源厅党组关于认真学习贯彻习近平总书记在内蒙古考察并自然资源厅指导开展不忘初心牢记使命主题教育时重要讲话精神的通知</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2019-07-26</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a26ffcf0020/1598970444705169408.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['学习《中共山东省自然资源厅党组关于认真学习贯彻习近平总书记在内蒙古考察并自然资源厅指导开展“不忘初心、牢记使命”主题教育时重要讲话精神的通知》', '标 题：学习《中共山东省自然资源厅党组关于认真学习贯彻习近平总书记在内蒙古考察并自然资源厅指导开展“不忘初心、牢记使命”主题教育时重要讲话精神的通知》', '内容概述：学习《中共山东省自然资源厅党组关于认真学习贯彻习近平总书记在内蒙古考察并自然资源厅指导开展“不忘初心、牢记使命”主题教育时重要讲话精神的通知》', '7月25日，市林业局党组书记、局长曹格林同志带领全局干部职工共同学习了《中共山东省自然资源厅党组关于认真学习贯彻习近平总书记在内蒙古考察并自然资源厅指导开展“不忘初心、牢记使命”主题教育时重要讲话精神的通知》鲁自然资党发[2019]23号文，讲话充分体现了以习近平同志为核心的党中央对生态文明建设和自然资源工作的高度重视、对自然资源机构改革的殷切期望、对自然资源系统广大干部职工的亲切关怀。', '曹格林强调，要始终围绕主题教育的根本任务和总要求，把“四个迫切需要”统一起来，把学习教育、调查研究、检视问题、整改落实四项重点措施贯穿全过程，做到有机融合、统筹推进，在联系群众、锤炼党性、求实求效、促进发展上下功夫。要坚持以上率下，把自己摆进去、把职责摆进去。要善于发现、善于思考、善于总结，突出重点、彰显特色，带动整体工作提升。要发挥主观能动性，积极探索解决问题好办法好机制，把学习成效转化为工作成果。要深入一线、深入基层，多和教育主体接触，在精准指导上下功夫。要抓好载体、重点突破，在加强基层基础、推动乡村振兴等方面用真劲、出实招。要硬起手腕抓好专项整治，在真抓实改上下功夫，以真刀真枪解决问题的实效增强主题教育效果。要坚持目标导向，提高能力水平，推动主题教育取得扎实成效。', '全局上下要把认真学习贯彻习近平总书记的重要讲话精神，作为当前和今后一个时期全市林业系统的首要政治任务，结合林业改革发展进程中肩负的使命、面临的深入学习领悟，认真贯彻落实。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>144</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>菏泽市社会救助人员赴德州临邑县考察学习社会救助大救助平台建设和审批权下放放管服改革</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2019-09-26</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a277b870021/1583668110068547584.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['菏泽市社会救助人员赴德州临邑县考察学习社会救助大救助平台建设和审批权下放“放管服”改革', '标 题：菏泽市社会救助人员赴德州临邑县考察学习社会救助大救助平台建设和审批权下放“放管服”改革', '内容概述：菏泽市社会救助人员赴德州临邑县考察学习社会救助大救助平台建设和审批权下放“放管服”改革', '9月24日，菏泽市民政局副局长黄贤峰率领市民政局社会救助科工作人员、各县区民政局分管社会救助的局长、救助股长，赴德州临邑县考察学习社会救助大平台建设和审核审批权下放“放管服”改革。', '学习考察人员先后深入临邑县社会救助服务中心、临邑镇民生民政办公室、朱家胡同村党群服务中心，听取工作人员介绍，观看社会救助系统操作工作流程演示。认真考察大救助平台建设情况，学习审核审批下放改革做法，仔细询问救助工作成效。随后，在临邑县民政局会议室听取了临邑县民政局领导和工作人员进行面对面座谈交流，对社会救助大平台建设和审核审批下放存在的疑问进行咨询。', '黄贤峰同志和考察学习组人员在德州市民政局分管局长赵欣同志（右1）等陪同下参观临邑县社会救助中心']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>144</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>招标投标交流学习促提升互学互鉴共成长胶州市公共资源交易中心到郓城县公共资源交易中心考察交流</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2023-10-13</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a3031560035/1736661053267382272.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['【招标投标】交流学习促提升 互学互鉴共成长 ——胶州市公共资源交易中心到郓城县公共资源交易中心考察交流', '标 题：【招标投标】交流学习促提升 互学互鉴共成长 ——胶州市公共资源交易中心到郓城县公共资源交易中心考察交流', '内容概述：【招标投标】交流学习促提升 互学互鉴共成长 ——胶州市公共资源交易中心到郓城县公共资源交易中心考察交流', '为进一步深化公共资源交易领域改革，持续优化营商环境，建立跨市远程异地评标的长效合作机制，10月12日，胶州市公共资源交易中心一行3人到郓城县公共资源交易中心考察学习。', '郓城县公共资源交易中心主任谢铨陪同考擦组参观了受理服务区、开标区、评标区、监督区、远程异地评标区、专家接待区等功能区域，并对考察人员提出的相关工作流程问题进行了详细解答。随后开展座谈交流。', '座谈会上，双方签订了《远程异地评标合作协议书》，交流讨论了交易平台建设及创新情况、推动国有产权交易、工程建设项目实施“评定分离”改革、数字见证、全流程电子化等工作情况，重点围绕优化营商环境、远程异地评标、提升代理机构管理等工作进行了深入研讨。', '胶州市公共资源交易中心表示，郓城县公共资源交易中心从公共资源交易制度化、规范化、标准化建设，从项目进场服务到交易见证管理以及推动全流程电子化等方面的创新改革非常具有实用性，项目交易流程简洁高效，很值得学习借鉴。', '双方一致表示，胶州市、郓城县两地公共资源交易中心会继续加强联系、密切沟通，把相互学习交流作为拓宽发展思路、提升工作水平的有效途径，共同促进公共资源交易工作提质增效。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>144</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>文字解读菏泽市财政局局长办公会议解读学习贯彻习近平总书记在陕西榆林考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a2ab278002d/1566716483843653632.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['【文字解读】菏泽市财政局局长办公会议解读——学习贯彻习近平总书记在陕西榆林考察时的重要讲话精神', '标 题：【文字解读】菏泽市财政局局长办公会议解读——学习贯彻习近平总书记在陕西榆林考察时的重要讲话精神', '内容概述：【文字解读】菏泽市财政局局长办公会议解读——学习贯彻习近平总书记在陕西榆林考察时的重要讲话精神', '2021年10月28日，市财政局党组书记、局长肖友华主持召开市财政局党组（扩大）会议，会议传达了习近平总书记在陕西榆林考察时的重要讲话精神、白玉刚同志在全省党史学习教育巡回指导组组长视频座谈会上的讲话和在全省党史学习教育领导小组办公室主任视频会上的讲话、陈强同志在全市党史学习教育巡回指导工作视频会议的讲话精神等讲话精神。现解读如下：', '要求严格按照中央、省市党史学习教育领导小组的要求开展，在做好规定动作的基础上，持续深入开展各类爱党、爱国专题活动；要进一步推进“我为群众办实事”取得实效，重新梳理“办实事”项目清单，提升为群众办实事水平；提高专题组织生活会的质量，各支部要进一步提升支部书记讲党课的质量，突出抓好专题组织生活会查摆问题的整改落实，确保年底前整改到位；充分挖掘好经验好做法，营造良好的党史学习教育舆论氛围，继续推进党史学习教育走深走实。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>144</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>市林业局学习贯彻习近平总书记在内蒙古考察并到自然资源厅指导开展不忘初心牢记使命主题教育时重要讲话精神</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2019-07-29</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a26ffcf0020/1585425631816974336.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['市林业局学习贯彻习近平总书记在内蒙古考察并到自然资源厅指导开展“不忘初心、牢记使命”主题教育时重要讲话精神', '标 题：市林业局学习贯彻习近平总书记在内蒙古考察并到自然资源厅指导开展“不忘初心、牢记使命”主题教育时重要讲话精神', '内容概述：市林业局学习贯彻习近平总书记在内蒙古考察并到自然资源厅指导开展“不忘初心、牢记使命”主题教育时重要讲话精神', '《中共山东省自然资源厅党组关于认真学习贯彻习近平总书记在内蒙古考察并到自然资源厅指导开展“不忘初心、牢记使命”主题教育时重要讲话精神的通知》鲁自然资党发[2019]23号文，讲话充分体现了以习近平同志为核心的党中央对生态文明建设和自然资源工作的高度重视、对自然资源机构改革的殷切期望、对自然资源系统广大干部职工的亲切关怀。', '《中共山东省自然资源厅党组关于认真学习贯彻习近平总书记在内蒙古考察并到自然资源厅指导开展', '曹格林强调，要始终围绕主题教育的根本任务和总要求，把“四个迫切需要”统一起来，把学习教育、调查研究、检视问题、整改落实四项重点措施贯穿全过程，做到有机融合、统筹推进，在联系群众、锤炼党性、求实求效、促进发展上下功夫。要坚持以上率下，把自己摆进去、把职责摆进去。要善于发现、善于思考、善于总结，突出重点、彰显特色，带动整体工作提升。要发挥主观能动性，积极探索解决问题好办法好机制，把学习成效转化为工作成果。要深入一线、深入基层，多和教育主体接触，在精准指导上下功夫。要抓好载体、重点突破，在加强基层基础、推动乡村振兴等方面用真劲、出实招。要硬起手腕抓好专项整治，在真抓实改上下功夫，以真刀真枪解决问题的实效增强主题教育效果。要坚持目标导向，提高能力水平，推动主题教育取得扎实成效。', '要把认真学习贯彻习近平总书记的重要讲话精神，作为当前和今后一个时期全市林业系统的首要政治任务，结合林业改革发展进程中肩负的使命、面临的挑战深入学习领悟，认真贯彻落实。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>144</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>李庆新带领局双联双创工作组成员和联创村两委干部及驻村第一书记到鄄城县考察学习精准扶贫工作</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2016-04-02</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1930070001/1582926453735948288.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['李庆新带领局双联双创工作组成员和联创村两委干部及驻村“第一书记”到鄄城县考察学习精准扶贫工作', '标 题：李庆新带领局双联双创工作组成员和联创村两委干部及驻村“第一书记”到鄄城县考察学习精准扶贫工作', '内容概述：李庆新带领局双联双创工作组成员和联创村两委干部及驻村“第一书记”到鄄城县考察学习精准扶贫工作', '，市人社局党组副书记、副局长李庆新带领局双联双创6个工作组部分成员和郓城县黄安镇6个联创村村两委干部到鄄城县考察学习精准扶贫工作，郓城县委常委、副县长、市选派郓城县“第一书记”工作组组长杨勇带领驻黄安镇各村“第一书记”全程参与考察，鄄城', '参观，并在鄄城县人社局召开了座谈会。座谈前，考察团首先观看了鄄城县精准扶贫宣传片，局副调研员、双联双创第6工作组组长袁爱民主持座谈会，李沉静详细介绍了鄄城县精准扶贫基本情况，6个联创村村两委干部分别结合本村实际，谈了各自参观学习后的感想和下一步工作设想，市驻黄安镇各村“第一书记”各自结合自身实际谈了学习体会，局6个联创村工作组负责同志针对各村情况做了表态发言。', '最后，李庆新对做好下一步“双联双创”和驻村“第一书记”工作提出了具体要求：一是要求局各个工作组要紧密结合村两委干部以此次考察学习为契机，把鄄城县精准扶贫的先进经验和做法运用到本村的精准扶贫工作中。二是要高度重视村基础设施建设，要利用好涉农资金，加强村道路、群众文化广场等基础设施建设，给群众营造一个舒适的生活环境。三是要依靠村两委干部摸清贫困户底数，做到一户一策，实施精准扶贫，争取早日打赢扶贫攻坚战。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>144</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>国企动态安徽省马鞍山市花山区人大常委会副主任一行莅临菏泽城投老城曹州考察学习</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1729048730461671424.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['标 题：【国企动态】安徽省马鞍山市花山区人大常委会副主任一行莅临菏泽城投老城曹州考察学习', '内容概述：【国企动态】安徽省马鞍山市花山区人大常委会副主任一行莅临菏泽城投老城曹州考察学习', '11月21日，安徽省马鞍山市花山区人大常委会副主任袁德琴一行深入到菏泽城投老城曹州项目，就文旅产业发展暨招商引资进行考察交流。菏泽城投曹州花城公司副总经理、曹州花邑公司董事长武东豪，花邑公司总经理张士华陪同活动。', '袁德琴一行先后参观了老城曹州展示中心、慎思园、永安塔等景点。考察过程中，一路走、一路看、一路议，认真听取景区有关负责人介绍，了解菏泽的悠久历史文化及老城曹州景区的发展现状、发展规模和未来发展规划等情况。', '实地考察结束后，双方开展了座谈交流，围绕发挥区位优势、项目政企合作、运营管理、企业招引及未来发展方向等方面内容进行了深入探讨。考察团表示，希望能加强交流合作，实现资源共享、优势互补、互利共赢，共同为两地文旅产业发展作出积极贡献。', '下一步，菏泽城投老城曹州项目将积极开放思维、打破既定模式，通过创意手法将不同的跨界元素重组融合，满足消费者对于游玩场景中关于互动、体验、沉浸的诉求；持续推进景区景点建设，通过深度谋划“夜经济”、露营地等形式，做大做强文旅产业；坚持招大引强，推进重大项目签约落地，扩大产业集聚效应。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>144</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>菏泽市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>国企动态菏泽市土发集团党委召开扩大会议认真学习贯彻习近平总书记考察山东并主持召开企业和专家座谈会时重要讲话精神</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2024-05-29</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.heze.gov.cn/0530/2c908088819842f701819a1eae770012/1796082754056839168.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['【国企动态】菏泽市土发集团党委召开扩大会议 认真学习贯彻习近平总书记考察山东并主持召开企业和专家座谈会时重要讲话精神', '标 题：【国企动态】菏泽市土发集团党委召开扩大会议 认真学习贯彻习近平总书记考察山东并主持召开企业和专家座谈会时重要讲话精神', '内容概述：【国企动态】菏泽市土发集团党委召开扩大会议 认真学习贯彻习近平总书记考察山东并主持召开企业和专家座谈会时重要讲话精神', '5月27日，菏泽市土发集团党委召开扩大会议，认真学习领会习近平总书记考察山东并主持召开企业和专家座谈会时的重要讲话精神，研究部署学习贯彻落实工作。菏泽市土发集团党委书记、董事长苏红军主持会议并讲话，集团领导班子成员参加会议。', '会上，与会人员围绕学习贯彻习近平总书记重要讲话重要指示精神，结合思想和工作实际作了发言', '会议指出，习近平总书记视察山东重要讲话重要指示精神，为我们做好下步工作指明了前进方向、提供了根本遵循。集团各级党组织和全体党员干部要把学习宣传贯彻习近平总书记重要讲话重要指示精神，作为当前和今后一个时期的重大政治任务，全面理解总书记对山东发展的总定位新要求，准确把握总书记关于进一步全面深化改革的重要要求，推动学习宣传贯彻走深走实。', '会议强调，要以强烈的责任感不折不扣落实好习近平总书记重要讲话重要指示精神，自觉对标对表，把学习贯彻习近平总书记重要讲话重要指示精神同推进集团公司重点工作结合起来，坚定不移加强党的建设，扎实开展党纪学习教育，深入落实市委《关于提升干部队伍能力作风的20条意见》，完整准确全面贯彻新发展理念，做好生产经营、国企改革等各项重点工作，为菏泽后来居上奋斗目标贡献力量。']</t>
         </is>
